--- a/Covid_29019_cc.xlsx
+++ b/Covid_29019_cc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF33A081-2B8A-8547-AE2A-C57CAC3A84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD93444-BDDB-8F49-B227-B72EF1A002DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="2620" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,16 +881,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="B483" sqref="B483"/>
+    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="67.5" customWidth="1"/>
     <col min="4" max="6" width="54.5" customWidth="1"/>
   </cols>
@@ -908,7 +908,7 @@
         <v>44050</v>
       </c>
       <c r="B2">
-        <v>3.2857071394865001</v>
+        <v>40.909613414577699</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>44051</v>
       </c>
       <c r="B3">
-        <v>3.8823159244688501</v>
+        <v>40.918825944146597</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
         <v>44052</v>
       </c>
       <c r="B4">
-        <v>4.47887948008003</v>
+        <v>40.928115139803403</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -932,7 +932,7 @@
         <v>44053</v>
       </c>
       <c r="B5">
-        <v>5.075476616534</v>
+        <v>40.937487478033702</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>44054</v>
       </c>
       <c r="B6">
-        <v>5.6722213570773699</v>
+        <v>40.9469506871161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>44055</v>
       </c>
       <c r="B7">
-        <v>6.2692623041104101</v>
+        <v>40.956514426962201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +956,7 @@
         <v>44056</v>
       </c>
       <c r="B8">
-        <v>6.86676567984283</v>
+        <v>40.966190861446897</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
         <v>44057</v>
       </c>
       <c r="B9">
-        <v>7.4648995769586701</v>
+        <v>40.975994792843103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,7 +972,7 @@
         <v>44058</v>
       </c>
       <c r="B10">
-        <v>8.0638306397973096</v>
+        <v>40.9859421208497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
         <v>44059</v>
       </c>
       <c r="B11">
-        <v>8.6637282593314602</v>
+        <v>40.996048225741298</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>44060</v>
       </c>
       <c r="B12">
-        <v>9.2647773654314598</v>
+        <v>41.006327759578497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>44061</v>
       </c>
       <c r="B13">
-        <v>9.8671860372327203</v>
+        <v>41.016795558967203</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>44062</v>
       </c>
       <c r="B14">
-        <v>10.471171458844999</v>
+        <v>41.027467216068601</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>44063</v>
       </c>
       <c r="B15">
-        <v>11.0769439564212</v>
+        <v>41.038358951041303</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>44064</v>
       </c>
       <c r="B16">
-        <v>11.684693531815499</v>
+        <v>41.049486414224098</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>44065</v>
       </c>
       <c r="B17">
-        <v>12.294590267799199</v>
+        <v>41.060863383899402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>44066</v>
       </c>
       <c r="B18">
-        <v>12.9068029282579</v>
+        <v>41.072501719572401</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
         <v>44067</v>
       </c>
       <c r="B19">
-        <v>13.521510815809799</v>
+        <v>41.084412384985001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>44068</v>
       </c>
       <c r="B20">
-        <v>14.1389052582093</v>
+        <v>41.0966060219288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>44069</v>
       </c>
       <c r="B21">
-        <v>14.7591656389882</v>
+        <v>41.109092594363702</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>44070</v>
       </c>
       <c r="B22">
-        <v>15.3824379691197</v>
+        <v>41.121880453933798</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>44071</v>
       </c>
       <c r="B23">
-        <v>16.008835012649101</v>
+        <v>41.134975368007602</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
         <v>44072</v>
       </c>
       <c r="B24">
-        <v>16.638447084402401</v>
+        <v>41.1483805940642</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>44073</v>
       </c>
       <c r="B25">
-        <v>17.271362516572601</v>
+        <v>41.162097902099703</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>17.9076799205715</v>
+        <v>41.176128155819498</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>44075</v>
       </c>
       <c r="B27">
-        <v>18.5474897974158</v>
+        <v>41.190470787600397</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>44076</v>
       </c>
       <c r="B28">
-        <v>19.190855093062101</v>
+        <v>41.205123068870797</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>44077</v>
       </c>
       <c r="B29">
-        <v>19.837796743390399</v>
+        <v>41.220079463499303</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>44078</v>
       </c>
       <c r="B30">
-        <v>20.488297445738901</v>
+        <v>41.235331813953103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>44079</v>
       </c>
       <c r="B31">
-        <v>21.142327871550801</v>
+        <v>41.250870241327199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>44080</v>
       </c>
       <c r="B32">
-        <v>21.799862679262901</v>
+        <v>41.2666837051312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>44081</v>
       </c>
       <c r="B33">
-        <v>22.460881781032199</v>
+        <v>41.2827594156484</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>44082</v>
       </c>
       <c r="B34">
-        <v>23.125343345720299</v>
+        <v>41.299082272348102</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>44083</v>
       </c>
       <c r="B35">
-        <v>23.7931604417942</v>
+        <v>41.315634514018498</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>44084</v>
       </c>
       <c r="B36">
-        <v>24.464204413085401</v>
+        <v>41.332396055271403</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>44085</v>
       </c>
       <c r="B37">
-        <v>25.138320034640699</v>
+        <v>41.349345130001602</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>44086</v>
       </c>
       <c r="B38">
-        <v>25.8153484611124</v>
+        <v>41.366458710471797</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>44087</v>
       </c>
       <c r="B39">
-        <v>26.495140534620699</v>
+        <v>41.383712042091503</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>44088</v>
       </c>
       <c r="B40">
-        <v>27.1775373341106</v>
+        <v>41.401078232528398</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>44089</v>
       </c>
       <c r="B41">
-        <v>27.862351192605502</v>
+        <v>41.418528146687898</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>44090</v>
       </c>
       <c r="B42">
-        <v>28.549353510874301</v>
+        <v>41.436030791504699</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>44091</v>
       </c>
       <c r="B43">
-        <v>29.238280719736199</v>
+        <v>41.453553752734102</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>44092</v>
       </c>
       <c r="B44">
-        <v>29.928861477827301</v>
+        <v>41.4710634779846</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>44093</v>
       </c>
       <c r="B45">
-        <v>30.620832478781001</v>
+        <v>41.488524962639097</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>44094</v>
       </c>
       <c r="B46">
-        <v>31.313938070547799</v>
+        <v>41.505901488228901</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>44095</v>
       </c>
       <c r="B47">
-        <v>32.007906614372402</v>
+        <v>41.5231546909136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>44096</v>
       </c>
       <c r="B48">
-        <v>32.702430629270502</v>
+        <v>41.540244906312303</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>44097</v>
       </c>
       <c r="B49">
-        <v>33.397171645001698</v>
+        <v>41.557131444544801</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>44098</v>
       </c>
       <c r="B50">
-        <v>34.091775495809003</v>
+        <v>41.573772755392802</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
         <v>44099</v>
       </c>
       <c r="B51">
-        <v>34.785891995510603</v>
+        <v>41.590126280467103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1308,7 @@
         <v>44100</v>
       </c>
       <c r="B52">
-        <v>35.479185834191597</v>
+        <v>41.606148350567899</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1316,7 +1316,7 @@
         <v>44101</v>
       </c>
       <c r="B53">
-        <v>36.171320096830499</v>
+        <v>41.621794343812397</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1324,7 +1324,7 @@
         <v>44102</v>
       </c>
       <c r="B54">
-        <v>36.861941360529499</v>
+        <v>41.637018922464797</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
         <v>44103</v>
       </c>
       <c r="B55">
-        <v>37.550671598638502</v>
+        <v>41.651776180201601</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>38.237114221496</v>
+        <v>41.666019713308103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,7 +1348,7 @@
         <v>44105</v>
       </c>
       <c r="B57">
-        <v>38.920876153025702</v>
+        <v>41.679702647453702</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>44106</v>
       </c>
       <c r="B58">
-        <v>39.6015800693079</v>
+        <v>41.6927777145997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>44107</v>
       </c>
       <c r="B59">
-        <v>40.278862747094202</v>
+        <v>41.705197405743696</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1372,7 @@
         <v>44108</v>
       </c>
       <c r="B60">
-        <v>40.952358101593198</v>
+        <v>41.716914055764001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>44109</v>
       </c>
       <c r="B61">
-        <v>41.6216833362746</v>
+        <v>41.727879882346997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>44110</v>
       </c>
       <c r="B62">
-        <v>42.2864434047614</v>
+        <v>41.738047047130699</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1396,7 @@
         <v>44111</v>
       </c>
       <c r="B63">
-        <v>42.946243009340101</v>
+        <v>41.747367801832503</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>44112</v>
       </c>
       <c r="B64">
-        <v>43.6007001950477</v>
+        <v>41.755794697988897</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,7 +1412,7 @@
         <v>44113</v>
       </c>
       <c r="B65">
-        <v>44.249453386224701</v>
+        <v>41.7632807121621</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>44114</v>
       </c>
       <c r="B66">
-        <v>44.892149478041702</v>
+        <v>41.769779159470801</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>44115</v>
       </c>
       <c r="B67">
-        <v>45.528433710576401</v>
+        <v>41.775243627978099</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
         <v>44116</v>
       </c>
       <c r="B68">
-        <v>46.157944948641699</v>
+        <v>41.779628100843603</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>44117</v>
       </c>
       <c r="B69">
-        <v>46.7803200910557</v>
+        <v>41.7828871886935</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1452,7 +1452,7 @@
         <v>44118</v>
       </c>
       <c r="B70">
-        <v>47.395208720949903</v>
+        <v>41.784976414885797</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>44119</v>
       </c>
       <c r="B71">
-        <v>48.002280645896299</v>
+        <v>41.785852296342398</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>44120</v>
       </c>
       <c r="B72">
-        <v>48.601223449025603</v>
+        <v>41.785472089319697</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,7 +1476,7 @@
         <v>44121</v>
       </c>
       <c r="B73">
-        <v>49.191731585710201</v>
+        <v>41.783793608963002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,7 +1484,7 @@
         <v>44122</v>
       </c>
       <c r="B74">
-        <v>49.773497715992697</v>
+        <v>41.780775470307603</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>44123</v>
       </c>
       <c r="B75">
-        <v>50.346215591509299</v>
+        <v>41.776377392260798</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
         <v>44124</v>
       </c>
       <c r="B76">
-        <v>50.909587540500098</v>
+        <v>41.770560499308097</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
         <v>44125</v>
       </c>
       <c r="B77">
-        <v>51.463331933267703</v>
+        <v>41.763287292286897</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1516,7 +1516,7 @@
         <v>44126</v>
       </c>
       <c r="B78">
-        <v>52.007186382154998</v>
+        <v>41.754521304419498</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
         <v>44127</v>
       </c>
       <c r="B79">
-        <v>52.540899874638598</v>
+        <v>41.744226845443897</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>44128</v>
       </c>
       <c r="B80">
-        <v>53.0642264997335</v>
+        <v>41.732369344615798</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,7 +1540,7 @@
         <v>44129</v>
       </c>
       <c r="B81">
-        <v>53.576922885612603</v>
+        <v>41.718915725476798</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>44130</v>
       </c>
       <c r="B82">
-        <v>54.078750605796102</v>
+        <v>41.703834669087399</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>44131</v>
       </c>
       <c r="B83">
-        <v>54.5694837840446</v>
+        <v>41.687096440142703</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>44132</v>
       </c>
       <c r="B84">
-        <v>55.048912292847703</v>
+        <v>41.668672501050402</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
         <v>44133</v>
       </c>
       <c r="B85">
-        <v>55.5168390955848</v>
+        <v>41.648535220626997</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,7 +1580,7 @@
         <v>44134</v>
       </c>
       <c r="B86">
-        <v>55.973074200721697</v>
+        <v>41.626658302483499</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>56.417430215924803</v>
+        <v>41.603017239072301</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>44136</v>
       </c>
       <c r="B88">
-        <v>56.849723753915796</v>
+        <v>41.577589489238903</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>44137</v>
       </c>
       <c r="B89">
-        <v>57.269778738338502</v>
+        <v>41.550354153309698</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
         <v>44138</v>
       </c>
       <c r="B90">
-        <v>57.677428876548198</v>
+        <v>41.521291567710897</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>44139</v>
       </c>
       <c r="B91">
-        <v>58.072517870724297</v>
+        <v>41.490383010841299</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,7 +1628,7 @@
         <v>44140</v>
       </c>
       <c r="B92">
-        <v>58.454895332427803</v>
+        <v>41.4576112065469</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,7 +1636,7 @@
         <v>44141</v>
       </c>
       <c r="B93">
-        <v>58.824413987023199</v>
+        <v>41.422960870077098</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>44142</v>
       </c>
       <c r="B94">
-        <v>59.1809288706553</v>
+        <v>41.3864187617108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>44143</v>
       </c>
       <c r="B95">
-        <v>59.524298220593799</v>
+        <v>41.347973219908098</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>44144</v>
       </c>
       <c r="B96">
-        <v>59.854385162280899</v>
+        <v>41.3076137462538</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>44145</v>
       </c>
       <c r="B97">
-        <v>60.1710574355277</v>
+        <v>41.265330804342</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>44146</v>
       </c>
       <c r="B98">
-        <v>60.474185434846802</v>
+        <v>41.221116317415202</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>44147</v>
       </c>
       <c r="B99">
-        <v>60.763640455262397</v>
+        <v>41.174964249839498</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1692,7 +1692,7 @@
         <v>44148</v>
       </c>
       <c r="B100">
-        <v>61.039294103822201</v>
+        <v>41.126870581375002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
         <v>44149</v>
       </c>
       <c r="B101">
-        <v>61.301018811839199</v>
+        <v>41.076832719720599</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
         <v>44150</v>
       </c>
       <c r="B102">
-        <v>61.548687737311099</v>
+        <v>41.024849074925797</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>44151</v>
       </c>
       <c r="B103">
-        <v>61.7821736085601</v>
+        <v>40.970919014529002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>44152</v>
       </c>
       <c r="B104">
-        <v>62.001347043478098</v>
+        <v>40.915043322435302</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>44153</v>
       </c>
       <c r="B105">
-        <v>62.2060762795399</v>
+        <v>40.857224748946003</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1740,7 +1740,7 @@
         <v>44154</v>
       </c>
       <c r="B106">
-        <v>62.3962277994573</v>
+        <v>40.797467945899498</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,7 @@
         <v>44155</v>
       </c>
       <c r="B107">
-        <v>62.571667177865102</v>
+        <v>40.735778789168997</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1756,7 +1756,7 @@
         <v>44156</v>
       </c>
       <c r="B108">
-        <v>62.732259108201099</v>
+        <v>40.672163933126697</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1764,7 +1764,7 @@
         <v>44157</v>
       </c>
       <c r="B109">
-        <v>62.877864549476399</v>
+        <v>40.6066309372696</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>44158</v>
       </c>
       <c r="B110">
-        <v>63.008338000635298</v>
+        <v>40.539188701174098</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>44159</v>
       </c>
       <c r="B111">
-        <v>63.123527073233703</v>
+        <v>40.469847949668697</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>44160</v>
       </c>
       <c r="B112">
-        <v>63.223274516076899</v>
+        <v>40.398621132287197</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
         <v>44161</v>
       </c>
       <c r="B113">
-        <v>63.307421038436999</v>
+        <v>40.3255216921685</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>44162</v>
       </c>
       <c r="B114">
-        <v>63.3758053817591</v>
+        <v>40.250563585284802</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>44163</v>
       </c>
       <c r="B115">
-        <v>63.428261581702699</v>
+        <v>40.173761583082502</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>44164</v>
       </c>
       <c r="B116">
-        <v>63.464615353523897</v>
+        <v>40.095131700195999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1828,7 +1828,7 @@
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>63.484681371130698</v>
+        <v>40.014691587703098</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
         <v>44166</v>
       </c>
       <c r="B118">
-        <v>63.488266477636401</v>
+        <v>39.932460352194802</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
         <v>44167</v>
       </c>
       <c r="B119">
-        <v>63.475173382101303</v>
+        <v>39.848457862372797</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
         <v>44168</v>
       </c>
       <c r="B120">
-        <v>63.445202892734102</v>
+        <v>39.762704264640597</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>44169</v>
       </c>
       <c r="B121">
-        <v>63.398153557949598</v>
+        <v>39.675220403362701</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
         <v>44170</v>
       </c>
       <c r="B122">
-        <v>63.333815452262797</v>
+        <v>39.5860282568458</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1876,7 +1876,7 @@
         <v>44171</v>
       </c>
       <c r="B123">
-        <v>63.251965792798998</v>
+        <v>39.495151219373902</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1884,7 +1884,7 @@
         <v>44172</v>
       </c>
       <c r="B124">
-        <v>63.152370569986303</v>
+        <v>39.402613799693597</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
         <v>44173</v>
       </c>
       <c r="B125">
-        <v>63.034789894650103</v>
+        <v>39.308441033568798</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
         <v>44174</v>
       </c>
       <c r="B126">
-        <v>62.898983901910697</v>
+        <v>39.212658060765897</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>44175</v>
       </c>
       <c r="B127">
-        <v>62.744712979632702</v>
+        <v>39.115290582250999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
         <v>44176</v>
       </c>
       <c r="B128">
-        <v>62.571733287106902</v>
+        <v>39.016365316617602</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1924,7 +1924,7 @@
         <v>44177</v>
       </c>
       <c r="B129">
-        <v>62.379791887251898</v>
+        <v>38.915910159798798</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>44178</v>
       </c>
       <c r="B130">
-        <v>62.168624022558099</v>
+        <v>38.8139537896786</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1940,7 +1940,7 @@
         <v>44179</v>
       </c>
       <c r="B131">
-        <v>61.937959987028698</v>
+        <v>38.7105251720306</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>44180</v>
       </c>
       <c r="B132">
-        <v>61.687532134496202</v>
+        <v>38.605653210545597</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1956,7 +1956,7 @@
         <v>44181</v>
       </c>
       <c r="B133">
-        <v>61.4170788375529</v>
+        <v>38.499367222968303</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1964,7 +1964,7 @@
         <v>44182</v>
       </c>
       <c r="B134">
-        <v>61.126344680496601</v>
+        <v>38.391697425449898</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
         <v>44183</v>
       </c>
       <c r="B135">
-        <v>60.815072452881303</v>
+        <v>38.282674966959497</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>44184</v>
       </c>
       <c r="B136">
-        <v>60.482998438016097</v>
+        <v>38.172331469426098</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>44185</v>
       </c>
       <c r="B137">
-        <v>60.129857257439603</v>
+        <v>38.0606986100629</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>44186</v>
       </c>
       <c r="B138">
-        <v>59.755390988908701</v>
+        <v>37.947807876433998</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2004,7 +2004,7 @@
         <v>44187</v>
       </c>
       <c r="B139">
-        <v>59.359358661757398</v>
+        <v>37.833691017750702</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2012,7 +2012,7 @@
         <v>44188</v>
       </c>
       <c r="B140">
-        <v>58.941537915295797</v>
+        <v>37.718380535251796</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
         <v>44189</v>
       </c>
       <c r="B141">
-        <v>58.501720419654902</v>
+        <v>37.601909622775601</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2028,7 +2028,7 @@
         <v>44190</v>
       </c>
       <c r="B142">
-        <v>58.039707694233002</v>
+        <v>37.484311672123297</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>44191</v>
       </c>
       <c r="B143">
-        <v>57.5553102374706</v>
+        <v>37.365619912692999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
         <v>44192</v>
       </c>
       <c r="B144">
-        <v>57.048359076040697</v>
+        <v>37.245867325018502</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2052,7 +2052,7 @@
         <v>44193</v>
       </c>
       <c r="B145">
-        <v>56.518717126264903</v>
+        <v>37.125087007841103</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>44194</v>
       </c>
       <c r="B146">
-        <v>55.966286036501103</v>
+        <v>37.003312598876597</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2068,7 +2068,7 @@
         <v>44195</v>
       </c>
       <c r="B147">
-        <v>55.391008618944298</v>
+        <v>36.8805782001225</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>44196</v>
       </c>
       <c r="B148">
-        <v>54.7928614772297</v>
+        <v>36.756917876274798</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>44197</v>
       </c>
       <c r="B149">
-        <v>54.171852126102799</v>
+        <v>36.632365332453901</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2092,7 +2092,7 @@
         <v>44198</v>
       </c>
       <c r="B150">
-        <v>53.528028708190597</v>
+        <v>36.506953962868998</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
         <v>44199</v>
       </c>
       <c r="B151">
-        <v>52.861493773715601</v>
+        <v>36.380717158997001</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2108,7 +2108,7 @@
         <v>44200</v>
       </c>
       <c r="B152">
-        <v>52.172418070995803</v>
+        <v>36.253688648985602</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>44201</v>
       </c>
       <c r="B153">
-        <v>51.4610449738623</v>
+        <v>36.125902412369697</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>44202</v>
       </c>
       <c r="B154">
-        <v>50.727687469074297</v>
+        <v>35.997392195591502</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
         <v>44203</v>
       </c>
       <c r="B155">
-        <v>49.972726275762703</v>
+        <v>35.868191209990698</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2140,7 +2140,7 @@
         <v>44204</v>
       </c>
       <c r="B156">
-        <v>49.196611975370502</v>
+        <v>35.738332291066001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2148,7 +2148,7 @@
         <v>44205</v>
       </c>
       <c r="B157">
-        <v>48.399880834771402</v>
+        <v>35.607848167998299</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
         <v>44206</v>
       </c>
       <c r="B158">
-        <v>47.583169568258199</v>
+        <v>35.476771718245701</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>44207</v>
       </c>
       <c r="B159">
-        <v>46.747223765239603</v>
+        <v>35.345135869555101</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>44208</v>
       </c>
       <c r="B160">
-        <v>45.8929007695303</v>
+        <v>35.212973158146902</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2180,7 +2180,7 @@
         <v>44209</v>
       </c>
       <c r="B161">
-        <v>45.021162248128</v>
+        <v>35.0803154377626</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
         <v>44210</v>
       </c>
       <c r="B162">
-        <v>44.133071118033399</v>
+        <v>34.9471941205408</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2196,7 +2196,7 @@
         <v>44211</v>
       </c>
       <c r="B163">
-        <v>43.229801317821298</v>
+        <v>34.813640423932902</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>44212</v>
       </c>
       <c r="B164">
-        <v>42.312649981829999</v>
+        <v>34.679685544142899</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>44213</v>
       </c>
       <c r="B165">
-        <v>41.383047790572903</v>
+        <v>34.545360501650201</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>44214</v>
       </c>
       <c r="B166">
-        <v>40.442558010109202</v>
+        <v>34.410695802254203</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
         <v>44215</v>
       </c>
       <c r="B167">
-        <v>39.492866223352003</v>
+        <v>34.275721204874202</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>44216</v>
       </c>
       <c r="B168">
-        <v>38.535770318871897</v>
+        <v>34.140465965591197</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2244,7 +2244,7 @@
         <v>44217</v>
       </c>
       <c r="B169">
-        <v>37.573173055277003</v>
+        <v>34.004959073899897</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
         <v>44218</v>
       </c>
       <c r="B170">
-        <v>36.607085998945202</v>
+        <v>33.869229352928997</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>44219</v>
       </c>
       <c r="B171">
-        <v>35.639629568585804</v>
+        <v>33.733305270213101</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>44220</v>
       </c>
       <c r="B172">
-        <v>34.673023644851902</v>
+        <v>33.597214678586802</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2276,7 +2276,7 @@
         <v>44221</v>
       </c>
       <c r="B173">
-        <v>33.709570368479703</v>
+        <v>33.460984639188901</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2284,7 +2284,7 @@
         <v>44222</v>
       </c>
       <c r="B174">
-        <v>32.7516257650176</v>
+        <v>33.324641661723597</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2292,7 +2292,7 @@
         <v>44223</v>
       </c>
       <c r="B175">
-        <v>31.801573454861199</v>
+        <v>33.188211938491797</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>44224</v>
       </c>
       <c r="B176">
-        <v>30.861808266274402</v>
+        <v>33.051721381408498</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2308,7 +2308,7 @@
         <v>44225</v>
       </c>
       <c r="B177">
-        <v>29.934719051090799</v>
+        <v>32.9151954155788</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2316,7 +2316,7 @@
         <v>44226</v>
       </c>
       <c r="B178">
-        <v>29.022667260126301</v>
+        <v>32.778658780121098</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>44227</v>
       </c>
       <c r="B179">
-        <v>28.1279534932318</v>
+        <v>32.642135402265602</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2332,7 +2332,7 @@
         <v>44228</v>
       </c>
       <c r="B180">
-        <v>27.252774405831801</v>
+        <v>32.505648630128597</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>44229</v>
       </c>
       <c r="B181">
-        <v>26.399179679328402</v>
+        <v>32.369221470311601</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>44230</v>
       </c>
       <c r="B182">
-        <v>25.569031112841401</v>
+        <v>32.232876572174298</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2356,7 +2356,7 @@
         <v>44231</v>
       </c>
       <c r="B183">
-        <v>24.7639713224955</v>
+        <v>32.096636017614401</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2364,7 +2364,7 @@
         <v>44232</v>
       </c>
       <c r="B184">
-        <v>23.985389096258199</v>
+        <v>31.960521165145501</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
         <v>44233</v>
       </c>
       <c r="B185">
-        <v>23.234377037620099</v>
+        <v>31.824552603361798</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2380,7 +2380,7 @@
         <v>44234</v>
       </c>
       <c r="B186">
-        <v>22.511684224932999</v>
+        <v>31.688750340375901</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>44235</v>
       </c>
       <c r="B187">
-        <v>21.817662374459601</v>
+        <v>31.553134012493899</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2396,7 +2396,7 @@
         <v>44236</v>
       </c>
       <c r="B188">
-        <v>21.152216148416699</v>
+        <v>31.417722864415101</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2404,7 +2404,7 @@
         <v>44237</v>
       </c>
       <c r="B189">
-        <v>20.514764160677199</v>
+        <v>31.282535544743499</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2412,7 +2412,7 @@
         <v>44238</v>
       </c>
       <c r="B190">
-        <v>19.904201235225099</v>
+        <v>31.147589979509899</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2420,7 +2420,7 @@
         <v>44239</v>
       </c>
       <c r="B191">
-        <v>19.3188591829601</v>
+        <v>31.012903393461698</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>44240</v>
       </c>
       <c r="B192">
-        <v>18.756459708641199</v>
+        <v>30.8784924709135</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>44241</v>
       </c>
       <c r="B193">
-        <v>18.214060469808199</v>
+        <v>30.744373532942401</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
         <v>44242</v>
       </c>
       <c r="B194">
-        <v>17.688001216689599</v>
+        <v>30.610562520034598</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2452,7 +2452,7 @@
         <v>44243</v>
       </c>
       <c r="B195">
-        <v>17.174711112346799</v>
+        <v>30.477074798812101</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2460,7 +2460,7 @@
         <v>44244</v>
       </c>
       <c r="B196">
-        <v>16.673510976252601</v>
+        <v>30.343925052065099</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <v>44245</v>
       </c>
       <c r="B197">
-        <v>16.184505485920901</v>
+        <v>30.211127354655599</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>44246</v>
       </c>
       <c r="B198">
-        <v>15.7077873663118</v>
+        <v>30.0786953178145</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
         <v>44247</v>
       </c>
       <c r="B199">
-        <v>15.2434261647592</v>
+        <v>29.946642234504701</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>44248</v>
       </c>
       <c r="B200">
-        <v>14.791461185429799</v>
+        <v>29.8149810620219</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <v>44249</v>
       </c>
       <c r="B201">
-        <v>14.351912291138801</v>
+        <v>29.68372423952</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2508,7 +2508,7 @@
         <v>44250</v>
       </c>
       <c r="B202">
-        <v>13.9247992000574</v>
+        <v>29.552883581021899</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
         <v>44251</v>
       </c>
       <c r="B203">
-        <v>13.510145970156501</v>
+        <v>29.4224703961698</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>44252</v>
       </c>
       <c r="B204">
-        <v>13.107976121621499</v>
+        <v>29.292495626929998</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
         <v>44253</v>
       </c>
       <c r="B205">
-        <v>12.718298145478601</v>
+        <v>29.162969962619499</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2540,7 +2540,7 @@
         <v>44254</v>
       </c>
       <c r="B206">
-        <v>12.341099694156201</v>
+        <v>29.0339038020972</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2548,7 +2548,7 @@
         <v>44255</v>
       </c>
       <c r="B207">
-        <v>11.976351979189699</v>
+        <v>28.9053071036898</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2556,7 +2556,7 @@
         <v>44256</v>
       </c>
       <c r="B208">
-        <v>11.6240184272657</v>
+        <v>28.7771892917313</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2564,7 +2564,7 @@
         <v>44257</v>
       </c>
       <c r="B209">
-        <v>11.284067883233099</v>
+        <v>28.649559395982099</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2572,7 +2572,7 @@
         <v>44258</v>
       </c>
       <c r="B210">
-        <v>10.9564728331205</v>
+        <v>28.522426189346</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2580,7 +2580,7 @@
         <v>44259</v>
       </c>
       <c r="B211">
-        <v>10.6412009376601</v>
+        <v>28.3957982745011</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2588,7 +2588,7 @@
         <v>44260</v>
       </c>
       <c r="B212">
-        <v>10.338209077920901</v>
+        <v>28.269684021932001</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
         <v>44261</v>
       </c>
       <c r="B213">
-        <v>10.047440026413399</v>
+        <v>28.144091450129899</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
         <v>44262</v>
       </c>
       <c r="B214">
-        <v>9.7688285756925293</v>
+        <v>28.019028149901601</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>44263</v>
       </c>
       <c r="B215">
-        <v>9.5023123104904492</v>
+        <v>27.8945014336146</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2620,7 +2620,7 @@
         <v>44264</v>
       </c>
       <c r="B216">
-        <v>9.2478333075092305</v>
+        <v>27.7705184813464</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>44265</v>
       </c>
       <c r="B217">
-        <v>9.0053358706884605</v>
+        <v>27.647086399416398</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2636,7 +2636,7 @@
         <v>44266</v>
       </c>
       <c r="B218">
-        <v>8.7747601172272294</v>
+        <v>27.524212136483399</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2644,7 +2644,7 @@
         <v>44267</v>
       </c>
       <c r="B219">
-        <v>8.5560396528228804</v>
+        <v>27.401902384671502</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
         <v>44268</v>
       </c>
       <c r="B220">
-        <v>8.3491036176615605</v>
+        <v>27.280163520537499</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>44269</v>
       </c>
       <c r="B221">
-        <v>8.1538799646713507</v>
+        <v>27.159001764507899</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2668,7 +2668,7 @@
         <v>44270</v>
       </c>
       <c r="B222">
-        <v>7.9702999982226697</v>
+        <v>27.038423341961</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2676,7 +2676,7 @@
         <v>44271</v>
       </c>
       <c r="B223">
-        <v>7.7982978829666898</v>
+        <v>26.918434511963198</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
         <v>44272</v>
       </c>
       <c r="B224">
-        <v>7.6378079491035997</v>
+        <v>26.799041462620501</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>44273</v>
       </c>
       <c r="B225">
-        <v>7.4887635037176503</v>
+        <v>26.680250225462299</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>44274</v>
       </c>
       <c r="B226">
-        <v>7.3510966098175397</v>
+        <v>26.562066647338899</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2708,7 +2708,7 @@
         <v>44275</v>
       </c>
       <c r="B227">
-        <v>7.2247387993421004</v>
+        <v>26.444496544722298</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2716,7 +2716,7 @@
         <v>44276</v>
       </c>
       <c r="B228">
-        <v>7.1096221913813702</v>
+        <v>26.327545871133399</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>44277</v>
       </c>
       <c r="B229">
-        <v>7.0056791007649899</v>
+        <v>26.211220728729899</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>44278</v>
       </c>
       <c r="B230">
-        <v>6.9128419034314703</v>
+        <v>26.095527244274901</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2740,7 +2740,7 @@
         <v>44279</v>
       </c>
       <c r="B231">
-        <v>6.8310436596348501</v>
+        <v>25.980471489965701</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
         <v>44280</v>
       </c>
       <c r="B232">
-        <v>6.7602190576055099</v>
+        <v>25.866059497890198</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
         <v>44281</v>
       </c>
       <c r="B233">
-        <v>6.7003041050433998</v>
+        <v>25.752297401676898</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2764,7 +2764,7 @@
         <v>44282</v>
       </c>
       <c r="B234">
-        <v>6.6512347159700003</v>
+        <v>25.639191595535699</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2772,7 +2772,7 @@
         <v>44283</v>
       </c>
       <c r="B235">
-        <v>6.6129434365180897</v>
+        <v>25.526748740458501</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2780,7 +2780,7 @@
         <v>44284</v>
       </c>
       <c r="B236">
-        <v>6.5853594180311301</v>
+        <v>25.414975623413898</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>44285</v>
       </c>
       <c r="B237">
-        <v>6.5684107121640496</v>
+        <v>25.303879078009199</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2796,7 +2796,7 @@
         <v>44286</v>
       </c>
       <c r="B238">
-        <v>6.5620267684920002</v>
+        <v>25.193466041975501</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>44287</v>
       </c>
       <c r="B239">
-        <v>6.5661409094868199</v>
+        <v>25.083743691806198</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
         <v>44288</v>
       </c>
       <c r="B240">
-        <v>6.5806878951208301</v>
+        <v>24.9747195871429</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2820,7 +2820,7 @@
         <v>44289</v>
       </c>
       <c r="B241">
-        <v>6.6055974810737697</v>
+        <v>24.866401670376099</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>44290</v>
       </c>
       <c r="B242">
-        <v>6.6407923621516902</v>
+        <v>24.758798113544401</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <v>44291</v>
       </c>
       <c r="B243">
-        <v>6.6861890113977998</v>
+        <v>24.6519172321219</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2844,7 +2844,7 @@
         <v>44292</v>
       </c>
       <c r="B244">
-        <v>6.7417030667695101</v>
+        <v>24.545767585631001</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2852,7 +2852,7 @@
         <v>44293</v>
       </c>
       <c r="B245">
-        <v>6.8072537685853201</v>
+        <v>24.440358109601299</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,7 +2860,7 @@
         <v>44294</v>
       </c>
       <c r="B246">
-        <v>6.8827629613024603</v>
+        <v>24.335698238467302</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
         <v>44295</v>
       </c>
       <c r="B247">
-        <v>6.9681511202382396</v>
+        <v>24.231797887750499</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>44296</v>
       </c>
       <c r="B248">
-        <v>7.0633284727349404</v>
+        <v>24.1286673057017</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2884,7 +2884,7 @@
         <v>44297</v>
       </c>
       <c r="B249">
-        <v>7.1681943320003896</v>
+        <v>24.026316982810101</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2892,7 +2892,7 @@
         <v>44298</v>
       </c>
       <c r="B250">
-        <v>7.2826429514865696</v>
+        <v>23.9247577835018</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>44299</v>
       </c>
       <c r="B251">
-        <v>7.4065688445984099</v>
+        <v>23.824001078432602</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +2908,7 @@
         <v>44300</v>
       </c>
       <c r="B252">
-        <v>7.53987172919014</v>
+        <v>23.7240588393595</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>44301</v>
       </c>
       <c r="B253">
-        <v>7.6824533954279399</v>
+        <v>23.624943589072</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2924,7 +2924,7 @@
         <v>44302</v>
       </c>
       <c r="B254">
-        <v>7.8342064445998698</v>
+        <v>23.526668276900701</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2932,7 +2932,7 @@
         <v>44303</v>
       </c>
       <c r="B255">
-        <v>7.9950107666835102</v>
+        <v>23.429246199824</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
         <v>44304</v>
       </c>
       <c r="B256">
-        <v>8.1647345320627291</v>
+        <v>23.332691141586899</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
         <v>44305</v>
       </c>
       <c r="B257">
-        <v>8.3432423743397504</v>
+        <v>23.237017506730002</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
         <v>44306</v>
       </c>
       <c r="B258">
-        <v>8.5304030620548303</v>
+        <v>23.1422403820463</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>44307</v>
       </c>
       <c r="B259">
-        <v>8.7260887075092395</v>
+        <v>23.048375458841502</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
         <v>44308</v>
       </c>
       <c r="B260">
-        <v>8.9301693265742497</v>
+        <v>22.955438928630102</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
         <v>44309</v>
       </c>
       <c r="B261">
-        <v>9.14250016109645</v>
+        <v>22.863447417985299</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <v>44310</v>
       </c>
       <c r="B262">
-        <v>9.3629200143662192</v>
+        <v>22.772418128220401</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2996,7 +2996,7 @@
         <v>44311</v>
       </c>
       <c r="B263">
-        <v>9.5912597020904595</v>
+        <v>22.6823689705157</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>44312</v>
       </c>
       <c r="B264">
-        <v>9.8273494118054394</v>
+        <v>22.593318590526899</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -3012,7 +3012,7 @@
         <v>44313</v>
       </c>
       <c r="B265">
-        <v>10.0710251564233</v>
+        <v>22.505286269230702</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>44314</v>
       </c>
       <c r="B266">
-        <v>10.3221254090928</v>
+        <v>22.418291834035099</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3028,7 +3028,7 @@
         <v>44315</v>
       </c>
       <c r="B267">
-        <v>10.5804767427457</v>
+        <v>22.332355612473599</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3036,7 +3036,7 @@
         <v>44316</v>
       </c>
       <c r="B268">
-        <v>10.845889461771799</v>
+        <v>22.247498560337601</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3044,7 +3044,7 @@
         <v>44317</v>
       </c>
       <c r="B269">
-        <v>11.118158957993201</v>
+        <v>22.1637423911517</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>44318</v>
       </c>
       <c r="B270">
-        <v>11.3970756658029</v>
+        <v>22.081109567487601</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
         <v>44319</v>
       </c>
       <c r="B271">
-        <v>11.6824348199575</v>
+        <v>21.999623187752999</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>44320</v>
       </c>
       <c r="B272">
-        <v>11.9740355419758</v>
+        <v>21.919306907282799</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>44321</v>
       </c>
       <c r="B273">
-        <v>12.271674048669899</v>
+        <v>21.840184924223699</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -3084,7 +3084,7 @@
         <v>44322</v>
       </c>
       <c r="B274">
-        <v>12.575129242055899</v>
+        <v>21.7622820745305</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -3092,7 +3092,7 @@
         <v>44323</v>
       </c>
       <c r="B275">
-        <v>12.884161023558301</v>
+        <v>21.685623932119199</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>44324</v>
       </c>
       <c r="B276">
-        <v>13.1985207866578</v>
+        <v>21.6102367869732</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>44325</v>
       </c>
       <c r="B277">
-        <v>13.517959915908</v>
+        <v>21.536147525534901</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>44326</v>
       </c>
       <c r="B278">
-        <v>13.8422363714035</v>
+        <v>21.463383556296499</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
         <v>44327</v>
       </c>
       <c r="B279">
-        <v>14.1711108510491</v>
+        <v>21.3919728179816</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>44328</v>
       </c>
       <c r="B280">
-        <v>14.5043311574798</v>
+        <v>21.321943844277499</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
         <v>44329</v>
       </c>
       <c r="B281">
-        <v>14.8416282217387</v>
+        <v>21.253325827816798</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3148,7 +3148,7 @@
         <v>44330</v>
       </c>
       <c r="B282">
-        <v>15.1827185468411</v>
+        <v>21.186148584415701</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3156,7 +3156,7 @@
         <v>44331</v>
       </c>
       <c r="B283">
-        <v>15.5273151645812</v>
+        <v>21.120442434219498</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3164,7 +3164,7 @@
         <v>44332</v>
       </c>
       <c r="B284">
-        <v>15.8751378506528</v>
+        <v>21.056238127098801</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3172,7 +3172,7 @@
         <v>44333</v>
       </c>
       <c r="B285">
-        <v>16.225911560768999</v>
+        <v>20.993566860671798</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3180,7 +3180,7 @@
         <v>44334</v>
       </c>
       <c r="B286">
-        <v>16.579358608015902</v>
+        <v>20.932460315567099</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>44335</v>
       </c>
       <c r="B287">
-        <v>16.935184989334399</v>
+        <v>20.872950679068801</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>44336</v>
       </c>
       <c r="B288">
-        <v>17.293080078233501</v>
+        <v>20.815070594692699</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3204,7 +3204,7 @@
         <v>44337</v>
       </c>
       <c r="B289">
-        <v>17.652728379603602</v>
+        <v>20.758853049880301</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
         <v>44338</v>
       </c>
       <c r="B290">
-        <v>18.0138180339199</v>
+        <v>20.704331298349999</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3220,7 +3220,7 @@
         <v>44339</v>
       </c>
       <c r="B291">
-        <v>18.376236471807701</v>
+        <v>20.651538873252701</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>44340</v>
       </c>
       <c r="B292">
-        <v>18.740554901396798</v>
+        <v>20.600509591419002</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>44341</v>
       </c>
       <c r="B293">
-        <v>19.107297428366898</v>
+        <v>20.551277535536901</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3244,7 +3244,7 @@
         <v>44342</v>
       </c>
       <c r="B294">
-        <v>19.4767518509517</v>
+        <v>20.503876981418902</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -3252,7 +3252,7 @@
         <v>44343</v>
       </c>
       <c r="B295">
-        <v>19.849001432321099</v>
+        <v>20.4583423042058</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
         <v>44344</v>
       </c>
       <c r="B296">
-        <v>20.2239576403787</v>
+        <v>20.414707905507001</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>44345</v>
       </c>
       <c r="B297">
-        <v>20.601384225700599</v>
+        <v>20.3730081960707</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
         <v>44346</v>
       </c>
       <c r="B298">
-        <v>20.980911719593401</v>
+        <v>20.333277565212899</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>44347</v>
       </c>
       <c r="B299">
-        <v>21.362050055067499</v>
+        <v>20.2955503237954</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
         <v>44348</v>
       </c>
       <c r="B300">
-        <v>21.744202373228301</v>
+        <v>20.259860618114701</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>44349</v>
       </c>
       <c r="B301">
-        <v>22.126689997576602</v>
+        <v>20.226242346352301</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -3308,7 +3308,7 @@
         <v>44350</v>
       </c>
       <c r="B302">
-        <v>22.5087804751657</v>
+        <v>20.194729086737301</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -3316,7 +3316,7 @@
         <v>44351</v>
       </c>
       <c r="B303">
-        <v>22.8897071087558</v>
+        <v>20.165354041538201</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>44352</v>
       </c>
       <c r="B304">
-        <v>23.268682675411501</v>
+        <v>20.138149966195002</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
         <v>44353</v>
       </c>
       <c r="B305">
-        <v>23.644905520754801</v>
+        <v>20.113149079393398</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -3340,7 +3340,7 @@
         <v>44354</v>
       </c>
       <c r="B306">
-        <v>24.017563220226201</v>
+        <v>20.090382973238999</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>44355</v>
       </c>
       <c r="B307">
-        <v>24.3858466940796</v>
+        <v>20.0698825340661</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -3356,7 +3356,7 @@
         <v>44356</v>
       </c>
       <c r="B308">
-        <v>24.7489666932963</v>
+        <v>20.0516778678303</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3364,7 +3364,7 @@
         <v>44357</v>
       </c>
       <c r="B309">
-        <v>25.1061705670745</v>
+        <v>20.035798199942601</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -3372,7 +3372,7 @@
         <v>44358</v>
       </c>
       <c r="B310">
-        <v>25.456750630700402</v>
+        <v>20.0222717580961</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,7 +3380,7 @@
         <v>44359</v>
       </c>
       <c r="B311">
-        <v>25.800043200161099</v>
+        <v>20.011125660735701</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>44360</v>
       </c>
       <c r="B312">
-        <v>26.135425934304799</v>
+        <v>20.0023858345685</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3396,7 +3396,7 @@
         <v>44361</v>
       </c>
       <c r="B313">
-        <v>26.462316575257798</v>
+        <v>19.996076938358499</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
         <v>44362</v>
       </c>
       <c r="B314">
-        <v>26.780181491301601</v>
+        <v>19.992222276400099</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>44363</v>
       </c>
       <c r="B315">
-        <v>27.088546696937701</v>
+        <v>19.990843658968998</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -3420,7 +3420,7 @@
         <v>44364</v>
       </c>
       <c r="B316">
-        <v>27.387000499045001</v>
+        <v>19.991961241658</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3428,7 +3428,7 @@
         <v>44365</v>
       </c>
       <c r="B317">
-        <v>27.6751912776563</v>
+        <v>19.995593402700202</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3436,7 +3436,7 @@
         <v>44366</v>
       </c>
       <c r="B318">
-        <v>27.9528197034162</v>
+        <v>20.001756681327699</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
         <v>44367</v>
       </c>
       <c r="B319">
-        <v>28.2196298306072</v>
+        <v>20.0104657101482</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3452,7 +3452,7 @@
         <v>44368</v>
       </c>
       <c r="B320">
-        <v>28.475410011872299</v>
+        <v>20.021733107706599</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
         <v>44369</v>
       </c>
       <c r="B321">
-        <v>28.719996263390801</v>
+        <v>20.035569311201101</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
         <v>44370</v>
       </c>
       <c r="B322">
-        <v>28.953276102672699</v>
+        <v>20.0519823862411</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
         <v>44371</v>
       </c>
       <c r="B323">
-        <v>29.1751863154104</v>
+        <v>20.0709779053837</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>44372</v>
       </c>
       <c r="B324">
-        <v>29.385704074200198</v>
+        <v>20.0925589245462</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3492,7 +3492,7 @@
         <v>44373</v>
       </c>
       <c r="B325">
-        <v>29.584838009957402</v>
+        <v>20.116725939132301</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>44374</v>
       </c>
       <c r="B326">
-        <v>29.7726218501465</v>
+        <v>20.143476753009299</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3508,7 +3508,7 @@
         <v>44375</v>
       </c>
       <c r="B327">
-        <v>29.949116491441401</v>
+        <v>20.172806298394299</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
         <v>44376</v>
       </c>
       <c r="B328">
-        <v>30.1144146112551</v>
+        <v>20.204706439806699</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3524,7 +3524,7 @@
         <v>44377</v>
       </c>
       <c r="B329">
-        <v>30.268638865043702</v>
+        <v>20.239165874450801</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>44378</v>
       </c>
       <c r="B330">
-        <v>30.411937150424599</v>
+        <v>20.276170168431602</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
         <v>44379</v>
       </c>
       <c r="B331">
-        <v>30.544474879676699</v>
+        <v>20.315701763516799</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>44380</v>
       </c>
       <c r="B332">
-        <v>30.6664272998045</v>
+        <v>20.3577398269985</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>44381</v>
       </c>
       <c r="B333">
-        <v>30.7779795904212</v>
+        <v>20.402260078739001</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3564,7 +3564,7 @@
         <v>44382</v>
       </c>
       <c r="B334">
-        <v>30.879328880188201</v>
+        <v>20.449234624158098</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>44383</v>
       </c>
       <c r="B335">
-        <v>30.970686480305101</v>
+        <v>20.498631921821499</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>44384</v>
       </c>
       <c r="B336">
-        <v>31.052276163296099</v>
+        <v>20.550416888442498</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
         <v>44385</v>
       </c>
       <c r="B337">
-        <v>31.1243282494483</v>
+        <v>20.604550977678802</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>44386</v>
       </c>
       <c r="B338">
-        <v>31.187074168442699</v>
+        <v>20.660992040625299</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
         <v>44387</v>
       </c>
       <c r="B339">
-        <v>31.240743304928099</v>
+        <v>20.719694184435198</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
         <v>44388</v>
       </c>
       <c r="B340">
-        <v>31.2855652721904</v>
+        <v>20.780607678481701</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>44389</v>
       </c>
       <c r="B341">
-        <v>31.321773699245298</v>
+        <v>20.843679039497399</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>44390</v>
       </c>
       <c r="B342">
-        <v>31.349605531935001</v>
+        <v>20.9088512234283</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>44391</v>
       </c>
       <c r="B343">
-        <v>31.369298681992699</v>
+        <v>20.976063796430601</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3644,7 +3644,7 @@
         <v>44392</v>
       </c>
       <c r="B344">
-        <v>31.3810883530716</v>
+        <v>21.045252844200402</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>44393</v>
       </c>
       <c r="B345">
-        <v>31.385203691267201</v>
+        <v>21.116350887222701</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -3660,7 +3660,7 @@
         <v>44394</v>
       </c>
       <c r="B346">
-        <v>31.381868901657398</v>
+        <v>21.189286908449201</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
         <v>44395</v>
       </c>
       <c r="B347">
-        <v>31.371305166434599</v>
+        <v>21.2639865972642</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>44396</v>
       </c>
       <c r="B348">
-        <v>31.353732252149499</v>
+        <v>21.340372657872699</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>44397</v>
       </c>
       <c r="B349">
-        <v>31.329367979540098</v>
+        <v>21.418365096465699</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3692,7 +3692,7 @@
         <v>44398</v>
       </c>
       <c r="B350">
-        <v>31.298425835487201</v>
+        <v>21.497881208227799</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>44399</v>
       </c>
       <c r="B351">
-        <v>31.261113103370601</v>
+        <v>21.578835568036801</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3708,7 +3708,7 @@
         <v>44400</v>
       </c>
       <c r="B352">
-        <v>31.217630427072301</v>
+        <v>21.661140224078899</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
         <v>44401</v>
       </c>
       <c r="B353">
-        <v>31.168173318727099</v>
+        <v>21.7447051322352</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>44402</v>
       </c>
       <c r="B354">
-        <v>31.112933902198499</v>
+        <v>21.829438605585601</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>44403</v>
       </c>
       <c r="B355">
-        <v>31.052100670764599</v>
+        <v>21.915247710501401</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
         <v>44404</v>
       </c>
       <c r="B356">
-        <v>30.9858577488694</v>
+        <v>22.002038371251199</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3748,7 +3748,7 @@
         <v>44405</v>
       </c>
       <c r="B357">
-        <v>30.914384168363199</v>
+        <v>22.089715460750401</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
         <v>44406</v>
       </c>
       <c r="B358">
-        <v>30.837853612447802</v>
+        <v>22.1781831694801</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>44407</v>
       </c>
       <c r="B359">
-        <v>30.756435194630001</v>
+        <v>22.267345643599398</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>44408</v>
       </c>
       <c r="B360">
-        <v>30.670294033906099</v>
+        <v>22.357107587668899</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3780,7 +3780,7 @@
         <v>44409</v>
       </c>
       <c r="B361">
-        <v>30.5795912856738</v>
+        <v>22.447374736086299</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3788,7 +3788,7 @@
         <v>44410</v>
       </c>
       <c r="B362">
-        <v>30.484483773347399</v>
+        <v>22.5380540987342</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3796,7 +3796,7 @@
         <v>44411</v>
       </c>
       <c r="B363">
-        <v>30.385124131217701</v>
+        <v>22.629054179812702</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>44412</v>
       </c>
       <c r="B364">
-        <v>30.281661486932801</v>
+        <v>22.720285496807801</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>44413</v>
       </c>
       <c r="B365">
-        <v>30.174242370063901</v>
+        <v>22.811661413562899</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
         <v>44414</v>
       </c>
       <c r="B366">
-        <v>30.063010686737002</v>
+        <v>22.903098894292</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>44415</v>
       </c>
       <c r="B367">
-        <v>29.948106778231701</v>
+        <v>22.9945190209503</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>44416</v>
       </c>
       <c r="B368">
-        <v>29.8296669301319</v>
+        <v>23.085847357270001</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>44417</v>
       </c>
       <c r="B369">
-        <v>29.707823661953501</v>
+        <v>23.177014292914201</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>44418</v>
       </c>
       <c r="B370">
-        <v>29.582707089436099</v>
+        <v>23.2679556965</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -3860,7 +3860,7 @@
         <v>44419</v>
       </c>
       <c r="B371">
-        <v>29.454446873723999</v>
+        <v>23.358613920394401</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -3868,7 +3868,7 @@
         <v>44420</v>
       </c>
       <c r="B372">
-        <v>29.323172042002</v>
+        <v>23.4489387009565</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -3876,7 +3876,7 @@
         <v>44421</v>
       </c>
       <c r="B373">
-        <v>29.189009774492799</v>
+        <v>23.538887687504101</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -3884,7 +3884,7 @@
         <v>44422</v>
       </c>
       <c r="B374">
-        <v>29.052083703852698</v>
+        <v>23.6284268985466</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>44423</v>
       </c>
       <c r="B375">
-        <v>28.912513325636201</v>
+        <v>23.717531193902701</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>44424</v>
       </c>
       <c r="B376">
-        <v>28.770416128874501</v>
+        <v>23.806185071938401</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
         <v>44425</v>
       </c>
       <c r="B377">
-        <v>28.6259102986096</v>
+        <v>23.894383814899399</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>44426</v>
       </c>
       <c r="B378">
-        <v>28.479116195603499</v>
+        <v>23.982134539707399</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -3924,7 +3924,7 @@
         <v>44427</v>
       </c>
       <c r="B379">
-        <v>28.330154736798502</v>
+        <v>24.0694567493743</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
         <v>44428</v>
       </c>
       <c r="B380">
-        <v>28.179143880990001</v>
+        <v>24.156382887889599</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>44429</v>
       </c>
       <c r="B381">
-        <v>28.026197711317799</v>
+        <v>24.242958987616401</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
         <v>44430</v>
       </c>
       <c r="B382">
-        <v>27.871427543307998</v>
+        <v>24.3292457027631</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3956,7 +3956,7 @@
         <v>44431</v>
       </c>
       <c r="B383">
-        <v>27.714944825707899</v>
+        <v>24.4153037662999</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -3964,7 +3964,7 @@
         <v>44432</v>
       </c>
       <c r="B384">
-        <v>27.556864679041301</v>
+        <v>24.501142751075498</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3972,7 +3972,7 @@
         <v>44433</v>
       </c>
       <c r="B385">
-        <v>27.397304607547898</v>
+        <v>24.586758343340598</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -3980,7 +3980,7 @@
         <v>44434</v>
       </c>
       <c r="B386">
-        <v>27.236381521766699</v>
+        <v>24.672146008888401</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
         <v>44435</v>
       </c>
       <c r="B387">
-        <v>27.074208558710101</v>
+        <v>24.7573010771846</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -3996,7 +3996,7 @@
         <v>44436</v>
       </c>
       <c r="B388">
-        <v>26.910894178640199</v>
+        <v>24.8422195341996</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
         <v>44437</v>
       </c>
       <c r="B389">
-        <v>26.746545830610199</v>
+        <v>24.9268990306626</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
         <v>44438</v>
       </c>
       <c r="B390">
-        <v>26.581274221536201</v>
+        <v>25.011339053795101</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
         <v>44439</v>
       </c>
       <c r="B391">
-        <v>26.415194812423</v>
+        <v>25.095539727947301</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>44440</v>
       </c>
       <c r="B392">
-        <v>26.248424791722599</v>
+        <v>25.179500640628099</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
         <v>44441</v>
       </c>
       <c r="B393">
-        <v>26.081077412279701</v>
+        <v>25.263221182940502</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>44442</v>
       </c>
       <c r="B394">
-        <v>25.913260629460598</v>
+        <v>25.346701486068</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
         <v>44443</v>
       </c>
       <c r="B395">
-        <v>25.745078865474898</v>
+        <v>25.429943274838902</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
         <v>44444</v>
       </c>
       <c r="B396">
-        <v>25.5766369669802</v>
+        <v>25.5129498176806</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -4068,7 +4068,7 @@
         <v>44445</v>
       </c>
       <c r="B397">
-        <v>25.408044776248602</v>
+        <v>25.595724776967199</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>44446</v>
       </c>
       <c r="B398">
-        <v>25.2394147887256</v>
+        <v>25.678271034515198</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -4084,7 +4084,7 @@
         <v>44447</v>
       </c>
       <c r="B399">
-        <v>25.0708576513777</v>
+        <v>25.760591187031999</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -4092,7 +4092,7 @@
         <v>44448</v>
       </c>
       <c r="B400">
-        <v>24.902477915912801</v>
+        <v>25.8426886327189</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>44449</v>
       </c>
       <c r="B401">
-        <v>24.734372873998399</v>
+        <v>25.924568251603201</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>44450</v>
       </c>
       <c r="B402">
-        <v>24.566637395884101</v>
+        <v>26.006236082863499</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>44451</v>
       </c>
       <c r="B403">
-        <v>24.399369437527898</v>
+        <v>26.0876982902065</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -4124,7 +4124,7 @@
         <v>44452</v>
       </c>
       <c r="B404">
-        <v>24.232671290898701</v>
+        <v>26.1689600837989</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
         <v>44453</v>
       </c>
       <c r="B405">
-        <v>24.066645583706801</v>
+        <v>26.250026277668798</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>44454</v>
       </c>
       <c r="B406">
-        <v>23.901388192292</v>
+        <v>26.330902519014199</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>44455</v>
       </c>
       <c r="B407">
-        <v>23.736986689562301</v>
+        <v>26.411595794950799</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4156,7 @@
         <v>44456</v>
       </c>
       <c r="B408">
-        <v>23.5735228024798</v>
+        <v>26.492113867915702</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -4164,7 +4164,7 @@
         <v>44457</v>
       </c>
       <c r="B409">
-        <v>23.411077170385401</v>
+        <v>26.572464328187198</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,7 +4172,7 @@
         <v>44458</v>
       </c>
       <c r="B410">
-        <v>23.249734597379</v>
+        <v>26.652653679099199</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <v>44459</v>
       </c>
       <c r="B411">
-        <v>23.089581022177001</v>
+        <v>26.7326879097944</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -4188,7 +4188,7 @@
         <v>44460</v>
       </c>
       <c r="B412">
-        <v>22.930698081183099</v>
+        <v>26.812573816601599</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
         <v>44461</v>
       </c>
       <c r="B413">
-        <v>22.7731585139136</v>
+        <v>26.8923193777823</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -4204,7 +4204,7 @@
         <v>44462</v>
       </c>
       <c r="B414">
-        <v>22.617025074416599</v>
+        <v>26.9719329855422</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
         <v>44463</v>
       </c>
       <c r="B415">
-        <v>22.462356192727398</v>
+        <v>27.051422554399501</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
         <v>44464</v>
       </c>
       <c r="B416">
-        <v>22.309212290700501</v>
+        <v>27.130794892798601</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>44465</v>
       </c>
       <c r="B417">
-        <v>22.157656621775999</v>
+        <v>27.2100562090565</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
         <v>44466</v>
       </c>
       <c r="B418">
-        <v>22.0077509125578</v>
+        <v>27.289213356132699</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -4244,7 +4244,7 @@
         <v>44467</v>
       </c>
       <c r="B419">
-        <v>21.859547916407799</v>
+        <v>27.368274208156301</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
         <v>44468</v>
       </c>
       <c r="B420">
-        <v>21.7130900484918</v>
+        <v>27.447246731068201</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -4260,7 +4260,7 @@
         <v>44469</v>
       </c>
       <c r="B421">
-        <v>21.568412367717698</v>
+        <v>27.526138116537201</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <v>44470</v>
       </c>
       <c r="B422">
-        <v>21.425547537903999</v>
+        <v>27.604954425570501</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>44471</v>
       </c>
       <c r="B423">
-        <v>21.284530997130499</v>
+        <v>27.6837011328305</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>44472</v>
       </c>
       <c r="B424">
-        <v>21.1453977238214</v>
+        <v>27.762384171185399</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
         <v>44473</v>
       </c>
       <c r="B425">
-        <v>21.008176747492399</v>
+        <v>27.841010251889099</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -4300,7 +4300,7 @@
         <v>44474</v>
       </c>
       <c r="B426">
-        <v>20.8728870822452</v>
+        <v>27.919585904280702</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>44475</v>
       </c>
       <c r="B427">
-        <v>20.739537008892601</v>
+        <v>27.998116610656702</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>44476</v>
       </c>
       <c r="B428">
-        <v>20.608129614638599</v>
+        <v>28.076606698334199</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4324,7 @@
         <v>44477</v>
       </c>
       <c r="B429">
-        <v>20.478668828856001</v>
+        <v>28.155059938670501</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>44478</v>
       </c>
       <c r="B430">
-        <v>20.351159679884798</v>
+        <v>28.233480380704201</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>44479</v>
       </c>
       <c r="B431">
-        <v>20.225604401028399</v>
+        <v>28.311872602659999</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>44480</v>
       </c>
       <c r="B432">
-        <v>20.101996099610599</v>
+        <v>28.390240777547501</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <v>44481</v>
       </c>
       <c r="B433">
-        <v>19.9803179283331</v>
+        <v>28.468587793872501</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4364,7 @@
         <v>44482</v>
       </c>
       <c r="B434">
-        <v>19.8605460210701</v>
+        <v>28.5469153653235</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +4372,7 @@
         <v>44483</v>
       </c>
       <c r="B435">
-        <v>19.742653691209799</v>
+        <v>28.625224677507301</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>44484</v>
       </c>
       <c r="B436">
-        <v>19.6266154889313</v>
+        <v>28.7035170256496</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +4388,7 @@
         <v>44485</v>
       </c>
       <c r="B437">
-        <v>19.512404505428801</v>
+        <v>28.781793920902</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +4396,7 @@
         <v>44486</v>
       </c>
       <c r="B438">
-        <v>19.3999880729525</v>
+        <v>28.860056274403501</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +4404,7 @@
         <v>44487</v>
       </c>
       <c r="B439">
-        <v>19.289325136385902</v>
+        <v>28.938303594164001</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>44488</v>
       </c>
       <c r="B440">
-        <v>19.1803661472618</v>
+        <v>29.016534200592499</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,7 +4420,7 @@
         <v>44489</v>
       </c>
       <c r="B441">
-        <v>19.073057330835301</v>
+        <v>29.094745900564401</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -4428,7 +4428,7 @@
         <v>44490</v>
       </c>
       <c r="B442">
-        <v>18.9673451710159</v>
+        <v>29.172936456481501</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
         <v>44491</v>
       </c>
       <c r="B443">
-        <v>18.8631762874472</v>
+        <v>29.2511035284641</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
         <v>44492</v>
       </c>
       <c r="B444">
-        <v>18.7604949604818</v>
+        <v>29.329244019112402</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
         <v>44493</v>
       </c>
       <c r="B445">
-        <v>18.6592393897206</v>
+        <v>29.407353399510299</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -4460,7 +4460,7 @@
         <v>44494</v>
       </c>
       <c r="B446">
-        <v>18.559341700314398</v>
+        <v>29.485425951222201</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -4468,7 +4468,7 @@
         <v>44495</v>
       </c>
       <c r="B447">
-        <v>18.4607302199896</v>
+        <v>29.563455437905802</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -4476,7 +4476,7 @@
         <v>44496</v>
       </c>
       <c r="B448">
-        <v>18.3633321651334</v>
+        <v>29.641435440151</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
         <v>44497</v>
       </c>
       <c r="B449">
-        <v>18.267075952006401</v>
+        <v>29.7193591621999</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -4492,7 +4492,7 @@
         <v>44498</v>
       </c>
       <c r="B450">
-        <v>18.171889861615401</v>
+        <v>29.797218919864299</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>44499</v>
       </c>
       <c r="B451">
-        <v>18.0777000806034</v>
+        <v>29.875005623768001</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
         <v>44500</v>
       </c>
       <c r="B452">
-        <v>17.984430063200598</v>
+        <v>29.952709011064801</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4516,7 +4516,7 @@
         <v>44501</v>
       </c>
       <c r="B453">
-        <v>17.892001149307902</v>
+        <v>30.030318279925801</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>44502</v>
       </c>
       <c r="B454">
-        <v>17.800334789238899</v>
+        <v>30.107822325821999</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -4532,7 +4532,7 @@
         <v>44503</v>
       </c>
       <c r="B455">
-        <v>17.709354626142002</v>
+        <v>30.185209463005201</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -4540,7 +4540,7 @@
         <v>44504</v>
       </c>
       <c r="B456">
-        <v>17.6189864493684</v>
+        <v>30.262467022923602</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>44505</v>
       </c>
       <c r="B457">
-        <v>17.529157677661701</v>
+        <v>30.339581020790199</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
         <v>44506</v>
       </c>
       <c r="B458">
-        <v>17.4397968187508</v>
+        <v>30.416536348022198</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +4564,7 @@
         <v>44507</v>
       </c>
       <c r="B459">
-        <v>17.350834240229801</v>
+        <v>30.4933173019622</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -4572,7 +4572,7 @@
         <v>44508</v>
       </c>
       <c r="B460">
-        <v>17.262203196831798</v>
+        <v>30.5699077818429</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
         <v>44509</v>
       </c>
       <c r="B461">
-        <v>17.1738405173373</v>
+        <v>30.646290974909999</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -4588,7 +4588,7 @@
         <v>44510</v>
       </c>
       <c r="B462">
-        <v>17.085686862425302</v>
+        <v>30.722449044792398</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -4596,7 +4596,7 @@
         <v>44511</v>
       </c>
       <c r="B463">
-        <v>16.997686883490498</v>
+        <v>30.798362957753199</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>44512</v>
       </c>
       <c r="B464">
-        <v>16.909789721262499</v>
+        <v>30.874012666483399</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -4612,7 +4612,7 @@
         <v>44513</v>
       </c>
       <c r="B465">
-        <v>16.821949870697999</v>
+        <v>30.949377488888601</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
         <v>44514</v>
       </c>
       <c r="B466">
-        <v>16.7341279427926</v>
+        <v>31.024436255125099</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
         <v>44515</v>
       </c>
       <c r="B467">
-        <v>16.6462901925672</v>
+        <v>31.099167031778698</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>44516</v>
       </c>
       <c r="B468">
-        <v>16.558407504989301</v>
+        <v>31.1735468912728</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -4644,7 +4644,7 @@
         <v>44517</v>
       </c>
       <c r="B469">
-        <v>16.470455257693398</v>
+        <v>31.247551862101002</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
         <v>44518</v>
       </c>
       <c r="B470">
-        <v>16.382414085005198</v>
+        <v>31.321157107190999</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -4660,7 +4660,7 @@
         <v>44519</v>
       </c>
       <c r="B471">
-        <v>16.2942715032341</v>
+        <v>31.394337157671</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -4668,7 +4668,7 @@
         <v>44520</v>
       </c>
       <c r="B472">
-        <v>16.206022422522501</v>
+        <v>31.467065999633899</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
         <v>44521</v>
       </c>
       <c r="B473">
-        <v>16.117667948096901</v>
+        <v>31.539316884500099</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -4684,7 +4684,7 @@
         <v>44522</v>
       </c>
       <c r="B474">
-        <v>16.0292133637648</v>
+        <v>31.611062180271599</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -4692,7 +4692,7 @@
         <v>44523</v>
       </c>
       <c r="B475">
-        <v>15.94066581137</v>
+        <v>31.682273406058801</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>44524</v>
       </c>
       <c r="B476">
-        <v>15.8520347828662</v>
+        <v>31.752921379685102</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +4708,7 @@
         <v>44525</v>
       </c>
       <c r="B477">
-        <v>15.763333595546399</v>
+        <v>31.822976342062201</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -4716,7 +4716,7 @@
         <v>44526</v>
       </c>
       <c r="B478">
-        <v>15.6745799478023</v>
+        <v>31.8924079910845</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,7 +4724,7 @@
         <v>44527</v>
       </c>
       <c r="B479">
-        <v>15.585795159522901</v>
+        <v>31.961185393897999</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -4732,7 +4732,7 @@
         <v>44528</v>
       </c>
       <c r="B480">
-        <v>15.4970003006843</v>
+        <v>32.029276933184697</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4740,7 +4740,7 @@
         <v>44529</v>
       </c>
       <c r="B481">
-        <v>15.4082114792966</v>
+        <v>32.096650379323997</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -4748,7 +4748,3767 @@
         <v>44530</v>
       </c>
       <c r="B482">
-        <v>15.3194382455354</v>
+        <v>32.163272983248099</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B483">
+        <v>32.229111523133</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B484">
+        <v>32.294132306456703</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B485">
+        <v>32.358301180820099</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B486">
+        <v>32.421583580111097</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B487">
+        <v>32.483944597723898</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B488">
+        <v>32.545349007198602</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B489">
+        <v>32.605761255317503</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B490">
+        <v>32.665145470459002</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B491">
+        <v>32.723465548082402</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B492">
+        <v>32.780685278186297</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B493">
+        <v>32.836768407034697</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B494">
+        <v>32.891678578049401</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B495">
+        <v>32.9453792850803</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B496">
+        <v>32.9978339216687</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B497">
+        <v>33.0490059198642</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B498">
+        <v>33.0988589283875</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B499">
+        <v>33.147356860480997</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B500">
+        <v>33.194463759914399</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B501">
+        <v>33.240143716271099</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B502">
+        <v>33.284360979570799</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B503">
+        <v>33.327080139984403</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B504">
+        <v>33.368266323945498</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B505">
+        <v>33.407885220277798</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B506">
+        <v>33.445902894943799</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B507">
+        <v>33.482285666568799</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B508">
+        <v>33.5170002941272</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B509">
+        <v>33.550014190416903</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B510">
+        <v>33.581295607887903</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B511">
+        <v>33.610813607019402</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B512">
+        <v>33.638537871479301</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B513">
+        <v>33.664438576109397</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B514">
+        <v>33.688486611214302</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44563</v>
+      </c>
+      <c r="B515">
+        <v>33.710653824241099</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B516">
+        <v>33.730913173198701</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B517">
+        <v>33.749238634584003</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B518">
+        <v>33.765605031282298</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B519">
+        <v>33.779987903783599</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B520">
+        <v>33.792363754961997</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B521">
+        <v>33.802710313846099</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B522">
+        <v>33.811006641656697</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B523">
+        <v>33.817232985535</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B524">
+        <v>33.821370620669001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B525">
+        <v>33.823401728748401</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B526">
+        <v>33.8233096505449</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B527">
+        <v>33.821079169080797</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B528">
+        <v>33.816696557040601</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B529">
+        <v>33.810149390058903</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B530">
+        <v>33.801426395820698</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B531">
+        <v>33.790517387650198</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B532">
+        <v>33.777413467677803</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B533">
+        <v>33.762107274834698</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B534">
+        <v>33.744593023296702</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B535">
+        <v>33.7248662948139</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B536">
+        <v>33.702923882872803</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B537">
+        <v>33.678763777317599</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B538">
+        <v>33.652385326878303</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B539">
+        <v>33.623789442618197</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B540">
+        <v>33.592978629085799</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B541">
+        <v>33.559956776515698</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B542">
+        <v>33.524728987932001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B543">
+        <v>33.487301609647801</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B544">
+        <v>33.447682362217598</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B545">
+        <v>33.405880506450202</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B546">
+        <v>33.361906857211402</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B547">
+        <v>33.315773579621798</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B548">
+        <v>33.2674940016881</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B549">
+        <v>33.217082684083401</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B550">
+        <v>33.164555526107499</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B551">
+        <v>33.109929893454698</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B552">
+        <v>33.053224585872897</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B553">
+        <v>32.994459677254703</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B554">
+        <v>32.933656345188297</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B555">
+        <v>32.870836936304897</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B556">
+        <v>32.806025050540299</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B557">
+        <v>32.739245630656796</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B558">
+        <v>32.670524892405098</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B559">
+        <v>32.599890200578898</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B560">
+        <v>32.527369924946697</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B561">
+        <v>32.452993489798402</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B562">
+        <v>32.376791437413402</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B563">
+        <v>32.298795480080599</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B564">
+        <v>32.219038409079502</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B565">
+        <v>32.137553990131003</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B566">
+        <v>32.054376835989601</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B567">
+        <v>31.969542449060398</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B568">
+        <v>31.8830872769528</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B569">
+        <v>31.7950487177601</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B570">
+        <v>31.705465020560901</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B571">
+        <v>31.614375187625999</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B572">
+        <v>31.521818878982899</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B573">
+        <v>31.4278336775984</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B574">
+        <v>31.3324477352099</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B575">
+        <v>31.235689256570002</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B576">
+        <v>31.1375893423942</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B577">
+        <v>31.038181862031202</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B578">
+        <v>30.937503300877001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B579">
+        <v>30.8355926143932</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B580">
+        <v>30.732491092757101</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B581">
+        <v>30.628242229099499</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B582">
+        <v>30.5228915643393</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B583">
+        <v>30.4164865128845</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B584">
+        <v>30.3090762032474</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B585">
+        <v>30.200711335359699</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B586">
+        <v>30.091444044240902</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B587">
+        <v>29.9813277221173</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B588">
+        <v>29.8704168036341</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B589">
+        <v>29.758766574162198</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B590">
+        <v>29.6464330418674</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B591">
+        <v>29.533472826941299</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B592">
+        <v>29.4199430286126</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B593">
+        <v>29.3059010235188</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B594">
+        <v>29.191404214787301</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B595">
+        <v>29.0765098515955</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B596">
+        <v>28.9612749716396</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B597">
+        <v>28.845756355748598</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B598">
+        <v>28.7300103965358</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B599">
+        <v>28.6140928901469</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B600">
+        <v>28.498058776749101</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B601">
+        <v>28.381961996410499</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B602">
+        <v>28.265855529806501</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B603">
+        <v>28.149791449675298</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B604">
+        <v>28.033820777654999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B605">
+        <v>27.917993273927099</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B606">
+        <v>27.8023571952255</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B607">
+        <v>27.686959224134</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B608">
+        <v>27.571844601431899</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B609">
+        <v>27.457057275764299</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B610">
+        <v>27.3426397433971</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B611">
+        <v>27.2286328261224</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B612">
+        <v>27.115075468937398</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B613">
+        <v>27.0020047760311</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B614">
+        <v>26.889456212216899</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B615">
+        <v>26.7774638221663</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B616">
+        <v>26.6660600545605</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B617">
+        <v>26.555275507774802</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B618">
+        <v>26.445138785543499</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B619">
+        <v>26.335676645041602</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B620">
+        <v>26.2269142527669</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B621">
+        <v>26.118875447832501</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B622">
+        <v>26.011582539036699</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B623">
+        <v>25.9050559928905</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B624">
+        <v>25.799314362744799</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B625">
+        <v>25.694374542601</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B626">
+        <v>25.590252064197099</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B627">
+        <v>25.486961349645998</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B628">
+        <v>25.3845154928566</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B629">
+        <v>25.2829258932071</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B630">
+        <v>25.182202247674599</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B631">
+        <v>25.0823528953131</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B632">
+        <v>24.983385147564402</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B633">
+        <v>24.885305455565199</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B634">
+        <v>24.7881191979249</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B635">
+        <v>24.691830312654702</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B636">
+        <v>24.596441309927101</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B637">
+        <v>24.501953686228202</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B638">
+        <v>24.4083682867421</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B639">
+        <v>24.315685362276302</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B640">
+        <v>24.2239043466627</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B641">
+        <v>24.133023505836199</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B642">
+        <v>24.043039966128099</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B643">
+        <v>23.953950173403999</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B644">
+        <v>23.865750292719301</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B645">
+        <v>23.778436139829601</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B646">
+        <v>23.692002932967199</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B647">
+        <v>23.606444978672101</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B648">
+        <v>23.521755727157799</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B649">
+        <v>23.437928237840001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B650">
+        <v>23.354955610351901</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B651">
+        <v>23.2728307984802</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B652">
+        <v>23.191546324134499</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B653">
+        <v>23.111094017654398</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B654">
+        <v>23.031465157341199</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B655">
+        <v>22.952650876476302</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B656">
+        <v>22.874642552572801</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B657">
+        <v>22.797431571676999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B658">
+        <v>22.721008996374401</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B659">
+        <v>22.645365374703101</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B660">
+        <v>22.570490950474198</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B661">
+        <v>22.496376017656601</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B662">
+        <v>22.423011257315501</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B663">
+        <v>22.350387465203099</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B664">
+        <v>22.278495170021198</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B665">
+        <v>22.207324520249401</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B666">
+        <v>22.136865549070102</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B667">
+        <v>22.0671084865205</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B668">
+        <v>21.998044037014701</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B669">
+        <v>21.9296630835168</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B670">
+        <v>21.861956256458001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B671">
+        <v>21.794913902493398</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B672">
+        <v>21.728526386406699</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B673">
+        <v>21.662784373725401</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B674">
+        <v>21.597678979670398</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B675">
+        <v>21.533201511876399</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B676">
+        <v>21.4693430773874</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B677">
+        <v>21.406094564067001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B678">
+        <v>21.343446961616401</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B679">
+        <v>21.281391627759099</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B680">
+        <v>21.219920322966001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B681">
+        <v>21.159024976320602</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B682">
+        <v>21.098697344836999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44731</v>
+      </c>
+      <c r="B683">
+        <v>21.0389290062618</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B684">
+        <v>20.9797116819826</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B685">
+        <v>20.921037498839201</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B686">
+        <v>20.862898925528501</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B687">
+        <v>20.805288549568399</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B688">
+        <v>20.7481987976422</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B689">
+        <v>20.691621938836001</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B690">
+        <v>20.635550393595299</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B691">
+        <v>20.5799770009314</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B692">
+        <v>20.524894873077201</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B693">
+        <v>20.470297175268101</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B694">
+        <v>20.4161769108076</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B695">
+        <v>20.362526973819001</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B696">
+        <v>20.309340399637598</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44745</v>
+      </c>
+      <c r="B697">
+        <v>20.256610594439302</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B698">
+        <v>20.204331166259799</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B699">
+        <v>20.152495703203702</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B700">
+        <v>20.101097622749599</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B701">
+        <v>20.050130266913701</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B702">
+        <v>19.999587098909799</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B703">
+        <v>19.949461885504601</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B704">
+        <v>19.899748524951999</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B705">
+        <v>19.850440822919101</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B706">
+        <v>19.801532402037299</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B707">
+        <v>19.753016823003001</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B708">
+        <v>19.7048877404834</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B709">
+        <v>19.657139040418599</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B710">
+        <v>19.609764673928101</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B711">
+        <v>19.562758433509099</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B712">
+        <v>19.516113915930202</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B713">
+        <v>19.469824654451799</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B714">
+        <v>19.423884245056399</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B715">
+        <v>19.378286422536402</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B716">
+        <v>19.3330249233837</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B717">
+        <v>19.288093291088298</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B718">
+        <v>19.243484863347401</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B719">
+        <v>19.199192902649902</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B720">
+        <v>19.1552107014003</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B721">
+        <v>19.1115316015193</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B722">
+        <v>19.0681488870495</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B723">
+        <v>19.025055635107901</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B724">
+        <v>18.982244712294701</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B725">
+        <v>18.939708893099599</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B726">
+        <v>18.897440949533198</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B727">
+        <v>18.855433631898698</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B728">
+        <v>18.8136795835314</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B729">
+        <v>18.772171236599199</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B730">
+        <v>18.7309008156906</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B731">
+        <v>18.689860435885301</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B732">
+        <v>18.649042179189902</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B733">
+        <v>18.6084380532388</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B734">
+        <v>18.568039924723401</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B735">
+        <v>18.5278394562459</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B736">
+        <v>18.4878281210637</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B737">
+        <v>18.447997270559298</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B738">
+        <v>18.408338189546399</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B739">
+        <v>18.368842054791401</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B740">
+        <v>18.329499887314501</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B741">
+        <v>18.2903025240537</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B742">
+        <v>18.251240640521299</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B743">
+        <v>18.212304787453501</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B744">
+        <v>18.173485418761999</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B745">
+        <v>18.134772865700199</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B746">
+        <v>18.096157311326699</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B747">
+        <v>18.057628788695698</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B748">
+        <v>18.019177199525199</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B749">
+        <v>17.980792327050398</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B750">
+        <v>17.9424638408886</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B751">
+        <v>17.904181291961201</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B752">
+        <v>17.865934115041998</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B753">
+        <v>17.8277116434028</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B754">
+        <v>17.789503113415599</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B755">
+        <v>17.751297657792701</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B756">
+        <v>17.713084293762101</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B757">
+        <v>17.6748519414549</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B758">
+        <v>17.636589461109601</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B759">
+        <v>17.598285673765599</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B760">
+        <v>17.559929343708301</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B761">
+        <v>17.521509153227601</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B762">
+        <v>17.483013689550798</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B763">
+        <v>17.444431483112599</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B764">
+        <v>17.405751075959799</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B765">
+        <v>17.3669610458963</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B766">
+        <v>17.328049961707499</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B767">
+        <v>17.289006337971198</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B768">
+        <v>17.249818636345001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B769">
+        <v>17.210475323767199</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B770">
+        <v>17.1709649658412</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B771">
+        <v>17.1312762516982</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B772">
+        <v>17.091397917916801</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B773">
+        <v>17.0513186767338</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B774">
+        <v>17.011027245149101</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B775">
+        <v>16.970512424702498</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B776">
+        <v>16.929763209823399</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B777">
+        <v>16.888768807958201</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B778">
+        <v>16.847518534096999</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B779">
+        <v>16.806001705620801</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B780">
+        <v>16.764207711267499</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B781">
+        <v>16.7221261174377</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B782">
+        <v>16.679746780304399</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B783">
+        <v>16.637059834697201</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B784">
+        <v>16.594055579168302</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B785">
+        <v>16.550724357049901</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B786">
+        <v>16.5070566532961</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B787">
+        <v>16.463043233785701</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B788">
+        <v>16.4186752484189</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B789">
+        <v>16.373944181190801</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B790">
+        <v>16.328841727556199</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B791">
+        <v>16.283359667833501</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B792">
+        <v>16.237489991813</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B793">
+        <v>16.191225078182299</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B794">
+        <v>16.144557774972998</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B795">
+        <v>16.0974813062514</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B796">
+        <v>16.049989140838999</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B797">
+        <v>16.002074865231599</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B798">
+        <v>15.953732334167</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B799">
+        <v>15.9049558970883</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B800">
+        <v>15.8557404424064</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B801">
+        <v>15.806081259930799</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B802">
+        <v>15.7559738977953</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B803">
+        <v>15.705414077222301</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B804">
+        <v>15.654397840209899</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B805">
+        <v>15.6029217853983</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B806">
+        <v>15.5509830986836</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B807">
+        <v>15.498579374795</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B808">
+        <v>15.4457084575671</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B809">
+        <v>15.392368408721399</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B810">
+        <v>15.338557654174</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B811">
+        <v>15.284275211173201</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B812">
+        <v>15.229520706248101</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B813">
+        <v>15.174294164080999</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B814">
+        <v>15.118595825496399</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B815">
+        <v>15.0624261760462</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B816">
+        <v>15.005786095980699</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B817">
+        <v>14.9486770637966</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B818">
+        <v>14.891101159893999</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B819">
+        <v>14.833060835476999</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B820">
+        <v>14.7745587032262</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B821">
+        <v>14.7155976272796</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B822">
+        <v>14.6561808810544</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B823">
+        <v>14.5963123138631</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B824">
+        <v>14.5359963105668</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B825">
+        <v>14.475237578929701</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B826">
+        <v>14.414040945873399</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B827">
+        <v>14.3524114758556</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B828">
+        <v>14.2903546381983</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B829">
+        <v>14.2278764266668</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B830">
+        <v>14.164983272963401</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B831">
+        <v>14.1016818636586</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B832">
+        <v>14.0379789635659</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B833">
+        <v>13.973881541950099</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B834">
+        <v>13.909396946985099</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B835">
+        <v>13.8445329732339</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B836">
+        <v>13.779297743829799</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B837">
+        <v>13.713699556156101</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B838">
+        <v>13.647746740373501</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B839">
+        <v>13.5814477823385</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B840">
+        <v>13.5148114977147</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B841">
+        <v>13.447847048794699</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B842">
+        <v>13.3805638140099</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B843">
+        <v>13.3129712610823</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B844">
+        <v>13.2450788597257</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B845">
+        <v>13.176896178627</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B846">
+        <v>13.1084330294644</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B847">
+        <v>13.0396994557547</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B848">
+        <v>12.970705609827499</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B849">
+        <v>12.901461653098901</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B850">
+        <v>12.8319777224636</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B851">
+        <v>12.7622639948317</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B852">
+        <v>12.6923307779517</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B853">
+        <v>12.6221884889365</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B854">
+        <v>12.5518475577225</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B855">
+        <v>12.4813183565995</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B856">
+        <v>12.4106111992919</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B857">
+        <v>12.3397363767186</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B858">
+        <v>12.2687041937592</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B859">
+        <v>12.197524942049601</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B860">
+        <v>12.126208845100701</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B861">
+        <v>12.0547660229616</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B862">
+        <v>11.983206499339</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B863">
+        <v>11.9115402077468</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B864">
+        <v>11.839776980906899</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B865">
+        <v>11.767926523413699</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B866">
+        <v>11.695998406984501</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B867">
+        <v>11.624002079799199</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B868">
+        <v>11.5519468557517</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B869">
+        <v>11.479841885925699</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B870">
+        <v>11.407696113931101</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B871">
+        <v>11.335518265704399</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B872">
+        <v>11.2633168880906</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B873">
+        <v>11.191100400350701</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B874">
+        <v>11.118877052734801</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B875">
+        <v>11.0466548552583</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B876">
+        <v>10.9744415171743</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B877">
+        <v>10.902244471464799</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B878">
+        <v>10.8300709474144</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B879">
+        <v>10.757928053778601</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B880">
+        <v>10.685822702208601</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B881">
+        <v>10.6137614839715</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B882">
+        <v>10.541750614201399</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B883">
+        <v>10.469796002250201</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B884">
+        <v>10.397903352048299</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B885">
+        <v>10.326078258414199</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B886">
+        <v>10.2543260990074</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B887">
+        <v>10.1826518559945</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B888">
+        <v>10.1110600806444</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B889">
+        <v>10.0395550133803</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B890">
+        <v>9.9681407093211494</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B891">
+        <v>9.8968211053552597</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B892">
+        <v>9.82559990182218</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>9.7544803621924103</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>9.6834652858373698</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B895">
+        <v>9.6125571746092096</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B896">
+        <v>9.5417583845574203</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B897">
+        <v>9.4710711460206198</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B898">
+        <v>9.4004974345835901</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B899">
+        <v>9.3300387673909793</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B900">
+        <v>9.2596961867859502</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B901">
+        <v>9.1894704644288208</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B902">
+        <v>9.1193622831399299</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B903">
+        <v>9.0493721988415192</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B904">
+        <v>8.9795004981921895</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B905">
+        <v>8.9097470097771794</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B906">
+        <v>8.8401111008233197</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B907">
+        <v>8.7705919061846291</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B908">
+        <v>8.7011885463420509</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B909">
+        <v>8.6319000264461092</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B910">
+        <v>8.5627250776698496</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B911">
+        <v>8.4936619989618602</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B912">
+        <v>8.4247087084743306</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B913">
+        <v>8.3558629543824807</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B914">
+        <v>8.2871225236198605</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B915">
+        <v>8.2184851195478004</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B916">
+        <v>8.1499481843821808</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B917">
+        <v>8.0815087830356998</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B918">
+        <v>8.0131637035557706</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B919">
+        <v>7.9449096493391203</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B920">
+        <v>7.8767434292366403</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B921">
+        <v>7.8086618209905101</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B922">
+        <v>7.7406613735138299</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B923">
+        <v>7.6727383396631499</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B924">
+        <v>7.6048888147721003</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B925">
+        <v>7.5371089110714102</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B926">
+        <v>7.4693949202602399</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B927">
+        <v>7.4017431704687899</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B928">
+        <v>7.33414981053288</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B929">
+        <v>7.26661079327382</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B930">
+        <v>7.1991220370786504</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B931">
+        <v>7.1316795837108096</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B932">
+        <v>7.0642796983304601</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B933">
+        <v>6.9969187487310096</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B934">
+        <v>6.9295930125603196</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B935">
+        <v>6.8622986788350104</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B936">
+        <v>6.7950320151695101</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B937">
+        <v>6.7277895098442304</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B938">
+        <v>6.6605679099467601</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B939">
+        <v>6.5933641206048499</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B940">
+        <v>6.5261750514200996</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B941">
+        <v>6.4589976260054103</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B942">
+        <v>6.3918289376203798</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B943">
+        <v>6.3246663754671903</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B944">
+        <v>6.2575076136633898</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B945">
+        <v>6.1903505248042601</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B946">
+        <v>6.12319306899166</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B947">
+        <v>6.0560333075514201</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B948">
+        <v>5.9888695326901402</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B949">
+        <v>5.9217003763385696</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B950">
+        <v>5.8545247660709796</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B951">
+        <v>5.7873418505606002</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B952">
+        <v>5.72015092863374</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019_cc.xlsx
+++ b/Covid_29019_cc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD93444-BDDB-8F49-B227-B72EF1A002DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186499A4-9203-CC43-B30F-46BF8F4589CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2620" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14060" yWindow="4800" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,16 +881,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B952"/>
+  <dimension ref="A1:B783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="67.5" customWidth="1"/>
     <col min="4" max="6" width="54.5" customWidth="1"/>
   </cols>
@@ -905,7610 +905,6258 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44050</v>
+        <v>44058</v>
       </c>
       <c r="B2">
-        <v>40.909613414577699</v>
+        <v>4.61262093238494E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44051</v>
+        <v>44059</v>
       </c>
       <c r="B3">
-        <v>40.918825944146597</v>
+        <v>0.69417555136194398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44052</v>
+        <v>44060</v>
       </c>
       <c r="B4">
-        <v>40.928115139803403</v>
+        <v>1.37061098264799</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44053</v>
+        <v>44061</v>
       </c>
       <c r="B5">
-        <v>40.937487478033702</v>
+        <v>2.0731036132009701</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44054</v>
+        <v>44062</v>
       </c>
       <c r="B6">
-        <v>40.9469506871161</v>
+        <v>2.7993251537758401</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44055</v>
+        <v>44063</v>
       </c>
       <c r="B7">
-        <v>40.956514426962201</v>
+        <v>3.5470107019114598</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44056</v>
+        <v>44064</v>
       </c>
       <c r="B8">
-        <v>40.966190861446897</v>
+        <v>4.3140008106307004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44057</v>
+        <v>44065</v>
       </c>
       <c r="B9">
-        <v>40.975994792843103</v>
+        <v>5.09826804877145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44058</v>
+        <v>44066</v>
       </c>
       <c r="B10">
-        <v>40.9859421208497</v>
+        <v>5.8979322879912202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44059</v>
+        <v>44067</v>
       </c>
       <c r="B11">
-        <v>40.996048225741298</v>
+        <v>6.7112680455211899</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="B12">
-        <v>41.006327759578497</v>
+        <v>7.5367064301600397</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44061</v>
+        <v>44069</v>
       </c>
       <c r="B13">
-        <v>41.016795558967203</v>
+        <v>8.3728335965587295</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44062</v>
+        <v>44070</v>
       </c>
       <c r="B14">
-        <v>41.027467216068601</v>
+        <v>9.2183871023695207</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44063</v>
+        <v>44071</v>
       </c>
       <c r="B15">
-        <v>41.038358951041303</v>
+        <v>10.072251167284</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44064</v>
+        <v>44072</v>
       </c>
       <c r="B16">
-        <v>41.049486414224098</v>
+        <v>10.933451532396999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44065</v>
+        <v>44073</v>
       </c>
       <c r="B17">
-        <v>41.060863383899402</v>
+        <v>11.801150393407699</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44066</v>
+        <v>44074</v>
       </c>
       <c r="B18">
-        <v>41.072501719572401</v>
+        <v>12.674641714894101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44067</v>
+        <v>44075</v>
       </c>
       <c r="B19">
-        <v>41.084412384985001</v>
+        <v>13.5533471110514</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="B20">
-        <v>41.0966060219288</v>
+        <v>14.4368123893573</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44069</v>
+        <v>44077</v>
       </c>
       <c r="B21">
-        <v>41.109092594363702</v>
+        <v>15.3247047884757</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44070</v>
+        <v>44078</v>
       </c>
       <c r="B22">
-        <v>41.121880453933798</v>
+        <v>16.217934027320801</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44071</v>
+        <v>44079</v>
       </c>
       <c r="B23">
-        <v>41.134975368007602</v>
+        <v>17.1293595962339</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44072</v>
+        <v>44080</v>
       </c>
       <c r="B24">
-        <v>41.1483805940642</v>
+        <v>18.075490722628199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44073</v>
+        <v>44081</v>
       </c>
       <c r="B25">
-        <v>41.162097902099703</v>
+        <v>19.067557566691502</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44074</v>
+        <v>44082</v>
       </c>
       <c r="B26">
-        <v>41.176128155819498</v>
+        <v>20.111881051732901</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44075</v>
+        <v>44083</v>
       </c>
       <c r="B27">
-        <v>41.190470787600397</v>
+        <v>21.210432864507101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44076</v>
+        <v>44084</v>
       </c>
       <c r="B28">
-        <v>41.205123068870797</v>
+        <v>22.361518125029701</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44077</v>
+        <v>44085</v>
       </c>
       <c r="B29">
-        <v>41.220079463499303</v>
+        <v>23.560561081845901</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44078</v>
+        <v>44086</v>
       </c>
       <c r="B30">
-        <v>41.235331813953103</v>
+        <v>24.800986343326102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44079</v>
+        <v>44087</v>
       </c>
       <c r="B31">
-        <v>41.250870241327199</v>
+        <v>26.075171256234601</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44080</v>
+        <v>44088</v>
       </c>
       <c r="B32">
-        <v>41.2666837051312</v>
+        <v>27.375234804798499</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44081</v>
+        <v>44089</v>
       </c>
       <c r="B33">
-        <v>41.2827594156484</v>
+        <v>28.693640256565999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44082</v>
+        <v>44090</v>
       </c>
       <c r="B34">
-        <v>41.299082272348102</v>
+        <v>30.023607760240999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44083</v>
+        <v>44091</v>
       </c>
       <c r="B35">
-        <v>41.315634514018498</v>
+        <v>31.359353060332701</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44084</v>
+        <v>44092</v>
       </c>
       <c r="B36">
-        <v>41.332396055271403</v>
+        <v>32.696184541411299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44085</v>
+        <v>44093</v>
       </c>
       <c r="B37">
-        <v>41.349345130001602</v>
+        <v>34.030496372802801</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44086</v>
+        <v>44094</v>
       </c>
       <c r="B38">
-        <v>41.366458710471797</v>
+        <v>35.359693614459097</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44087</v>
+        <v>44095</v>
       </c>
       <c r="B39">
-        <v>41.383712042091503</v>
+        <v>36.682079115240498</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44088</v>
+        <v>44096</v>
       </c>
       <c r="B40">
-        <v>41.401078232528398</v>
+        <v>37.9967245825042</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44089</v>
+        <v>44097</v>
       </c>
       <c r="B41">
-        <v>41.418528146687898</v>
+        <v>39.303341062780703</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="B42">
-        <v>41.436030791504699</v>
+        <v>40.602158118711998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="B43">
-        <v>41.453553752734102</v>
+        <v>41.8938164769012</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="B44">
-        <v>41.4710634779846</v>
+        <v>43.179275759623103</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="B45">
-        <v>41.488524962639097</v>
+        <v>44.4597368452187</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="B46">
-        <v>41.505901488228901</v>
+        <v>45.736577134271798</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="B47">
-        <v>41.5231546909136</v>
+        <v>47.011296263601402</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="B48">
-        <v>41.540244906312303</v>
+        <v>48.285469390381103</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="B49">
-        <v>41.557131444544801</v>
+        <v>49.5607049011969</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="B50">
-        <v>41.573772755392802</v>
+        <v>50.838603171793501</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="B51">
-        <v>41.590126280467103</v>
+        <v>52.120712742479299</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="B52">
-        <v>41.606148350567899</v>
+        <v>53.408479953670998</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="B53">
-        <v>41.621794343812397</v>
+        <v>54.703187726424702</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="B54">
-        <v>41.637018922464797</v>
+        <v>56.005878860236898</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44103</v>
+        <v>44111</v>
       </c>
       <c r="B55">
-        <v>41.651776180201601</v>
+        <v>57.324994550758099</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44104</v>
+        <v>44112</v>
       </c>
       <c r="B56">
-        <v>41.666019713308103</v>
+        <v>58.693291722285302</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44105</v>
+        <v>44113</v>
       </c>
       <c r="B57">
-        <v>41.679702647453702</v>
+        <v>60.134718860168597</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44106</v>
+        <v>44114</v>
       </c>
       <c r="B58">
-        <v>41.6927777145997</v>
+        <v>61.656690650194399</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44107</v>
+        <v>44115</v>
       </c>
       <c r="B59">
-        <v>41.705197405743696</v>
+        <v>63.2514834310672</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44108</v>
+        <v>44116</v>
       </c>
       <c r="B60">
-        <v>41.716914055764001</v>
+        <v>64.898044572491401</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44109</v>
+        <v>44117</v>
       </c>
       <c r="B61">
-        <v>41.727879882346997</v>
+        <v>66.564669214585393</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44110</v>
+        <v>44118</v>
       </c>
       <c r="B62">
-        <v>41.738047047130699</v>
+        <v>68.212581463389398</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44111</v>
+        <v>44119</v>
       </c>
       <c r="B63">
-        <v>41.747367801832503</v>
+        <v>69.800977364820696</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44112</v>
+        <v>44120</v>
       </c>
       <c r="B64">
-        <v>41.755794697988897</v>
+        <v>71.292261062825105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44113</v>
+        <v>44121</v>
       </c>
       <c r="B65">
-        <v>41.7632807121621</v>
+        <v>72.6557784912861</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44114</v>
+        <v>44122</v>
       </c>
       <c r="B66">
-        <v>41.769779159470801</v>
+        <v>73.870206020188405</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44115</v>
+        <v>44123</v>
       </c>
       <c r="B67">
-        <v>41.775243627978099</v>
+        <v>74.924467208107203</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44116</v>
+        <v>44124</v>
       </c>
       <c r="B68">
-        <v>41.779628100843603</v>
+        <v>75.8173001324067</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44117</v>
+        <v>44125</v>
       </c>
       <c r="B69">
-        <v>41.7828871886935</v>
+        <v>76.555805207822203</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44118</v>
+        <v>44126</v>
       </c>
       <c r="B70">
-        <v>41.784976414885797</v>
+        <v>77.153385855273697</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44119</v>
+        <v>44127</v>
       </c>
       <c r="B71">
-        <v>41.785852296342398</v>
+        <v>77.627465854892307</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44120</v>
+        <v>44128</v>
       </c>
       <c r="B72">
-        <v>41.785472089319697</v>
+        <v>77.997268845764495</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44121</v>
+        <v>44129</v>
       </c>
       <c r="B73">
-        <v>41.783793608963002</v>
+        <v>78.281820255210704</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44122</v>
+        <v>44130</v>
       </c>
       <c r="B74">
-        <v>41.780775470307603</v>
+        <v>78.496235653125396</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44123</v>
+        <v>44131</v>
       </c>
       <c r="B75">
-        <v>41.776377392260798</v>
+        <v>78.645344506855906</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44124</v>
+        <v>44132</v>
       </c>
       <c r="B76">
-        <v>41.770560499308097</v>
+        <v>78.730667640880199</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44125</v>
+        <v>44133</v>
       </c>
       <c r="B77">
-        <v>41.763287292286897</v>
+        <v>78.752537628305006</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44126</v>
+        <v>44134</v>
       </c>
       <c r="B78">
-        <v>41.754521304419498</v>
+        <v>78.710077440040493</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44127</v>
+        <v>44135</v>
       </c>
       <c r="B79">
-        <v>41.744226845443897</v>
+        <v>78.601209101513703</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44128</v>
+        <v>44136</v>
       </c>
       <c r="B80">
-        <v>41.732369344615798</v>
+        <v>78.422693087623799</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="B81">
-        <v>41.718915725476798</v>
+        <v>78.1702061883244</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44130</v>
+        <v>44138</v>
       </c>
       <c r="B82">
-        <v>41.703834669087399</v>
+        <v>77.838472983265007</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44131</v>
+        <v>44139</v>
       </c>
       <c r="B83">
-        <v>41.687096440142703</v>
+        <v>77.421474115259699</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44132</v>
+        <v>44140</v>
       </c>
       <c r="B84">
-        <v>41.668672501050402</v>
+        <v>76.912763096376395</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="B85">
-        <v>41.648535220626997</v>
+        <v>76.305931502155303</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44134</v>
+        <v>44142</v>
       </c>
       <c r="B86">
-        <v>41.626658302483499</v>
+        <v>75.595267874232107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44135</v>
+        <v>44143</v>
       </c>
       <c r="B87">
-        <v>41.603017239072301</v>
+        <v>74.776654164464404</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44136</v>
+        <v>44144</v>
       </c>
       <c r="B88">
-        <v>41.577589489238903</v>
+        <v>73.849487982240007</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44137</v>
+        <v>44145</v>
       </c>
       <c r="B89">
-        <v>41.550354153309698</v>
+        <v>72.820393541511194</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44138</v>
+        <v>44146</v>
       </c>
       <c r="B90">
-        <v>41.521291567710897</v>
+        <v>71.703200669178102</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44139</v>
+        <v>44147</v>
       </c>
       <c r="B91">
-        <v>41.490383010841299</v>
+        <v>70.520447845698698</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44140</v>
+        <v>44148</v>
       </c>
       <c r="B92">
-        <v>41.4576112065469</v>
+        <v>69.303938125722198</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44141</v>
+        <v>44149</v>
       </c>
       <c r="B93">
-        <v>41.422960870077098</v>
+        <v>68.092873511223502</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44142</v>
+        <v>44150</v>
       </c>
       <c r="B94">
-        <v>41.3864187617108</v>
+        <v>66.929456048803999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44143</v>
+        <v>44151</v>
       </c>
       <c r="B95">
-        <v>41.347973219908098</v>
+        <v>65.852925504767398</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44144</v>
+        <v>44152</v>
       </c>
       <c r="B96">
-        <v>41.3076137462538</v>
+        <v>64.892242157020704</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44145</v>
+        <v>44153</v>
       </c>
       <c r="B97">
-        <v>41.265330804342</v>
+        <v>64.060037697744093</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44146</v>
+        <v>44154</v>
       </c>
       <c r="B98">
-        <v>41.221116317415202</v>
+        <v>63.349504596253603</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44147</v>
+        <v>44155</v>
       </c>
       <c r="B99">
-        <v>41.174964249839498</v>
+        <v>62.733239757505203</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44148</v>
+        <v>44156</v>
       </c>
       <c r="B100">
-        <v>41.126870581375002</v>
+        <v>62.162926166821499</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44149</v>
+        <v>44157</v>
       </c>
       <c r="B101">
-        <v>41.076832719720599</v>
+        <v>61.583002184671898</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44150</v>
+        <v>44158</v>
       </c>
       <c r="B102">
-        <v>41.024849074925797</v>
+        <v>60.981236781795097</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44151</v>
+        <v>44159</v>
       </c>
       <c r="B103">
-        <v>40.970919014529002</v>
+        <v>60.358519268994499</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44152</v>
+        <v>44160</v>
       </c>
       <c r="B104">
-        <v>40.915043322435302</v>
+        <v>59.716023782708803</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44153</v>
+        <v>44161</v>
       </c>
       <c r="B105">
-        <v>40.857224748946003</v>
+        <v>59.055034678506097</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44154</v>
+        <v>44162</v>
       </c>
       <c r="B106">
-        <v>40.797467945899498</v>
+        <v>58.376819080370197</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44155</v>
+        <v>44163</v>
       </c>
       <c r="B107">
-        <v>40.735778789168997</v>
+        <v>57.682537558020201</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44156</v>
+        <v>44164</v>
       </c>
       <c r="B108">
-        <v>40.672163933126697</v>
+        <v>56.9731838127814</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44157</v>
+        <v>44165</v>
       </c>
       <c r="B109">
-        <v>40.6066309372696</v>
+        <v>56.249545471074498</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44158</v>
+        <v>44166</v>
       </c>
       <c r="B110">
-        <v>40.539188701174098</v>
+        <v>55.512179784524903</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="B111">
-        <v>40.469847949668697</v>
+        <v>54.7613997944391</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="B112">
-        <v>40.398621132287197</v>
+        <v>53.997268170860899</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44161</v>
+        <v>44169</v>
       </c>
       <c r="B113">
-        <v>40.3255216921685</v>
+        <v>53.219597464482597</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44162</v>
+        <v>44170</v>
       </c>
       <c r="B114">
-        <v>40.250563585284802</v>
+        <v>52.427956969349196</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44163</v>
+        <v>44171</v>
       </c>
       <c r="B115">
-        <v>40.173761583082502</v>
+        <v>51.621687868286401</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44164</v>
+        <v>44172</v>
       </c>
       <c r="B116">
-        <v>40.095131700195999</v>
+        <v>50.799929893946</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44165</v>
+        <v>44173</v>
       </c>
       <c r="B117">
-        <v>40.014691587703098</v>
+        <v>49.961664407728797</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44166</v>
+        <v>44174</v>
       </c>
       <c r="B118">
-        <v>39.932460352194802</v>
+        <v>49.1057804867878</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="B119">
-        <v>39.848457862372797</v>
+        <v>48.231172022494</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44168</v>
+        <v>44176</v>
       </c>
       <c r="B120">
-        <v>39.762704264640597</v>
+        <v>47.336874346242297</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44169</v>
+        <v>44177</v>
       </c>
       <c r="B121">
-        <v>39.675220403362701</v>
+        <v>46.417919772670203</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44170</v>
+        <v>44178</v>
       </c>
       <c r="B122">
-        <v>39.5860282568458</v>
+        <v>45.455211142871399</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44171</v>
+        <v>44179</v>
       </c>
       <c r="B123">
-        <v>39.495151219373902</v>
+        <v>44.433358428891601</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44172</v>
+        <v>44180</v>
       </c>
       <c r="B124">
-        <v>39.402613799693597</v>
+        <v>43.346128407913</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44173</v>
+        <v>44181</v>
       </c>
       <c r="B125">
-        <v>39.308441033568798</v>
+        <v>42.196779732039303</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44174</v>
+        <v>44182</v>
       </c>
       <c r="B126">
-        <v>39.212658060765897</v>
+        <v>40.997550618772998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44175</v>
+        <v>44183</v>
       </c>
       <c r="B127">
-        <v>39.115290582250999</v>
+        <v>39.767808669755198</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44176</v>
+        <v>44184</v>
       </c>
       <c r="B128">
-        <v>39.016365316617602</v>
+        <v>38.530616797385797</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44177</v>
+        <v>44185</v>
       </c>
       <c r="B129">
-        <v>38.915910159798798</v>
+        <v>37.3085045058383</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44178</v>
+        <v>44186</v>
       </c>
       <c r="B130">
-        <v>38.8139537896786</v>
+        <v>36.119835912666097</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44179</v>
+        <v>44187</v>
       </c>
       <c r="B131">
-        <v>38.7105251720306</v>
+        <v>34.976260223778503</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44180</v>
+        <v>44188</v>
       </c>
       <c r="B132">
-        <v>38.605653210545597</v>
+        <v>33.881471793958198</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="B133">
-        <v>38.499367222968303</v>
+        <v>32.831038964615097</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44182</v>
+        <v>44190</v>
       </c>
       <c r="B134">
-        <v>38.391697425449898</v>
+        <v>31.8157215670307</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44183</v>
+        <v>44191</v>
       </c>
       <c r="B135">
-        <v>38.282674966959497</v>
+        <v>30.8328044440558</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44184</v>
+        <v>44192</v>
       </c>
       <c r="B136">
-        <v>38.172331469426098</v>
+        <v>29.8811340248152</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44185</v>
+        <v>44193</v>
       </c>
       <c r="B137">
-        <v>38.0606986100629</v>
+        <v>28.959016068717698</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44186</v>
+        <v>44194</v>
       </c>
       <c r="B138">
-        <v>37.947807876433998</v>
+        <v>28.064497244364301</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44187</v>
+        <v>44195</v>
       </c>
       <c r="B139">
-        <v>37.833691017750702</v>
+        <v>27.1955732333094</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="B140">
-        <v>37.718380535251796</v>
+        <v>26.350336563329599</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44189</v>
+        <v>44197</v>
       </c>
       <c r="B141">
-        <v>37.601909622775601</v>
+        <v>25.5270780600862</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44190</v>
+        <v>44198</v>
       </c>
       <c r="B142">
-        <v>37.484311672123297</v>
+        <v>24.7243542650926</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44191</v>
+        <v>44199</v>
       </c>
       <c r="B143">
-        <v>37.365619912692999</v>
+        <v>23.941030757866201</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44192</v>
+        <v>44200</v>
       </c>
       <c r="B144">
-        <v>37.245867325018502</v>
+        <v>23.176308753932201</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="B145">
-        <v>37.125087007841103</v>
+        <v>22.429739927005699</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44194</v>
+        <v>44202</v>
       </c>
       <c r="B146">
-        <v>37.003312598876597</v>
+        <v>21.701232181649001</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>44195</v>
+        <v>44203</v>
       </c>
       <c r="B147">
-        <v>36.8805782001225</v>
+        <v>20.991047014625401</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44196</v>
+        <v>44204</v>
       </c>
       <c r="B148">
-        <v>36.756917876274798</v>
+        <v>20.2997870292103</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44197</v>
+        <v>44205</v>
       </c>
       <c r="B149">
-        <v>36.632365332453901</v>
+        <v>19.628369988450501</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44198</v>
+        <v>44206</v>
       </c>
       <c r="B150">
-        <v>36.506953962868998</v>
+        <v>18.977983449978598</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44199</v>
+        <v>44207</v>
       </c>
       <c r="B151">
-        <v>36.380717158997001</v>
+        <v>18.350011593832299</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>44200</v>
+        <v>44208</v>
       </c>
       <c r="B152">
-        <v>36.253688648985602</v>
+        <v>17.745923676005798</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44201</v>
+        <v>44209</v>
       </c>
       <c r="B153">
-        <v>36.125902412369697</v>
+        <v>17.1671123955932</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44202</v>
+        <v>44210</v>
       </c>
       <c r="B154">
-        <v>35.997392195591502</v>
+        <v>16.612418391345699</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="B155">
-        <v>35.868191209990698</v>
+        <v>16.073114937816499</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>44204</v>
+        <v>44212</v>
       </c>
       <c r="B156">
-        <v>35.738332291066001</v>
+        <v>15.5423774579429</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44205</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>35.607848167998299</v>
+        <v>15.0168274471005</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>44206</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>35.476771718245701</v>
+        <v>14.4954960172378</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>44207</v>
+        <v>44215</v>
       </c>
       <c r="B159">
-        <v>35.345135869555101</v>
+        <v>13.978917063370901</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>44208</v>
+        <v>44216</v>
       </c>
       <c r="B160">
-        <v>35.212973158146902</v>
+        <v>13.468331521596999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="B161">
-        <v>35.0803154377626</v>
+        <v>12.964990903548999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="B162">
-        <v>34.9471941205408</v>
+        <v>12.470067673311499</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>44211</v>
+        <v>44219</v>
       </c>
       <c r="B163">
-        <v>34.813640423932902</v>
+        <v>11.9849542422546</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44212</v>
+        <v>44220</v>
       </c>
       <c r="B164">
-        <v>34.679685544142899</v>
+        <v>11.511839581419499</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>44213</v>
+        <v>44221</v>
       </c>
       <c r="B165">
-        <v>34.545360501650201</v>
+        <v>11.0545599831638</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44214</v>
+        <v>44222</v>
       </c>
       <c r="B166">
-        <v>34.410695802254203</v>
+        <v>10.6196227973963</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="B167">
-        <v>34.275721204874202</v>
+        <v>10.2123752741649</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="B168">
-        <v>34.140465965591197</v>
+        <v>9.8321707745995308</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44217</v>
+        <v>44225</v>
       </c>
       <c r="B169">
-        <v>34.004959073899897</v>
+        <v>9.47751507788373</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>44218</v>
+        <v>44226</v>
       </c>
       <c r="B170">
-        <v>33.869229352928997</v>
+        <v>9.1468486430147298</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44219</v>
+        <v>44227</v>
       </c>
       <c r="B171">
-        <v>33.733305270213101</v>
+        <v>8.8387119869316404</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>44220</v>
+        <v>44228</v>
       </c>
       <c r="B172">
-        <v>33.597214678586802</v>
+        <v>8.5518591854168093</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>44221</v>
+        <v>44229</v>
       </c>
       <c r="B173">
-        <v>33.460984639188901</v>
+        <v>8.2853320665650205</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44222</v>
+        <v>44230</v>
       </c>
       <c r="B174">
-        <v>33.324641661723597</v>
+        <v>8.0385060476152592</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44223</v>
+        <v>44231</v>
       </c>
       <c r="B175">
-        <v>33.188211938491797</v>
+        <v>7.8111160828131396</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>44224</v>
+        <v>44232</v>
       </c>
       <c r="B176">
-        <v>33.051721381408498</v>
+        <v>7.6032685500943202</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44225</v>
+        <v>44233</v>
       </c>
       <c r="B177">
-        <v>32.9151954155788</v>
+        <v>7.4154423894745296</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>44226</v>
+        <v>44234</v>
       </c>
       <c r="B178">
-        <v>32.778658780121098</v>
+        <v>7.2484804530869704</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>44227</v>
+        <v>44235</v>
       </c>
       <c r="B179">
-        <v>32.642135402265602</v>
+        <v>7.1035697507877504</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44228</v>
+        <v>44236</v>
       </c>
       <c r="B180">
-        <v>32.505648630128597</v>
+        <v>6.98220694978352</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44229</v>
+        <v>44237</v>
       </c>
       <c r="B181">
-        <v>32.369221470311601</v>
+        <v>6.8861430063930102</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44230</v>
+        <v>44238</v>
       </c>
       <c r="B182">
-        <v>32.232876572174298</v>
+        <v>6.8172981569207396</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>44231</v>
+        <v>44239</v>
       </c>
       <c r="B183">
-        <v>32.096636017614401</v>
+        <v>6.7776358455016901</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>44232</v>
+        <v>44240</v>
       </c>
       <c r="B184">
-        <v>31.960521165145501</v>
+        <v>6.7689820329925503</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44233</v>
+        <v>44241</v>
       </c>
       <c r="B185">
-        <v>31.824552603361798</v>
+        <v>6.7927757803061999</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>44234</v>
+        <v>44242</v>
       </c>
       <c r="B186">
-        <v>31.688750340375901</v>
+        <v>6.84964556556515</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44235</v>
+        <v>44243</v>
       </c>
       <c r="B187">
-        <v>31.553134012493899</v>
+        <v>6.9338289797620298</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c r="B188">
-        <v>31.417722864415101</v>
+        <v>7.0316807559944197</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="B189">
-        <v>31.282535544743499</v>
+        <v>7.1301056741894699</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44238</v>
+        <v>44246</v>
       </c>
       <c r="B190">
-        <v>31.147589979509899</v>
+        <v>7.2169782246231504</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>44239</v>
+        <v>44247</v>
       </c>
       <c r="B191">
-        <v>31.012903393461698</v>
+        <v>7.2814217282811002</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44240</v>
+        <v>44248</v>
       </c>
       <c r="B192">
-        <v>30.8784924709135</v>
+        <v>7.3145904049975297</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>44241</v>
+        <v>44249</v>
       </c>
       <c r="B193">
-        <v>30.744373532942401</v>
+        <v>7.3106056435983904</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44242</v>
+        <v>44250</v>
       </c>
       <c r="B194">
-        <v>30.610562520034598</v>
+        <v>7.2672401155962696</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="B195">
-        <v>30.477074798812101</v>
+        <v>7.1867330798620301</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="B196">
-        <v>30.343925052065099</v>
+        <v>7.0759131428431203</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="B197">
-        <v>30.211127354655599</v>
+        <v>6.94596888789202</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>44246</v>
+        <v>44254</v>
       </c>
       <c r="B198">
-        <v>30.0786953178145</v>
+        <v>6.812283404175</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>44247</v>
+        <v>44255</v>
       </c>
       <c r="B199">
-        <v>29.946642234504701</v>
+        <v>6.6934832277631902</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>44248</v>
+        <v>44256</v>
       </c>
       <c r="B200">
-        <v>29.8149810620219</v>
+        <v>6.5979842482719597</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>44249</v>
+        <v>44257</v>
       </c>
       <c r="B201">
-        <v>29.68372423952</v>
+        <v>6.5254866491390597</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B202">
-        <v>29.552883581021899</v>
+        <v>6.4750041330888202</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="B203">
-        <v>29.4224703961698</v>
+        <v>6.4452456123216804</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44252</v>
+        <v>44260</v>
       </c>
       <c r="B204">
-        <v>29.292495626929998</v>
+        <v>6.4347976049373896</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>44253</v>
+        <v>44261</v>
       </c>
       <c r="B205">
-        <v>29.162969962619499</v>
+        <v>6.4422570514914002</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>44254</v>
+        <v>44262</v>
       </c>
       <c r="B206">
-        <v>29.0339038020972</v>
+        <v>6.4663244994026998</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>44255</v>
+        <v>44263</v>
       </c>
       <c r="B207">
-        <v>28.9053071036898</v>
+        <v>6.5058673604941699</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44256</v>
+        <v>44264</v>
       </c>
       <c r="B208">
-        <v>28.7771892917313</v>
+        <v>6.5599615132306397</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>44257</v>
+        <v>44265</v>
       </c>
       <c r="B209">
-        <v>28.649559395982099</v>
+        <v>6.6279176851530597</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>44258</v>
+        <v>44266</v>
       </c>
       <c r="B210">
-        <v>28.522426189346</v>
+        <v>6.7092971992092698</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="B211">
-        <v>28.3957982745011</v>
+        <v>6.8039199376592503</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>44260</v>
+        <v>44268</v>
       </c>
       <c r="B212">
-        <v>28.269684021932001</v>
+        <v>6.9118657667585204</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>44261</v>
+        <v>44269</v>
       </c>
       <c r="B213">
-        <v>28.144091450129899</v>
+        <v>7.0334691037887298</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44262</v>
+        <v>44270</v>
       </c>
       <c r="B214">
-        <v>28.019028149901601</v>
+        <v>7.1693047040466196</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44263</v>
+        <v>44271</v>
       </c>
       <c r="B215">
-        <v>27.8945014336146</v>
+        <v>7.3201610291576404</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>44264</v>
+        <v>44272</v>
       </c>
       <c r="B216">
-        <v>27.7705184813464</v>
+        <v>7.4869957330767098</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="B217">
-        <v>27.647086399416398</v>
+        <v>7.6708660250236198</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44266</v>
+        <v>44274</v>
       </c>
       <c r="B218">
-        <v>27.524212136483399</v>
+        <v>7.8728253686043796</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44267</v>
+        <v>44275</v>
       </c>
       <c r="B219">
-        <v>27.401902384671502</v>
+        <v>8.0935087423860104</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44268</v>
+        <v>44276</v>
       </c>
       <c r="B220">
-        <v>27.280163520537499</v>
+        <v>8.3307927415869294</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44269</v>
+        <v>44277</v>
       </c>
       <c r="B221">
-        <v>27.159001764507899</v>
+        <v>8.5826557430110508</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="B222">
-        <v>27.038423341961</v>
+        <v>8.8488603541561002</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>44271</v>
+        <v>44279</v>
       </c>
       <c r="B223">
-        <v>26.918434511963198</v>
+        <v>9.1299987943607999</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44272</v>
+        <v>44280</v>
       </c>
       <c r="B224">
-        <v>26.799041462620501</v>
+        <v>9.4266266524526792</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44273</v>
+        <v>44281</v>
       </c>
       <c r="B225">
-        <v>26.680250225462299</v>
+        <v>9.7386170602310003</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44274</v>
+        <v>44282</v>
       </c>
       <c r="B226">
-        <v>26.562066647338899</v>
+        <v>10.064844690437001</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44275</v>
+        <v>44283</v>
       </c>
       <c r="B227">
-        <v>26.444496544722298</v>
+        <v>10.4033567435583</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44276</v>
+        <v>44284</v>
       </c>
       <c r="B228">
-        <v>26.327545871133399</v>
+        <v>10.7520782083344</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44277</v>
+        <v>44285</v>
       </c>
       <c r="B229">
-        <v>26.211220728729899</v>
+        <v>11.109693151237501</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="B230">
-        <v>26.095527244274901</v>
+        <v>11.4766116241407</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44279</v>
+        <v>44287</v>
       </c>
       <c r="B231">
-        <v>25.980471489965701</v>
+        <v>11.855965055526999</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44280</v>
+        <v>44288</v>
       </c>
       <c r="B232">
-        <v>25.866059497890198</v>
+        <v>12.252748241073499</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44281</v>
+        <v>44289</v>
       </c>
       <c r="B233">
-        <v>25.752297401676898</v>
+        <v>12.6672661564669</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44282</v>
+        <v>44290</v>
       </c>
       <c r="B234">
-        <v>25.639191595535699</v>
+        <v>13.098289827267299</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="B235">
-        <v>25.526748740458501</v>
+        <v>13.544688456294301</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="B236">
-        <v>25.414975623413898</v>
+        <v>14.005515565304799</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44285</v>
+        <v>44293</v>
       </c>
       <c r="B237">
-        <v>25.303879078009199</v>
+        <v>14.480063247613201</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="B238">
-        <v>25.193466041975501</v>
+        <v>14.967893643791299</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44287</v>
+        <v>44295</v>
       </c>
       <c r="B239">
-        <v>25.083743691806198</v>
+        <v>15.468855003003601</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44288</v>
+        <v>44296</v>
       </c>
       <c r="B240">
-        <v>24.9747195871429</v>
+        <v>15.983087643737999</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44289</v>
+        <v>44297</v>
       </c>
       <c r="B241">
-        <v>24.866401670376099</v>
+        <v>16.511023159155702</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44290</v>
+        <v>44298</v>
       </c>
       <c r="B242">
-        <v>24.758798113544401</v>
+        <v>17.0533784350282</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="B243">
-        <v>24.6519172321219</v>
+        <v>17.611144428707501</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="B244">
-        <v>24.545767585631001</v>
+        <v>18.185568096707598</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="B245">
-        <v>24.440358109601299</v>
+        <v>18.778124240295501</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="B246">
-        <v>24.335698238467302</v>
+        <v>19.390472266241002</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44295</v>
+        <v>44303</v>
       </c>
       <c r="B247">
-        <v>24.231797887750499</v>
+        <v>20.024390896734801</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="B248">
-        <v>24.1286673057017</v>
+        <v>20.681681794280902</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44297</v>
+        <v>44305</v>
       </c>
       <c r="B249">
-        <v>24.026316982810101</v>
+        <v>21.3640312040041</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="B250">
-        <v>23.9247577835018</v>
+        <v>22.0728177436471</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="B251">
-        <v>23.824001078432602</v>
+        <v>22.808855650057399</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44300</v>
+        <v>44308</v>
       </c>
       <c r="B252">
-        <v>23.7240588393595</v>
+        <v>23.577371415187098</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="B253">
-        <v>23.624943589072</v>
+        <v>24.3993357071246</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44302</v>
+        <v>44310</v>
       </c>
       <c r="B254">
-        <v>23.526668276900701</v>
+        <v>25.2881531423435</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44303</v>
+        <v>44311</v>
       </c>
       <c r="B255">
-        <v>23.429246199824</v>
+        <v>26.243514097658601</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44304</v>
+        <v>44312</v>
       </c>
       <c r="B256">
-        <v>23.332691141586899</v>
+        <v>27.2521008075128</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="B257">
-        <v>23.237017506730002</v>
+        <v>28.289636080498099</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="B258">
-        <v>23.1422403820463</v>
+        <v>29.324684738043199</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="B259">
-        <v>23.048375458841502</v>
+        <v>30.324025200833201</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44308</v>
+        <v>44316</v>
       </c>
       <c r="B260">
-        <v>22.955438928630102</v>
+        <v>31.2587480860245</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>44309</v>
+        <v>44317</v>
       </c>
       <c r="B261">
-        <v>22.863447417985299</v>
+        <v>32.108941395775197</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44310</v>
+        <v>44318</v>
       </c>
       <c r="B262">
-        <v>22.772418128220401</v>
+        <v>32.866178549992199</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="B263">
-        <v>22.6823689705157</v>
+        <v>33.533976998978098</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44312</v>
+        <v>44320</v>
       </c>
       <c r="B264">
-        <v>22.593318590526899</v>
+        <v>34.126844812799</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44313</v>
+        <v>44321</v>
       </c>
       <c r="B265">
-        <v>22.505286269230702</v>
+        <v>34.664002094467797</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="B266">
-        <v>22.418291834035099</v>
+        <v>35.151377838546402</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="B267">
-        <v>22.332355612473599</v>
+        <v>35.5914330041686</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44316</v>
+        <v>44324</v>
       </c>
       <c r="B268">
-        <v>22.247498560337601</v>
+        <v>35.986971569444101</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44317</v>
+        <v>44325</v>
       </c>
       <c r="B269">
-        <v>22.1637423911517</v>
+        <v>36.340797708514302</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="B270">
-        <v>22.081109567487601</v>
+        <v>36.655472563358202</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="B271">
-        <v>21.999623187752999</v>
+        <v>36.933149014426398</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="B272">
-        <v>21.919306907282799</v>
+        <v>37.175464231844501</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="B273">
-        <v>21.840184924223699</v>
+        <v>37.383473406443002</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="B274">
-        <v>21.7622820745305</v>
+        <v>37.5576123500988</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>44323</v>
+        <v>44331</v>
       </c>
       <c r="B275">
-        <v>21.685623932119199</v>
+        <v>37.697680887666998</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44324</v>
+        <v>44332</v>
       </c>
       <c r="B276">
-        <v>21.6102367869732</v>
+        <v>37.802842918790397</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c r="B277">
-        <v>21.536147525534901</v>
+        <v>37.871642766336201</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44326</v>
+        <v>44334</v>
       </c>
       <c r="B278">
-        <v>21.463383556296499</v>
+        <v>37.902041135665499</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="B279">
-        <v>21.3919728179816</v>
+        <v>37.891477895546402</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="B280">
-        <v>21.321943844277499</v>
+        <v>37.836973097557703</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="B281">
-        <v>21.253325827816798</v>
+        <v>37.735282125596399</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>44330</v>
+        <v>44338</v>
       </c>
       <c r="B282">
-        <v>21.186148584415701</v>
+        <v>37.583125182520298</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44331</v>
+        <v>44339</v>
       </c>
       <c r="B283">
-        <v>21.120442434219498</v>
+        <v>37.377514388937101</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="B284">
-        <v>21.056238127098801</v>
+        <v>37.116201461708599</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44333</v>
+        <v>44341</v>
       </c>
       <c r="B285">
-        <v>20.993566860671798</v>
+        <v>36.798830276101697</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>44334</v>
+        <v>44342</v>
       </c>
       <c r="B286">
-        <v>20.932460315567099</v>
+        <v>36.429237569207302</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44335</v>
+        <v>44343</v>
       </c>
       <c r="B287">
-        <v>20.872950679068801</v>
+        <v>36.014699896763403</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44336</v>
+        <v>44344</v>
       </c>
       <c r="B288">
-        <v>20.815070594692699</v>
+        <v>35.566545682833798</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44337</v>
+        <v>44345</v>
       </c>
       <c r="B289">
-        <v>20.758853049880301</v>
+        <v>35.1005169871002</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44338</v>
+        <v>44346</v>
       </c>
       <c r="B290">
-        <v>20.704331298349999</v>
+        <v>34.635929973543902</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>44339</v>
+        <v>44347</v>
       </c>
       <c r="B291">
-        <v>20.651538873252701</v>
+        <v>34.1935760976164</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44340</v>
+        <v>44348</v>
       </c>
       <c r="B292">
-        <v>20.600509591419002</v>
+        <v>33.7928443089205</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="B293">
-        <v>20.551277535536901</v>
+        <v>33.448151432398099</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44342</v>
+        <v>44350</v>
       </c>
       <c r="B294">
-        <v>20.503876981418902</v>
+        <v>33.165937915681901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44343</v>
+        <v>44351</v>
       </c>
       <c r="B295">
-        <v>20.4583423042058</v>
+        <v>32.943080375830803</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44344</v>
+        <v>44352</v>
       </c>
       <c r="B296">
-        <v>20.414707905507001</v>
+        <v>32.766251575267198</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44345</v>
+        <v>44353</v>
       </c>
       <c r="B297">
-        <v>20.3730081960707</v>
+        <v>32.611687742542202</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44346</v>
+        <v>44354</v>
       </c>
       <c r="B298">
-        <v>20.333277565212899</v>
+        <v>32.451892017856402</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44347</v>
+        <v>44355</v>
       </c>
       <c r="B299">
-        <v>20.2955503237954</v>
+        <v>32.2807460480212</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44348</v>
+        <v>44356</v>
       </c>
       <c r="B300">
-        <v>20.259860618114701</v>
+        <v>32.098664869428198</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44349</v>
+        <v>44357</v>
       </c>
       <c r="B301">
-        <v>20.226242346352301</v>
+        <v>31.9062430726662</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="B302">
-        <v>20.194729086737301</v>
+        <v>31.704158381591199</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>44351</v>
+        <v>44359</v>
       </c>
       <c r="B303">
-        <v>20.165354041538201</v>
+        <v>31.493100498064699</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>44352</v>
+        <v>44360</v>
       </c>
       <c r="B304">
-        <v>20.138149966195002</v>
+        <v>31.273720654478701</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44353</v>
+        <v>44361</v>
       </c>
       <c r="B305">
-        <v>20.113149079393398</v>
+        <v>31.046597092903198</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>44354</v>
+        <v>44362</v>
       </c>
       <c r="B306">
-        <v>20.090382973238999</v>
+        <v>30.812212228172001</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44355</v>
+        <v>44363</v>
       </c>
       <c r="B307">
-        <v>20.0698825340661</v>
+        <v>30.570938088035799</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44356</v>
+        <v>44364</v>
       </c>
       <c r="B308">
-        <v>20.0516778678303</v>
+        <v>30.3230275122515</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="B309">
-        <v>20.035798199942601</v>
+        <v>30.068609431518301</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44358</v>
+        <v>44366</v>
       </c>
       <c r="B310">
-        <v>20.0222717580961</v>
+        <v>29.807687316402198</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44359</v>
+        <v>44367</v>
       </c>
       <c r="B311">
-        <v>20.011125660735701</v>
+        <v>29.540140608805402</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44360</v>
+        <v>44368</v>
       </c>
       <c r="B312">
-        <v>20.0023858345685</v>
+        <v>29.265729665180402</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44361</v>
+        <v>44369</v>
       </c>
       <c r="B313">
-        <v>19.996076938358499</v>
+        <v>28.984105492390299</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>44362</v>
+        <v>44370</v>
       </c>
       <c r="B314">
-        <v>19.992222276400099</v>
+        <v>28.694826365876899</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="B315">
-        <v>19.990843658968998</v>
+        <v>28.397384262293698</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44364</v>
+        <v>44372</v>
       </c>
       <c r="B316">
-        <v>19.991961241658</v>
+        <v>28.091244805320901</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44365</v>
+        <v>44373</v>
       </c>
       <c r="B317">
-        <v>19.995593402700202</v>
+        <v>27.775904858474298</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44366</v>
+        <v>44374</v>
       </c>
       <c r="B318">
-        <v>20.001756681327699</v>
+        <v>27.448717523463099</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44367</v>
+        <v>44375</v>
       </c>
       <c r="B319">
-        <v>20.0104657101482</v>
+        <v>27.099634034877202</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44368</v>
+        <v>44376</v>
       </c>
       <c r="B320">
-        <v>20.021733107706599</v>
+        <v>26.720519938158802</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44369</v>
+        <v>44377</v>
       </c>
       <c r="B321">
-        <v>20.035569311201101</v>
+        <v>26.3079594853027</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44370</v>
+        <v>44378</v>
       </c>
       <c r="B322">
-        <v>20.0519823862411</v>
+        <v>25.863405268649</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44371</v>
+        <v>44379</v>
       </c>
       <c r="B323">
-        <v>20.0709779053837</v>
+        <v>25.392913155807801</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44372</v>
+        <v>44380</v>
       </c>
       <c r="B324">
-        <v>20.0925589245462</v>
+        <v>24.9062100911752</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44373</v>
+        <v>44381</v>
       </c>
       <c r="B325">
-        <v>20.116725939132301</v>
+        <v>24.414963271725501</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44374</v>
+        <v>44382</v>
       </c>
       <c r="B326">
-        <v>20.143476753009299</v>
+        <v>23.930672411656001</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>44375</v>
+        <v>44383</v>
       </c>
       <c r="B327">
-        <v>20.172806298394299</v>
+        <v>23.462853778564298</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44376</v>
+        <v>44384</v>
       </c>
       <c r="B328">
-        <v>20.204706439806699</v>
+        <v>23.0177599367344</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="B329">
-        <v>20.239165874450801</v>
+        <v>22.597766629719899</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44378</v>
+        <v>44386</v>
       </c>
       <c r="B330">
-        <v>20.276170168431602</v>
+        <v>22.201313448429001</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44379</v>
+        <v>44387</v>
       </c>
       <c r="B331">
-        <v>20.315701763516799</v>
+        <v>21.824425578155001</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44380</v>
+        <v>44388</v>
       </c>
       <c r="B332">
-        <v>20.3577398269985</v>
+        <v>21.465780922426699</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>44381</v>
+        <v>44389</v>
       </c>
       <c r="B333">
-        <v>20.402260078739001</v>
+        <v>21.124667025739601</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44382</v>
+        <v>44390</v>
       </c>
       <c r="B334">
-        <v>20.449234624158098</v>
+        <v>20.8001112251142</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44383</v>
+        <v>44391</v>
       </c>
       <c r="B335">
-        <v>20.498631921821499</v>
+        <v>20.491031159599</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44384</v>
+        <v>44392</v>
       </c>
       <c r="B336">
-        <v>20.550416888442498</v>
+        <v>20.196345016138299</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44385</v>
+        <v>44393</v>
       </c>
       <c r="B337">
-        <v>20.604550977678802</v>
+        <v>19.915049114189799</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>44386</v>
+        <v>44394</v>
       </c>
       <c r="B338">
-        <v>20.660992040625299</v>
+        <v>19.646270573499201</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44387</v>
+        <v>44395</v>
       </c>
       <c r="B339">
-        <v>20.719694184435198</v>
+        <v>19.389301811129901</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44388</v>
+        <v>44396</v>
       </c>
       <c r="B340">
-        <v>20.780607678481701</v>
+        <v>19.143622190836499</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="B341">
-        <v>20.843679039497399</v>
+        <v>18.908910666569898</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44390</v>
+        <v>44398</v>
       </c>
       <c r="B342">
-        <v>20.9088512234283</v>
+        <v>18.6850518671238</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>44391</v>
+        <v>44399</v>
       </c>
       <c r="B343">
-        <v>20.976063796430601</v>
+        <v>18.4721367788216</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="B344">
-        <v>21.045252844200402</v>
+        <v>18.270457951736699</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44393</v>
+        <v>44401</v>
       </c>
       <c r="B345">
-        <v>21.116350887222701</v>
+        <v>18.080497913167601</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44394</v>
+        <v>44402</v>
       </c>
       <c r="B346">
-        <v>21.189286908449201</v>
+        <v>17.902908159847101</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44395</v>
+        <v>44403</v>
       </c>
       <c r="B347">
-        <v>21.2639865972642</v>
+        <v>17.738474702766801</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>44396</v>
+        <v>44404</v>
       </c>
       <c r="B348">
-        <v>21.340372657872699</v>
+        <v>17.588064738848601</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44397</v>
+        <v>44405</v>
       </c>
       <c r="B349">
-        <v>21.418365096465699</v>
+        <v>17.452547884199902</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44398</v>
+        <v>44406</v>
       </c>
       <c r="B350">
-        <v>21.497881208227799</v>
+        <v>17.332685076363202</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44399</v>
+        <v>44407</v>
       </c>
       <c r="B351">
-        <v>21.578835568036801</v>
+        <v>17.225457809865901</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44400</v>
+        <v>44408</v>
       </c>
       <c r="B352">
-        <v>21.661140224078899</v>
+        <v>17.115716570832401</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44401</v>
+        <v>44409</v>
       </c>
       <c r="B353">
-        <v>21.7447051322352</v>
+        <v>16.990405826092601</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>44402</v>
+        <v>44410</v>
       </c>
       <c r="B354">
-        <v>21.829438605585601</v>
+        <v>16.842066807677799</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44403</v>
+        <v>44411</v>
       </c>
       <c r="B355">
-        <v>21.915247710501401</v>
+        <v>16.6684242799437</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44404</v>
+        <v>44412</v>
       </c>
       <c r="B356">
-        <v>22.002038371251199</v>
+        <v>16.4718450843665</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>44405</v>
+        <v>44413</v>
       </c>
       <c r="B357">
-        <v>22.089715460750401</v>
+        <v>16.258395248025099</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44406</v>
+        <v>44414</v>
       </c>
       <c r="B358">
-        <v>22.1781831694801</v>
+        <v>16.036269819408801</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44407</v>
+        <v>44415</v>
       </c>
       <c r="B359">
-        <v>22.267345643599398</v>
+        <v>15.8143670897863</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44408</v>
+        <v>44416</v>
       </c>
       <c r="B360">
-        <v>22.357107587668899</v>
+        <v>15.601180548383899</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44409</v>
+        <v>44417</v>
       </c>
       <c r="B361">
-        <v>22.447374736086299</v>
+        <v>15.404149603390501</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44410</v>
+        <v>44418</v>
       </c>
       <c r="B362">
-        <v>22.5380540987342</v>
+        <v>15.229641979765599</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44411</v>
+        <v>44419</v>
       </c>
       <c r="B363">
-        <v>22.629054179812702</v>
+        <v>15.083485729891599</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44412</v>
+        <v>44420</v>
       </c>
       <c r="B364">
-        <v>22.720285496807801</v>
+        <v>14.969343816736201</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44413</v>
+        <v>44421</v>
       </c>
       <c r="B365">
-        <v>22.811661413562899</v>
+        <v>14.886828621966799</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44414</v>
+        <v>44422</v>
       </c>
       <c r="B366">
-        <v>22.903098894292</v>
+        <v>14.8345762563075</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44415</v>
+        <v>44423</v>
       </c>
       <c r="B367">
-        <v>22.9945190209503</v>
+        <v>14.810862568698299</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44416</v>
+        <v>44424</v>
       </c>
       <c r="B368">
-        <v>23.085847357270001</v>
+        <v>14.8138485753186</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>44417</v>
+        <v>44425</v>
       </c>
       <c r="B369">
-        <v>23.177014292914201</v>
+        <v>14.8417578506262</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>44418</v>
+        <v>44426</v>
       </c>
       <c r="B370">
-        <v>23.2679556965</v>
+        <v>14.8929996368581</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="B371">
-        <v>23.358613920394401</v>
+        <v>14.9662510774157</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44420</v>
+        <v>44428</v>
       </c>
       <c r="B372">
-        <v>23.4489387009565</v>
+        <v>15.0605099009531</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>44421</v>
+        <v>44429</v>
       </c>
       <c r="B373">
-        <v>23.538887687504101</v>
+        <v>15.175126216292901</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44422</v>
+        <v>44430</v>
       </c>
       <c r="B374">
-        <v>23.6284268985466</v>
+        <v>15.3098193789299</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44423</v>
+        <v>44431</v>
       </c>
       <c r="B375">
-        <v>23.717531193902701</v>
+        <v>15.464683351836999</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44424</v>
+        <v>44432</v>
       </c>
       <c r="B376">
-        <v>23.806185071938401</v>
+        <v>15.6401816001098</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>44425</v>
+        <v>44433</v>
       </c>
       <c r="B377">
-        <v>23.894383814899399</v>
+        <v>15.8371302299955</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="B378">
-        <v>23.982134539707399</v>
+        <v>16.0566656861029</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>44427</v>
+        <v>44435</v>
       </c>
       <c r="B379">
-        <v>24.0694567493743</v>
+        <v>16.300190777627499</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44428</v>
+        <v>44436</v>
       </c>
       <c r="B380">
-        <v>24.156382887889599</v>
+        <v>16.5692901616077</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44429</v>
+        <v>44437</v>
       </c>
       <c r="B381">
-        <v>24.242958987616401</v>
+        <v>16.865603961473099</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>44430</v>
+        <v>44438</v>
       </c>
       <c r="B382">
-        <v>24.3292457027631</v>
+        <v>17.190646660378899</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44431</v>
+        <v>44439</v>
       </c>
       <c r="B383">
-        <v>24.4153037662999</v>
+        <v>17.544699409097301</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>44432</v>
+        <v>44440</v>
       </c>
       <c r="B384">
-        <v>24.501142751075498</v>
+        <v>17.880401979112399</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44433</v>
+        <v>44441</v>
       </c>
       <c r="B385">
-        <v>24.586758343340598</v>
+        <v>18.099438799364599</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="B386">
-        <v>24.672146008888401</v>
+        <v>18.137713002215602</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44435</v>
+        <v>44443</v>
       </c>
       <c r="B387">
-        <v>24.7573010771846</v>
+        <v>17.970882019251299</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44436</v>
+        <v>44444</v>
       </c>
       <c r="B388">
-        <v>24.8422195341996</v>
+        <v>17.612106428668</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44437</v>
+        <v>44445</v>
       </c>
       <c r="B389">
-        <v>24.9268990306626</v>
+        <v>17.106907697917599</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44438</v>
+        <v>44446</v>
       </c>
       <c r="B390">
-        <v>25.011339053795101</v>
+        <v>16.523623020404202</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44439</v>
+        <v>44447</v>
       </c>
       <c r="B391">
-        <v>25.095539727947301</v>
+        <v>15.939246965495</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="B392">
-        <v>25.179500640628099</v>
+        <v>15.4268248949443</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44441</v>
+        <v>44449</v>
       </c>
       <c r="B393">
-        <v>25.263221182940502</v>
+        <v>15.0460645579911</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44442</v>
+        <v>44450</v>
       </c>
       <c r="B394">
-        <v>25.346701486068</v>
+        <v>14.838598631296099</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>44443</v>
+        <v>44451</v>
       </c>
       <c r="B395">
-        <v>25.429943274838902</v>
+        <v>14.8282175513366</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44444</v>
+        <v>44452</v>
       </c>
       <c r="B396">
-        <v>25.5129498176806</v>
+        <v>15.024800881129201</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="B397">
-        <v>25.595724776967199</v>
+        <v>15.4282526224113</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>44446</v>
+        <v>44454</v>
       </c>
       <c r="B398">
-        <v>25.678271034515198</v>
+        <v>16.032026589122299</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44447</v>
+        <v>44455</v>
       </c>
       <c r="B399">
-        <v>25.760591187031999</v>
+        <v>16.826231769905799</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="B400">
-        <v>25.8426886327189</v>
+        <v>17.799497068260798</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44449</v>
+        <v>44457</v>
       </c>
       <c r="B401">
-        <v>25.924568251603201</v>
+        <v>18.940344748162499</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44450</v>
+        <v>44458</v>
       </c>
       <c r="B402">
-        <v>26.006236082863499</v>
+        <v>20.238165236642399</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>44451</v>
+        <v>44459</v>
       </c>
       <c r="B403">
-        <v>26.0876982902065</v>
+        <v>21.683881925742401</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44452</v>
+        <v>44460</v>
       </c>
       <c r="B404">
-        <v>26.1689600837989</v>
+        <v>23.270386813766699</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>44453</v>
+        <v>44461</v>
       </c>
       <c r="B405">
-        <v>26.250026277668798</v>
+        <v>24.992812304730698</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44454</v>
+        <v>44462</v>
       </c>
       <c r="B406">
-        <v>26.330902519014199</v>
+        <v>26.848686884806099</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="B407">
-        <v>26.411595794950799</v>
+        <v>28.838005207670701</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44456</v>
+        <v>44464</v>
       </c>
       <c r="B408">
-        <v>26.492113867915702</v>
+        <v>30.963226967292901</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44457</v>
+        <v>44465</v>
       </c>
       <c r="B409">
-        <v>26.572464328187198</v>
+        <v>33.229203448883702</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44458</v>
+        <v>44466</v>
       </c>
       <c r="B410">
-        <v>26.652653679099199</v>
+        <v>35.643015055930597</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44459</v>
+        <v>44467</v>
       </c>
       <c r="B411">
-        <v>26.7326879097944</v>
+        <v>38.213686680104601</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="B412">
-        <v>26.812573816601599</v>
+        <v>40.9517302747686</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44461</v>
+        <v>44469</v>
       </c>
       <c r="B413">
-        <v>26.8923193777823</v>
+        <v>43.868446315480398</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44462</v>
+        <v>44470</v>
       </c>
       <c r="B414">
-        <v>26.9719329855422</v>
+        <v>46.974901003095297</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44463</v>
+        <v>44471</v>
       </c>
       <c r="B415">
-        <v>27.051422554399501</v>
+        <v>50.280490603409902</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>44464</v>
+        <v>44472</v>
       </c>
       <c r="B416">
-        <v>27.130794892798601</v>
+        <v>53.806484604025499</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44465</v>
+        <v>44473</v>
       </c>
       <c r="B417">
-        <v>27.2100562090565</v>
+        <v>57.7278510017427</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>44466</v>
+        <v>44474</v>
       </c>
       <c r="B418">
-        <v>27.289213356132699</v>
+        <v>62.244024971807399</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44467</v>
+        <v>44475</v>
       </c>
       <c r="B419">
-        <v>27.368274208156301</v>
+        <v>67.443692429067994</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="B420">
-        <v>27.447246731068201</v>
+        <v>73.301400745580594</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="B421">
-        <v>27.526138116537201</v>
+        <v>79.684357541271098</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44470</v>
+        <v>44478</v>
       </c>
       <c r="B422">
-        <v>27.604954425570501</v>
+        <v>86.3737574293866</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44471</v>
+        <v>44479</v>
       </c>
       <c r="B423">
-        <v>27.6837011328305</v>
+        <v>93.102745076275497</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44472</v>
+        <v>44480</v>
       </c>
       <c r="B424">
-        <v>27.762384171185399</v>
+        <v>99.607277363677895</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>44473</v>
+        <v>44481</v>
       </c>
       <c r="B425">
-        <v>27.841010251889099</v>
+        <v>105.671210086328</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="B426">
-        <v>27.919585904280702</v>
+        <v>111.15713338126901</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="B427">
-        <v>27.998116610656702</v>
+        <v>116.020589771774</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="B428">
-        <v>28.076606698334199</v>
+        <v>120.310165929717</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44477</v>
+        <v>44485</v>
       </c>
       <c r="B429">
-        <v>28.155059938670501</v>
+        <v>124.128137403165</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44478</v>
+        <v>44486</v>
       </c>
       <c r="B430">
-        <v>28.233480380704201</v>
+        <v>127.506279475591</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44479</v>
+        <v>44487</v>
       </c>
       <c r="B431">
-        <v>28.311872602659999</v>
+        <v>130.46052165051501</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44480</v>
+        <v>44488</v>
       </c>
       <c r="B432">
-        <v>28.390240777547501</v>
+        <v>133.01313450960001</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44481</v>
+        <v>44489</v>
       </c>
       <c r="B433">
-        <v>28.468587793872501</v>
+        <v>135.18901811085101</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44482</v>
+        <v>44490</v>
       </c>
       <c r="B434">
-        <v>28.5469153653235</v>
+        <v>137.01296919083501</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="B435">
-        <v>28.625224677507301</v>
+        <v>138.507752873822</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44484</v>
+        <v>44492</v>
       </c>
       <c r="B436">
-        <v>28.7035170256496</v>
+        <v>139.69279330533899</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>44485</v>
+        <v>44493</v>
       </c>
       <c r="B437">
-        <v>28.781793920902</v>
+        <v>140.583318385794</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44486</v>
+        <v>44494</v>
       </c>
       <c r="B438">
-        <v>28.860056274403501</v>
+        <v>141.18982741800301</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B439">
-        <v>28.938303594164001</v>
+        <v>141.51778687022301</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="B440">
-        <v>29.016534200592499</v>
+        <v>141.567494352398</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44489</v>
+        <v>44497</v>
       </c>
       <c r="B441">
-        <v>29.094745900564401</v>
+        <v>141.33408350482301</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44490</v>
+        <v>44498</v>
       </c>
       <c r="B442">
-        <v>29.172936456481501</v>
+        <v>140.80767378272</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>44491</v>
+        <v>44499</v>
       </c>
       <c r="B443">
-        <v>29.2511035284641</v>
+        <v>139.973700753348</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>44492</v>
+        <v>44500</v>
       </c>
       <c r="B444">
-        <v>29.329244019112402</v>
+        <v>138.813496021649</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>44493</v>
+        <v>44501</v>
       </c>
       <c r="B445">
-        <v>29.407353399510299</v>
+        <v>137.30522172671701</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44494</v>
+        <v>44502</v>
       </c>
       <c r="B446">
-        <v>29.485425951222201</v>
+        <v>135.42530080129899</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44495</v>
+        <v>44503</v>
       </c>
       <c r="B447">
-        <v>29.563455437905802</v>
+        <v>133.150514595603</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44496</v>
+        <v>44504</v>
       </c>
       <c r="B448">
-        <v>29.641435440151</v>
+        <v>130.460950593679</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44497</v>
+        <v>44505</v>
       </c>
       <c r="B449">
-        <v>29.7193591621999</v>
+        <v>127.320744707175</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>44498</v>
+        <v>44506</v>
       </c>
       <c r="B450">
-        <v>29.797218919864299</v>
+        <v>123.62776933749301</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44499</v>
+        <v>44507</v>
       </c>
       <c r="B451">
-        <v>29.875005623768001</v>
+        <v>119.31627382952399</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44500</v>
+        <v>44508</v>
       </c>
       <c r="B452">
-        <v>29.952709011064801</v>
+        <v>114.39395892647801</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44501</v>
+        <v>44509</v>
       </c>
       <c r="B453">
-        <v>30.030318279925801</v>
+        <v>108.947915305197</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44502</v>
+        <v>44510</v>
       </c>
       <c r="B454">
-        <v>30.107822325821999</v>
+        <v>103.13992882633799</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B455">
-        <v>30.185209463005201</v>
+        <v>97.187359745574994</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>44504</v>
+        <v>44512</v>
       </c>
       <c r="B456">
-        <v>30.262467022923602</v>
+        <v>91.330034419938499</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44505</v>
+        <v>44513</v>
       </c>
       <c r="B457">
-        <v>30.339581020790199</v>
+        <v>85.786916265385898</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B458">
-        <v>30.416536348022198</v>
+        <v>80.716676790339903</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44507</v>
+        <v>44515</v>
       </c>
       <c r="B459">
-        <v>30.4933173019622</v>
+        <v>76.191363248196694</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44508</v>
+        <v>44516</v>
       </c>
       <c r="B460">
-        <v>30.5699077818429</v>
+        <v>72.182894688153397</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44509</v>
+        <v>44517</v>
       </c>
       <c r="B461">
-        <v>30.646290974909999</v>
+        <v>68.558781805134501</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44510</v>
+        <v>44518</v>
       </c>
       <c r="B462">
-        <v>30.722449044792398</v>
+        <v>65.133605375270307</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="B463">
-        <v>30.798362957753199</v>
+        <v>61.861469164876297</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>44512</v>
+        <v>44520</v>
       </c>
       <c r="B464">
-        <v>30.874012666483399</v>
+        <v>58.7370407315859</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>44513</v>
+        <v>44521</v>
       </c>
       <c r="B465">
-        <v>30.949377488888601</v>
+        <v>55.752446659261999</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44514</v>
+        <v>44522</v>
       </c>
       <c r="B466">
-        <v>31.024436255125099</v>
+        <v>52.898593054756802</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44515</v>
+        <v>44523</v>
       </c>
       <c r="B467">
-        <v>31.099167031778698</v>
+        <v>50.1661447421844</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="B468">
-        <v>31.1735468912728</v>
+        <v>47.546222958076001</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44517</v>
+        <v>44525</v>
       </c>
       <c r="B469">
-        <v>31.247551862101002</v>
+        <v>45.030885458120601</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44518</v>
+        <v>44526</v>
       </c>
       <c r="B470">
-        <v>31.321157107190999</v>
+        <v>42.613446354423203</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44519</v>
+        <v>44527</v>
       </c>
       <c r="B471">
-        <v>31.394337157671</v>
+        <v>40.288682105358397</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44520</v>
+        <v>44528</v>
       </c>
       <c r="B472">
-        <v>31.467065999633899</v>
+        <v>38.052958290811397</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44521</v>
+        <v>44529</v>
       </c>
       <c r="B473">
-        <v>31.539316884500099</v>
+        <v>35.904300594551898</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44522</v>
+        <v>44530</v>
       </c>
       <c r="B474">
-        <v>31.611062180271599</v>
+        <v>33.842423110941098</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44523</v>
+        <v>44531</v>
       </c>
       <c r="B475">
-        <v>31.682273406058801</v>
+        <v>31.8687174159659</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>44524</v>
+        <v>44532</v>
       </c>
       <c r="B476">
-        <v>31.752921379685102</v>
+        <v>29.986196247868499</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="B477">
-        <v>31.822976342062201</v>
+        <v>28.199375564303001</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44526</v>
+        <v>44534</v>
       </c>
       <c r="B478">
-        <v>31.8924079910845</v>
+        <v>26.514067839680099</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44527</v>
+        <v>44535</v>
       </c>
       <c r="B479">
-        <v>31.961185393897999</v>
+        <v>24.937047967938799</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44528</v>
+        <v>44536</v>
       </c>
       <c r="B480">
-        <v>32.029276933184697</v>
+        <v>23.475542385173501</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>44529</v>
+        <v>44537</v>
       </c>
       <c r="B481">
-        <v>32.096650379323997</v>
+        <v>22.136485276773499</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44530</v>
+        <v>44538</v>
       </c>
       <c r="B482">
-        <v>32.163272983248099</v>
+        <v>20.918665643029101</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>44531</v>
+        <v>44539</v>
       </c>
       <c r="B483">
-        <v>32.229111523133</v>
+        <v>19.796678453148498</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>44532</v>
+        <v>44540</v>
       </c>
       <c r="B484">
-        <v>32.294132306456703</v>
+        <v>18.7480428439187</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44533</v>
+        <v>44541</v>
       </c>
       <c r="B485">
-        <v>32.358301180820099</v>
+        <v>17.756722072668101</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>44534</v>
+        <v>44542</v>
       </c>
       <c r="B486">
-        <v>32.421583580111097</v>
+        <v>16.809457620774499</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44535</v>
+        <v>44543</v>
       </c>
       <c r="B487">
-        <v>32.483944597723898</v>
+        <v>15.8933971032752</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>44536</v>
+        <v>44544</v>
       </c>
       <c r="B488">
-        <v>32.545349007198602</v>
+        <v>14.9951703232828</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B489">
-        <v>32.605761255317503</v>
+        <v>14.101051811584099</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44538</v>
+        <v>44546</v>
       </c>
       <c r="B490">
-        <v>32.665145470459002</v>
+        <v>13.199153234563401</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44539</v>
+        <v>44547</v>
       </c>
       <c r="B491">
-        <v>32.723465548082402</v>
+        <v>12.283038881901099</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44540</v>
+        <v>44548</v>
       </c>
       <c r="B492">
-        <v>32.780685278186297</v>
+        <v>11.355082042681101</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>44541</v>
+        <v>44549</v>
       </c>
       <c r="B493">
-        <v>32.836768407034697</v>
+        <v>10.429785082705401</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44542</v>
+        <v>44550</v>
       </c>
       <c r="B494">
-        <v>32.891678578049401</v>
+        <v>9.5372687022093992</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="B495">
-        <v>32.9453792850803</v>
+        <v>8.7158946439797997</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="B496">
-        <v>32.9978339216687</v>
+        <v>7.9724282238621402</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>44545</v>
+        <v>44553</v>
       </c>
       <c r="B497">
-        <v>33.0490059198642</v>
+        <v>7.3029659115446801</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B498">
-        <v>33.0988589283875</v>
+        <v>6.7030778925016099</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>44547</v>
+        <v>44555</v>
       </c>
       <c r="B499">
-        <v>33.147356860480997</v>
+        <v>6.1683426380392703</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>44548</v>
+        <v>44556</v>
       </c>
       <c r="B500">
-        <v>33.194463759914399</v>
+        <v>5.6947250779296104</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>44549</v>
+        <v>44557</v>
       </c>
       <c r="B501">
-        <v>33.240143716271099</v>
+        <v>5.2788326506568097</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="B502">
-        <v>33.284360979570799</v>
+        <v>4.9180811068401598</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="B503">
-        <v>33.327080139984403</v>
+        <v>4.6107961237164501</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="B504">
-        <v>33.368266323945498</v>
+        <v>4.3562699861755503</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="B505">
-        <v>33.407885220277798</v>
+        <v>4.1547859248395396</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44554</v>
+        <v>44562</v>
       </c>
       <c r="B506">
-        <v>33.445902894943799</v>
+        <v>4.0076165017654501</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44555</v>
+        <v>44563</v>
       </c>
       <c r="B507">
-        <v>33.482285666568799</v>
+        <v>3.9169965979211399</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="B508">
-        <v>33.5170002941272</v>
+        <v>3.8860657892336001</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>44557</v>
+        <v>44565</v>
       </c>
       <c r="B509">
-        <v>33.550014190416903</v>
+        <v>3.9187688742198401</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B510">
-        <v>33.581295607887903</v>
+        <v>4.01969682495917</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>44559</v>
+        <v>44567</v>
       </c>
       <c r="B511">
-        <v>33.610813607019402</v>
+        <v>4.1938435663048201</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>44560</v>
+        <v>44568</v>
       </c>
       <c r="B512">
-        <v>33.638537871479301</v>
+        <v>4.4462474291970304</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>44561</v>
+        <v>44569</v>
       </c>
       <c r="B513">
-        <v>33.664438576109397</v>
+        <v>4.7814815827292296</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="B514">
-        <v>33.688486611214302</v>
+        <v>5.2029585417842199</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>44563</v>
+        <v>44571</v>
       </c>
       <c r="B515">
-        <v>33.710653824241099</v>
+        <v>5.7142895996995202</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>44564</v>
+        <v>44572</v>
       </c>
       <c r="B516">
-        <v>33.730913173198701</v>
+        <v>6.3231835326165502</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>44565</v>
+        <v>44573</v>
       </c>
       <c r="B517">
-        <v>33.749238634584003</v>
+        <v>7.0298703292367204</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44566</v>
+        <v>44574</v>
       </c>
       <c r="B518">
-        <v>33.765605031282298</v>
+        <v>7.8226226688284699</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B519">
-        <v>33.779987903783599</v>
+        <v>8.6772601802162992</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>44568</v>
+        <v>44576</v>
       </c>
       <c r="B520">
-        <v>33.792363754961997</v>
+        <v>9.5588629417892896</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>44569</v>
+        <v>44577</v>
       </c>
       <c r="B521">
-        <v>33.802710313846099</v>
+        <v>10.426034312596199</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>44570</v>
+        <v>44578</v>
       </c>
       <c r="B522">
-        <v>33.811006641656697</v>
+        <v>11.2371934218509</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>44571</v>
+        <v>44579</v>
       </c>
       <c r="B523">
-        <v>33.817232985535</v>
+        <v>11.958372083208101</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>44572</v>
+        <v>44580</v>
       </c>
       <c r="B524">
-        <v>33.821370620669001</v>
+        <v>12.569422317163101</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>44573</v>
+        <v>44581</v>
       </c>
       <c r="B525">
-        <v>33.823401728748401</v>
+        <v>13.067624945431</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>44574</v>
+        <v>44582</v>
       </c>
       <c r="B526">
-        <v>33.8233096505449</v>
+        <v>13.469161317167501</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>44575</v>
+        <v>44583</v>
       </c>
       <c r="B527">
-        <v>33.821079169080797</v>
+        <v>13.8093588017923</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>44576</v>
+        <v>44584</v>
       </c>
       <c r="B528">
-        <v>33.816696557040601</v>
+        <v>14.131408296824</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>44577</v>
+        <v>44585</v>
       </c>
       <c r="B529">
-        <v>33.810149390058903</v>
+        <v>14.445403222139401</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>44578</v>
+        <v>44586</v>
       </c>
       <c r="B530">
-        <v>33.801426395820698</v>
+        <v>14.7516577213954</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>44579</v>
+        <v>44587</v>
       </c>
       <c r="B531">
-        <v>33.790517387650198</v>
+        <v>15.0506011127055</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>44580</v>
+        <v>44588</v>
       </c>
       <c r="B532">
-        <v>33.777413467677803</v>
+        <v>15.342711384400101</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>44581</v>
+        <v>44589</v>
       </c>
       <c r="B533">
-        <v>33.762107274834698</v>
+        <v>15.628466474864901</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>44582</v>
+        <v>44590</v>
       </c>
       <c r="B534">
-        <v>33.744593023296702</v>
+        <v>15.908309981025401</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>44583</v>
+        <v>44591</v>
       </c>
       <c r="B535">
-        <v>33.7248662948139</v>
+        <v>16.1826278757427</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>44584</v>
+        <v>44592</v>
       </c>
       <c r="B536">
-        <v>33.702923882872803</v>
+        <v>16.451733254291501</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>44585</v>
+        <v>44593</v>
       </c>
       <c r="B537">
-        <v>33.678763777317599</v>
+        <v>16.715856757935899</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>44586</v>
+        <v>44594</v>
       </c>
       <c r="B538">
-        <v>33.652385326878303</v>
+        <v>16.975140976384001</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>44587</v>
+        <v>44595</v>
       </c>
       <c r="B539">
-        <v>33.623789442618197</v>
+        <v>17.2296377465177</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>44588</v>
+        <v>44596</v>
       </c>
       <c r="B540">
-        <v>33.592978629085799</v>
+        <v>17.479307834132999</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>44589</v>
+        <v>44597</v>
       </c>
       <c r="B541">
-        <v>33.559956776515698</v>
+        <v>17.724023028737999</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>44590</v>
+        <v>44598</v>
       </c>
       <c r="B542">
-        <v>33.524728987932001</v>
+        <v>17.9635712292304</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>44591</v>
+        <v>44599</v>
       </c>
       <c r="B543">
-        <v>33.487301609647801</v>
+        <v>18.197665677075602</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>44592</v>
+        <v>44600</v>
       </c>
       <c r="B544">
-        <v>33.447682362217598</v>
+        <v>18.425960110153699</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>44593</v>
+        <v>44601</v>
       </c>
       <c r="B545">
-        <v>33.405880506450202</v>
+        <v>18.648072228198</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>44594</v>
+        <v>44602</v>
       </c>
       <c r="B546">
-        <v>33.361906857211402</v>
+        <v>18.863618364421299</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>44595</v>
+        <v>44603</v>
       </c>
       <c r="B547">
-        <v>33.315773579621798</v>
+        <v>19.072262404523499</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>44596</v>
+        <v>44604</v>
       </c>
       <c r="B548">
-        <v>33.2674940016881</v>
+        <v>19.2749723961165</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>44597</v>
+        <v>44605</v>
       </c>
       <c r="B549">
-        <v>33.217082684083401</v>
+        <v>19.476953139011201</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>44598</v>
+        <v>44606</v>
       </c>
       <c r="B550">
-        <v>33.164555526107499</v>
+        <v>19.682997883183699</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>44599</v>
+        <v>44607</v>
       </c>
       <c r="B551">
-        <v>33.109929893454698</v>
+        <v>19.896300493713699</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>44600</v>
+        <v>44608</v>
       </c>
       <c r="B552">
-        <v>33.053224585872897</v>
+        <v>20.1185288317835</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="B553">
-        <v>32.994459677254703</v>
+        <v>20.349893354591298</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>44602</v>
+        <v>44610</v>
       </c>
       <c r="B554">
-        <v>32.933656345188297</v>
+        <v>20.5893158348924</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>44603</v>
+        <v>44611</v>
       </c>
       <c r="B555">
-        <v>32.870836936304897</v>
+        <v>20.834813608190402</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>44604</v>
+        <v>44612</v>
       </c>
       <c r="B556">
-        <v>32.806025050540299</v>
+        <v>21.0838599571948</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>44605</v>
+        <v>44613</v>
       </c>
       <c r="B557">
-        <v>32.739245630656796</v>
+        <v>21.3337032840187</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>44606</v>
+        <v>44614</v>
       </c>
       <c r="B558">
-        <v>32.670524892405098</v>
+        <v>21.581599880692998</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>44607</v>
+        <v>44615</v>
       </c>
       <c r="B559">
-        <v>32.599890200578898</v>
+        <v>21.824877879929701</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>44608</v>
+        <v>44616</v>
       </c>
       <c r="B560">
-        <v>32.527369924946697</v>
+        <v>22.0608351015644</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="B561">
-        <v>32.452993489798402</v>
+        <v>22.287628484709501</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>44610</v>
+        <v>44618</v>
       </c>
       <c r="B562">
-        <v>32.376791437413402</v>
+        <v>22.505177162260399</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>44611</v>
+        <v>44619</v>
       </c>
       <c r="B563">
-        <v>32.298795480080599</v>
+        <v>22.7138019216071</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>44612</v>
+        <v>44620</v>
       </c>
       <c r="B564">
-        <v>32.219038409079502</v>
+        <v>22.913986495060499</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>44613</v>
+        <v>44621</v>
       </c>
       <c r="B565">
-        <v>32.137553990131003</v>
+        <v>23.1062952569774</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B566">
-        <v>32.054376835989601</v>
+        <v>23.291312304825301</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44615</v>
+        <v>44623</v>
       </c>
       <c r="B567">
-        <v>31.969542449060398</v>
+        <v>23.469598094735101</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>44616</v>
+        <v>44624</v>
       </c>
       <c r="B568">
-        <v>31.8830872769528</v>
+        <v>23.641659591521702</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>44617</v>
+        <v>44625</v>
       </c>
       <c r="B569">
-        <v>31.7950487177601</v>
+        <v>23.8079303331501</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>44618</v>
+        <v>44626</v>
       </c>
       <c r="B570">
-        <v>31.705465020560901</v>
+        <v>23.9687575037104</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>44619</v>
+        <v>44627</v>
       </c>
       <c r="B571">
-        <v>31.614375187625999</v>
+        <v>24.124393848912501</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>44620</v>
+        <v>44628</v>
       </c>
       <c r="B572">
-        <v>31.521818878982899</v>
+        <v>24.274992966602099</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>44621</v>
+        <v>44629</v>
       </c>
       <c r="B573">
-        <v>31.4278336775984</v>
+        <v>24.4206071448499</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>44622</v>
+        <v>44630</v>
       </c>
       <c r="B574">
-        <v>31.3324477352099</v>
+        <v>24.561187521630199</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>44623</v>
+        <v>44631</v>
       </c>
       <c r="B575">
-        <v>31.235689256570002</v>
+        <v>24.696586938354901</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>44624</v>
+        <v>44632</v>
       </c>
       <c r="B576">
-        <v>31.1375893423942</v>
+        <v>24.826566489653398</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>44625</v>
+        <v>44633</v>
       </c>
       <c r="B577">
-        <v>31.038181862031202</v>
+        <v>24.950807451852398</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>44626</v>
+        <v>44634</v>
       </c>
       <c r="B578">
-        <v>30.937503300877001</v>
+        <v>25.0689309794124</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B579">
-        <v>30.8355926143932</v>
+        <v>25.180528590042002</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>44628</v>
+        <v>44636</v>
       </c>
       <c r="B580">
-        <v>30.732491092757101</v>
+        <v>25.285259825397599</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>44629</v>
+        <v>44637</v>
       </c>
       <c r="B581">
-        <v>30.628242229099499</v>
+        <v>25.3856876639781</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>44630</v>
+        <v>44638</v>
       </c>
       <c r="B582">
-        <v>30.5228915643393</v>
+        <v>25.487195465589199</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>44631</v>
+        <v>44639</v>
       </c>
       <c r="B583">
-        <v>30.4164865128845</v>
+        <v>25.592777753542801</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>44632</v>
+        <v>44640</v>
       </c>
       <c r="B584">
-        <v>30.3090762032474</v>
+        <v>25.703023686573101</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>44633</v>
+        <v>44641</v>
       </c>
       <c r="B585">
-        <v>30.200711335359699</v>
+        <v>25.816573376171998</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>44634</v>
+        <v>44642</v>
       </c>
       <c r="B586">
-        <v>30.091444044240902</v>
+        <v>25.9306781653424</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B587">
-        <v>29.9813277221173</v>
+        <v>26.041887515196802</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>44636</v>
+        <v>44644</v>
       </c>
       <c r="B588">
-        <v>29.8704168036341</v>
+        <v>26.146809088824298</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>44637</v>
+        <v>44645</v>
       </c>
       <c r="B589">
-        <v>29.758766574162198</v>
+        <v>26.2425853582724</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>44638</v>
+        <v>44646</v>
       </c>
       <c r="B590">
-        <v>29.6464330418674</v>
+        <v>26.327087482606299</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>44639</v>
+        <v>44647</v>
       </c>
       <c r="B591">
-        <v>29.533472826941299</v>
+        <v>26.398814316361101</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>44640</v>
+        <v>44648</v>
       </c>
       <c r="B592">
-        <v>29.4199430286126</v>
+        <v>26.456527282603801</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>44641</v>
+        <v>44649</v>
       </c>
       <c r="B593">
-        <v>29.3059010235188</v>
+        <v>26.498833183126099</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>44642</v>
+        <v>44650</v>
       </c>
       <c r="B594">
-        <v>29.191404214787301</v>
+        <v>26.5253799814639</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="B595">
-        <v>29.0765098515955</v>
+        <v>26.536877238915999</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="B596">
-        <v>28.9612749716396</v>
+        <v>26.534179365168001</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B597">
-        <v>28.845756355748598</v>
+        <v>26.518151484558</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>44646</v>
+        <v>44654</v>
       </c>
       <c r="B598">
-        <v>28.7300103965358</v>
+        <v>26.4895846549914</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>44647</v>
+        <v>44655</v>
       </c>
       <c r="B599">
-        <v>28.6140928901469</v>
+        <v>26.449138198858599</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="B600">
-        <v>28.498058776749101</v>
+        <v>26.397302314884602</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>44649</v>
+        <v>44657</v>
       </c>
       <c r="B601">
-        <v>28.381961996410499</v>
+        <v>26.3343752129392</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>44650</v>
+        <v>44658</v>
       </c>
       <c r="B602">
-        <v>28.265855529806501</v>
+        <v>26.260450439518099</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>44651</v>
+        <v>44659</v>
       </c>
       <c r="B603">
-        <v>28.149791449675298</v>
+        <v>26.175411521553599</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>44652</v>
+        <v>44660</v>
       </c>
       <c r="B604">
-        <v>28.033820777654999</v>
+        <v>26.078932438040798</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>44653</v>
+        <v>44661</v>
       </c>
       <c r="B605">
-        <v>27.917993273927099</v>
+        <v>25.970483735467901</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>44654</v>
+        <v>44662</v>
       </c>
       <c r="B606">
-        <v>27.8023571952255</v>
+        <v>25.8493453916658</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>44655</v>
+        <v>44663</v>
       </c>
       <c r="B607">
-        <v>27.686959224134</v>
+        <v>25.714628874591799</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B608">
-        <v>27.571844601431899</v>
+        <v>25.5653122876315</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>44657</v>
+        <v>44665</v>
       </c>
       <c r="B609">
-        <v>27.457057275764299</v>
+        <v>25.400294027120101</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>44658</v>
+        <v>44666</v>
       </c>
       <c r="B610">
-        <v>27.3426397433971</v>
+        <v>25.2184718583913</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>44659</v>
+        <v>44667</v>
       </c>
       <c r="B611">
-        <v>27.2286328261224</v>
+        <v>25.018855375064199</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>44660</v>
+        <v>44668</v>
       </c>
       <c r="B612">
-        <v>27.115075468937398</v>
+        <v>24.800719715199701</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>44661</v>
+        <v>44669</v>
       </c>
       <c r="B613">
-        <v>27.0020047760311</v>
+        <v>24.5637969651833</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>44662</v>
+        <v>44670</v>
       </c>
       <c r="B614">
-        <v>26.889456212216899</v>
+        <v>24.308559798661499</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B615">
-        <v>26.7774638221663</v>
+        <v>24.0370095328019</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="B616">
-        <v>26.6660600545605</v>
+        <v>23.753198434215101</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>44665</v>
+        <v>44673</v>
       </c>
       <c r="B617">
-        <v>26.555275507774802</v>
+        <v>23.4632700551314</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>44666</v>
+        <v>44674</v>
       </c>
       <c r="B618">
-        <v>26.445138785543499</v>
+        <v>23.1750355079702</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>44667</v>
+        <v>44675</v>
       </c>
       <c r="B619">
-        <v>26.335676645041602</v>
+        <v>22.897041515366698</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>44668</v>
+        <v>44676</v>
       </c>
       <c r="B620">
-        <v>26.2269142527669</v>
+        <v>22.637290154785401</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="B621">
-        <v>26.118875447832501</v>
+        <v>22.401818850277799</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>44670</v>
+        <v>44678</v>
       </c>
       <c r="B622">
-        <v>26.011582539036699</v>
+        <v>22.193435610619598</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="B623">
-        <v>25.9050559928905</v>
+        <v>22.0111128004623</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>44672</v>
+        <v>44680</v>
       </c>
       <c r="B624">
-        <v>25.799314362744799</v>
+        <v>21.849857947115598</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B625">
-        <v>25.694374542601</v>
+        <v>21.700812839863701</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>44674</v>
+        <v>44682</v>
       </c>
       <c r="B626">
-        <v>25.590252064197099</v>
+        <v>21.553839398751801</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>44675</v>
+        <v>44683</v>
       </c>
       <c r="B627">
-        <v>25.486961349645998</v>
+        <v>21.406482023501098</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>44676</v>
+        <v>44684</v>
       </c>
       <c r="B628">
-        <v>25.3845154928566</v>
+        <v>21.258618574387398</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>44677</v>
+        <v>44685</v>
       </c>
       <c r="B629">
-        <v>25.2829258932071</v>
+        <v>21.110214505292198</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>44678</v>
+        <v>44686</v>
       </c>
       <c r="B630">
-        <v>25.182202247674599</v>
+        <v>20.961304894575299</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>44679</v>
+        <v>44687</v>
       </c>
       <c r="B631">
-        <v>25.0823528953131</v>
+        <v>20.8119790876829</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>44680</v>
+        <v>44688</v>
       </c>
       <c r="B632">
-        <v>24.983385147564402</v>
+        <v>20.662368282649499</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B633">
-        <v>24.885305455565199</v>
+        <v>20.512635868559101</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>44682</v>
+        <v>44690</v>
       </c>
       <c r="B634">
-        <v>24.7881191979249</v>
+        <v>20.362970064143301</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>44683</v>
+        <v>44691</v>
       </c>
       <c r="B635">
-        <v>24.691830312654702</v>
+        <v>20.213578291097502</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>44684</v>
+        <v>44692</v>
       </c>
       <c r="B636">
-        <v>24.596441309927101</v>
+        <v>20.064682676563699</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>44685</v>
+        <v>44693</v>
       </c>
       <c r="B637">
-        <v>24.501953686228202</v>
+        <v>19.916516060423699</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>44686</v>
+        <v>44694</v>
       </c>
       <c r="B638">
-        <v>24.4083682867421</v>
+        <v>19.769317854387001</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B639">
-        <v>24.315685362276302</v>
+        <v>19.623329044441299</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>44688</v>
+        <v>44696</v>
       </c>
       <c r="B640">
-        <v>24.2239043466627</v>
+        <v>19.478785540650499</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>44689</v>
+        <v>44697</v>
       </c>
       <c r="B641">
-        <v>24.133023505836199</v>
+        <v>19.335908965524801</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>44690</v>
+        <v>44698</v>
       </c>
       <c r="B642">
-        <v>24.043039966128099</v>
+        <v>19.1948938588414</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>44691</v>
+        <v>44699</v>
       </c>
       <c r="B643">
-        <v>23.953950173403999</v>
+        <v>19.055890215289399</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>44692</v>
+        <v>44700</v>
       </c>
       <c r="B644">
-        <v>23.865750292719301</v>
+        <v>18.918980356750001</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>44693</v>
+        <v>44701</v>
       </c>
       <c r="B645">
-        <v>23.778436139829601</v>
+        <v>18.7841495280753</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>44694</v>
+        <v>44702</v>
       </c>
       <c r="B646">
-        <v>23.692002932967199</v>
+        <v>18.650690009056099</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>44695</v>
+        <v>44703</v>
       </c>
       <c r="B647">
-        <v>23.606444978672101</v>
+        <v>18.515593522999001</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B648">
-        <v>23.521755727157799</v>
+        <v>18.375431919390099</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>44697</v>
+        <v>44705</v>
       </c>
       <c r="B649">
-        <v>23.437928237840001</v>
+        <v>18.227072693843301</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="B650">
-        <v>23.354955610351901</v>
+        <v>18.0679253028921</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>44699</v>
+        <v>44707</v>
       </c>
       <c r="B651">
-        <v>23.2728307984802</v>
+        <v>17.896240088423301</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>44700</v>
+        <v>44708</v>
       </c>
       <c r="B652">
-        <v>23.191546324134499</v>
+        <v>17.711366205047799</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B653">
-        <v>23.111094017654398</v>
+        <v>17.513827210146999</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>44702</v>
+        <v>44710</v>
       </c>
       <c r="B654">
-        <v>23.031465157341199</v>
+        <v>17.305186367378901</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>44703</v>
+        <v>44711</v>
       </c>
       <c r="B655">
-        <v>22.952650876476302</v>
+        <v>17.087810765027299</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>44704</v>
+        <v>44712</v>
       </c>
       <c r="B656">
-        <v>22.874642552572801</v>
+        <v>16.8645050644115</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>44705</v>
+        <v>44713</v>
       </c>
       <c r="B657">
-        <v>22.797431571676999</v>
+        <v>16.638158074493901</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>44706</v>
+        <v>44714</v>
       </c>
       <c r="B658">
-        <v>22.721008996374401</v>
+        <v>16.4114833396576</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>44707</v>
+        <v>44715</v>
       </c>
       <c r="B659">
-        <v>22.645365374703101</v>
+        <v>16.186588883214</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>44708</v>
+        <v>44716</v>
       </c>
       <c r="B660">
-        <v>22.570490950474198</v>
+        <v>15.9640865217042</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>44709</v>
+        <v>44717</v>
       </c>
       <c r="B661">
-        <v>22.496376017656601</v>
+        <v>15.744073612524399</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>44710</v>
+        <v>44718</v>
       </c>
       <c r="B662">
-        <v>22.423011257315501</v>
+        <v>15.5264875117232</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>44711</v>
+        <v>44719</v>
       </c>
       <c r="B663">
-        <v>22.350387465203099</v>
+        <v>15.3111477856809</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>44712</v>
+        <v>44720</v>
       </c>
       <c r="B664">
-        <v>22.278495170021198</v>
+        <v>15.0977902457506</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>44713</v>
+        <v>44721</v>
       </c>
       <c r="B665">
-        <v>22.207324520249401</v>
+        <v>14.886093207542601</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>44714</v>
+        <v>44722</v>
       </c>
       <c r="B666">
-        <v>22.136865549070102</v>
+        <v>14.675697115826701</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>44715</v>
+        <v>44723</v>
       </c>
       <c r="B667">
-        <v>22.0671084865205</v>
+        <v>14.4662189395052</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>44716</v>
+        <v>44724</v>
       </c>
       <c r="B668">
-        <v>21.998044037014701</v>
+        <v>14.2572627562843</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>44717</v>
+        <v>44725</v>
       </c>
       <c r="B669">
-        <v>21.9296630835168</v>
+        <v>14.048427861391399</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>44718</v>
+        <v>44726</v>
       </c>
       <c r="B670">
-        <v>21.861956256458001</v>
+        <v>13.8393156363803</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>44719</v>
+        <v>44727</v>
       </c>
       <c r="B671">
-        <v>21.794913902493398</v>
+        <v>13.6295363491627</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>44720</v>
+        <v>44728</v>
       </c>
       <c r="B672">
-        <v>21.728526386406699</v>
+        <v>13.4187170443608</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>44721</v>
+        <v>44729</v>
       </c>
       <c r="B673">
-        <v>21.662784373725401</v>
+        <v>13.206511723563899</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>44722</v>
+        <v>44730</v>
       </c>
       <c r="B674">
-        <v>21.597678979670398</v>
+        <v>12.992615088325801</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>44723</v>
+        <v>44731</v>
       </c>
       <c r="B675">
-        <v>21.533201511876399</v>
+        <v>12.7767811792015</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>44724</v>
+        <v>44732</v>
       </c>
       <c r="B676">
-        <v>21.4693430773874</v>
+        <v>12.558848207482001</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>44725</v>
+        <v>44733</v>
       </c>
       <c r="B677">
-        <v>21.406094564067001</v>
+        <v>12.338770601496901</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>44726</v>
+        <v>44734</v>
       </c>
       <c r="B678">
-        <v>21.343446961616401</v>
+        <v>12.1166585611778</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>44727</v>
+        <v>44735</v>
       </c>
       <c r="B679">
-        <v>21.281391627759099</v>
+        <v>11.8916192310369</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>44728</v>
+        <v>44736</v>
       </c>
       <c r="B680">
-        <v>21.219920322966001</v>
+        <v>11.659249629393001</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>44729</v>
+        <v>44737</v>
       </c>
       <c r="B681">
-        <v>21.159024976320602</v>
+        <v>11.4169966906873</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>44730</v>
+        <v>44738</v>
       </c>
       <c r="B682">
-        <v>21.098697344836999</v>
+        <v>11.165373522736401</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>44731</v>
+        <v>44739</v>
       </c>
       <c r="B683">
-        <v>21.0389290062618</v>
+        <v>10.9075927816729</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>44732</v>
+        <v>44740</v>
       </c>
       <c r="B684">
-        <v>20.9797116819826</v>
+        <v>10.648937456996901</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>44733</v>
+        <v>44741</v>
       </c>
       <c r="B685">
-        <v>20.921037498839201</v>
+        <v>10.395821896797999</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>44734</v>
+        <v>44742</v>
       </c>
       <c r="B686">
-        <v>20.862898925528501</v>
+        <v>10.154614594698799</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>44735</v>
+        <v>44743</v>
       </c>
       <c r="B687">
-        <v>20.805288549568399</v>
+        <v>9.9304547800902707</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>44736</v>
+        <v>44744</v>
       </c>
       <c r="B688">
-        <v>20.7481987976422</v>
+        <v>9.7264850020473492</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>44737</v>
+        <v>44745</v>
       </c>
       <c r="B689">
-        <v>20.691621938836001</v>
+        <v>9.5435735259793706</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>44738</v>
+        <v>44746</v>
       </c>
       <c r="B690">
-        <v>20.635550393595299</v>
+        <v>9.3804543255921597</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>44739</v>
+        <v>44747</v>
       </c>
       <c r="B691">
-        <v>20.5799770009314</v>
+        <v>9.2341333218917097</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>44740</v>
+        <v>44748</v>
       </c>
       <c r="B692">
-        <v>20.524894873077201</v>
+        <v>9.1011181553926104</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>44741</v>
+        <v>44749</v>
       </c>
       <c r="B693">
-        <v>20.470297175268101</v>
+        <v>8.98020680909951</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>44742</v>
+        <v>44750</v>
       </c>
       <c r="B694">
-        <v>20.4161769108076</v>
+        <v>8.8707435682415401</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>44743</v>
+        <v>44751</v>
       </c>
       <c r="B695">
-        <v>20.362526973819001</v>
+        <v>8.77202393308478</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>44744</v>
+        <v>44752</v>
       </c>
       <c r="B696">
-        <v>20.309340399637598</v>
+        <v>8.6833717271392796</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>44745</v>
+        <v>44753</v>
       </c>
       <c r="B697">
-        <v>20.256610594439302</v>
+        <v>8.6041927023843598</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>44746</v>
+        <v>44754</v>
       </c>
       <c r="B698">
-        <v>20.204331166259799</v>
+        <v>8.5340101061531008</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>44747</v>
+        <v>44755</v>
       </c>
       <c r="B699">
-        <v>20.152495703203702</v>
+        <v>8.4724871178994707</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>44748</v>
+        <v>44756</v>
       </c>
       <c r="B700">
-        <v>20.101097622749599</v>
+        <v>8.4194400611495404</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>44749</v>
+        <v>44757</v>
       </c>
       <c r="B701">
-        <v>20.050130266913701</v>
+        <v>8.3748451893561899</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>44750</v>
+        <v>44758</v>
       </c>
       <c r="B702">
-        <v>19.999587098909799</v>
+        <v>8.3388407825189006</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>44751</v>
+        <v>44759</v>
       </c>
       <c r="B703">
-        <v>19.949461885504601</v>
+        <v>8.3117253076226394</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>44752</v>
+        <v>44760</v>
       </c>
       <c r="B704">
-        <v>19.899748524951999</v>
+        <v>8.2939514632060405</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>44753</v>
+        <v>44761</v>
       </c>
       <c r="B705">
-        <v>19.850440822919101</v>
+        <v>8.2861149945799397</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>44754</v>
+        <v>44762</v>
       </c>
       <c r="B706">
-        <v>19.801532402037299</v>
+        <v>8.2895759516409999</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>44755</v>
+        <v>44763</v>
       </c>
       <c r="B707">
-        <v>19.753016823003001</v>
+        <v>8.3080108935804002</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>44756</v>
+        <v>44764</v>
       </c>
       <c r="B708">
-        <v>19.7048877404834</v>
+        <v>8.3448679000370607</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>44757</v>
+        <v>44765</v>
       </c>
       <c r="B709">
-        <v>19.657139040418599</v>
+        <v>8.4025557880608996</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>44758</v>
+        <v>44766</v>
       </c>
       <c r="B710">
-        <v>19.609764673928101</v>
+        <v>8.4822865903576794</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>44759</v>
+        <v>44767</v>
       </c>
       <c r="B711">
-        <v>19.562758433509099</v>
+        <v>8.5838908426762508</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>44760</v>
+        <v>44768</v>
       </c>
       <c r="B712">
-        <v>19.516113915930202</v>
+        <v>8.7056596068752707</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>44761</v>
+        <v>44769</v>
       </c>
       <c r="B713">
-        <v>19.469824654451799</v>
+        <v>8.8442727396553504</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>44762</v>
+        <v>44770</v>
       </c>
       <c r="B714">
-        <v>19.423884245056399</v>
+        <v>8.9948718121054796</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>44763</v>
+        <v>44771</v>
       </c>
       <c r="B715">
-        <v>19.378286422536402</v>
+        <v>9.1513217422507402</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>44764</v>
+        <v>44772</v>
       </c>
       <c r="B716">
-        <v>19.3330249233837</v>
+        <v>9.30667454500737</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>44765</v>
+        <v>44773</v>
       </c>
       <c r="B717">
-        <v>19.288093291088298</v>
+        <v>9.4538051106253498</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>44766</v>
+        <v>44774</v>
       </c>
       <c r="B718">
-        <v>19.243484863347401</v>
+        <v>9.5861446713068794</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>44767</v>
+        <v>44775</v>
       </c>
       <c r="B719">
-        <v>19.199192902649902</v>
+        <v>9.6984374219916898</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>44768</v>
+        <v>44776</v>
       </c>
       <c r="B720">
-        <v>19.1552107014003</v>
+        <v>9.7873827045082002</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>44769</v>
+        <v>44777</v>
       </c>
       <c r="B721">
-        <v>19.1115316015193</v>
+        <v>9.8519621794951107</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>44770</v>
+        <v>44778</v>
       </c>
       <c r="B722">
-        <v>19.0681488870495</v>
+        <v>9.8935398577435496</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>44771</v>
+        <v>44779</v>
       </c>
       <c r="B723">
-        <v>19.025055635107901</v>
+        <v>9.9158313072679398</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>44772</v>
+        <v>44780</v>
       </c>
       <c r="B724">
-        <v>18.982244712294701</v>
+        <v>9.9248444926987602</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>44773</v>
+        <v>44781</v>
       </c>
       <c r="B725">
-        <v>18.939708893099599</v>
+        <v>9.9272797956940799</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>44774</v>
+        <v>44782</v>
       </c>
       <c r="B726">
-        <v>18.897440949533198</v>
+        <v>9.9249159958710305</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>44775</v>
+        <v>44783</v>
       </c>
       <c r="B727">
-        <v>18.855433631898698</v>
+        <v>9.9180640999247895</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>44776</v>
+        <v>44784</v>
       </c>
       <c r="B728">
-        <v>18.8136795835314</v>
+        <v>9.9069804835136903</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>44777</v>
+        <v>44785</v>
       </c>
       <c r="B729">
-        <v>18.772171236599199</v>
+        <v>9.89186270536565</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>44778</v>
+        <v>44786</v>
       </c>
       <c r="B730">
-        <v>18.7309008156906</v>
+        <v>9.8728482377701301</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>44779</v>
+        <v>44787</v>
       </c>
       <c r="B731">
-        <v>18.689860435885301</v>
+        <v>9.85001524235037</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>44780</v>
+        <v>44788</v>
       </c>
       <c r="B732">
-        <v>18.649042179189902</v>
+        <v>9.8233848467662703</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>44781</v>
+        <v>44789</v>
       </c>
       <c r="B733">
-        <v>18.6084380532388</v>
+        <v>9.7929246505018792</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>44782</v>
+        <v>44790</v>
       </c>
       <c r="B734">
-        <v>18.568039924723401</v>
+        <v>9.7585534155965501</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>44783</v>
+        <v>44791</v>
       </c>
       <c r="B735">
-        <v>18.5278394562459</v>
+        <v>9.7201470922419606</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>44784</v>
+        <v>44792</v>
       </c>
       <c r="B736">
-        <v>18.4878281210637</v>
+        <v>9.6775464982765094</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>44785</v>
+        <v>44793</v>
       </c>
       <c r="B737">
-        <v>18.447997270559298</v>
+        <v>9.6305671190584299</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>44786</v>
+        <v>44794</v>
       </c>
       <c r="B738">
-        <v>18.408338189546399</v>
+        <v>9.5790116151580307</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>44787</v>
+        <v>44795</v>
       </c>
       <c r="B739">
-        <v>18.368842054791401</v>
+        <v>9.5226857037255908</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>44788</v>
+        <v>44796</v>
       </c>
       <c r="B740">
-        <v>18.329499887314501</v>
+        <v>9.4614180844178808</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>44789</v>
+        <v>44797</v>
       </c>
       <c r="B741">
-        <v>18.2903025240537</v>
+        <v>9.3950849633115894</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>44790</v>
+        <v>44798</v>
       </c>
       <c r="B742">
-        <v>18.251240640521299</v>
+        <v>9.3236394192685594</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>44791</v>
+        <v>44799</v>
       </c>
       <c r="B743">
-        <v>18.212304787453501</v>
+        <v>9.2471452709978195</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>44792</v>
+        <v>44800</v>
       </c>
       <c r="B744">
-        <v>18.173485418761999</v>
+        <v>9.1658141502130608</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>44793</v>
+        <v>44801</v>
       </c>
       <c r="B745">
-        <v>18.134772865700199</v>
+        <v>9.0800431030277995</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>44794</v>
+        <v>44802</v>
       </c>
       <c r="B746">
-        <v>18.096157311326699</v>
+        <v>8.9904482403151302</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>44795</v>
+        <v>44803</v>
       </c>
       <c r="B747">
-        <v>18.057628788695698</v>
+        <v>8.8978878966706798</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>44796</v>
+        <v>44804</v>
       </c>
       <c r="B748">
-        <v>18.019177199525199</v>
+        <v>8.8034668145611406</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>44797</v>
+        <v>44805</v>
       </c>
       <c r="B749">
-        <v>17.980792327050398</v>
+        <v>8.70851167639659</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>44798</v>
+        <v>44806</v>
       </c>
       <c r="B750">
-        <v>17.9424638408886</v>
+        <v>8.6145086765360901</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>44799</v>
+        <v>44807</v>
       </c>
       <c r="B751">
-        <v>17.904181291961201</v>
+        <v>8.5229975326176497</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>44800</v>
+        <v>44808</v>
       </c>
       <c r="B752">
-        <v>17.865934115041998</v>
+        <v>8.4354184557520302</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>44801</v>
+        <v>44809</v>
       </c>
       <c r="B753">
-        <v>17.8277116434028</v>
+        <v>8.35290499977134</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>44802</v>
+        <v>44810</v>
       </c>
       <c r="B754">
-        <v>17.789503113415599</v>
+        <v>8.2760687634764594</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>44803</v>
+        <v>44811</v>
       </c>
       <c r="B755">
-        <v>17.751297657792701</v>
+        <v>8.2047790518785799</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>44804</v>
+        <v>44812</v>
       </c>
       <c r="B756">
-        <v>17.713084293762101</v>
+        <v>8.1379364517639807</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>44805</v>
+        <v>44813</v>
       </c>
       <c r="B757">
-        <v>17.6748519414549</v>
+        <v>8.0732560666047206</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>44806</v>
+        <v>44814</v>
       </c>
       <c r="B758">
-        <v>17.636589461109601</v>
+        <v>8.0086855176378098</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="B759">
-        <v>17.598285673765599</v>
+        <v>7.94403129814543</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>44808</v>
+        <v>44816</v>
       </c>
       <c r="B760">
-        <v>17.559929343708301</v>
+        <v>7.8792837629556596</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>44809</v>
+        <v>44817</v>
       </c>
       <c r="B761">
-        <v>17.521509153227601</v>
+        <v>7.8144311455441402</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>44810</v>
+        <v>44818</v>
       </c>
       <c r="B762">
-        <v>17.483013689550798</v>
+        <v>7.7494594960776304</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>44811</v>
+        <v>44819</v>
       </c>
       <c r="B763">
-        <v>17.444431483112599</v>
+        <v>7.6843526072184396</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>44812</v>
+        <v>44820</v>
       </c>
       <c r="B764">
-        <v>17.405751075959799</v>
+        <v>7.6190919290154397</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>44813</v>
+        <v>44821</v>
       </c>
       <c r="B765">
-        <v>17.3669610458963</v>
+        <v>7.553656475555</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>44814</v>
+        <v>44822</v>
       </c>
       <c r="B766">
-        <v>17.328049961707499</v>
+        <v>7.4880227278922797</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="B767">
-        <v>17.289006337971198</v>
+        <v>7.42216454030918</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>44816</v>
+        <v>44824</v>
       </c>
       <c r="B768">
-        <v>17.249818636345001</v>
+        <v>7.3560530603727399</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>44817</v>
+        <v>44825</v>
       </c>
       <c r="B769">
-        <v>17.210475323767199</v>
+        <v>7.2896566778722898</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>44818</v>
+        <v>44826</v>
       </c>
       <c r="B770">
-        <v>17.1709649658412</v>
+        <v>7.2229410238174596</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>44819</v>
+        <v>44827</v>
       </c>
       <c r="B771">
-        <v>17.1312762516982</v>
+        <v>7.1558690486405396</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>44820</v>
+        <v>44828</v>
       </c>
       <c r="B772">
-        <v>17.091397917916801</v>
+        <v>7.0884012189217698</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>44821</v>
+        <v>44829</v>
       </c>
       <c r="B773">
-        <v>17.0513186767338</v>
+        <v>7.02049588461876</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>44822</v>
+        <v>44830</v>
       </c>
       <c r="B774">
-        <v>17.011027245149101</v>
+        <v>6.9521098839782001</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>44823</v>
+        <v>44831</v>
       </c>
       <c r="B775">
-        <v>16.970512424702498</v>
+        <v>6.8831994706059101</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>44824</v>
+        <v>44832</v>
       </c>
       <c r="B776">
-        <v>16.929763209823399</v>
+        <v>6.8137216652583703</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>44825</v>
+        <v>44833</v>
       </c>
       <c r="B777">
-        <v>16.888768807958201</v>
+        <v>6.7436361510046696</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>44826</v>
+        <v>44834</v>
       </c>
       <c r="B778">
-        <v>16.847518534096999</v>
+        <v>6.6729078394089401</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>44827</v>
+        <v>44835</v>
       </c>
       <c r="B779">
-        <v>16.806001705620801</v>
+        <v>6.6015102289399001</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>44828</v>
+        <v>44836</v>
       </c>
       <c r="B780">
-        <v>16.764207711267499</v>
+        <v>6.5294296423652298</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>44829</v>
+        <v>44837</v>
       </c>
       <c r="B781">
-        <v>16.7221261174377</v>
+        <v>6.4566703503420797</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>44830</v>
+        <v>44838</v>
       </c>
       <c r="B782">
-        <v>16.679746780304399</v>
+        <v>6.3832604434283997</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
-        <v>44831</v>
+        <v>44839</v>
       </c>
       <c r="B783">
-        <v>16.637059834697201</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A784" s="1">
-        <v>44832</v>
-      </c>
-      <c r="B784">
-        <v>16.594055579168302</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A785" s="1">
-        <v>44833</v>
-      </c>
-      <c r="B785">
-        <v>16.550724357049901</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A786" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B786">
-        <v>16.5070566532961</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A787" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B787">
-        <v>16.463043233785701</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A788" s="1">
-        <v>44836</v>
-      </c>
-      <c r="B788">
-        <v>16.4186752484189</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A789" s="1">
-        <v>44837</v>
-      </c>
-      <c r="B789">
-        <v>16.373944181190801</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A790" s="1">
-        <v>44838</v>
-      </c>
-      <c r="B790">
-        <v>16.328841727556199</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A791" s="1">
-        <v>44839</v>
-      </c>
-      <c r="B791">
-        <v>16.283359667833501</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A792" s="1">
-        <v>44840</v>
-      </c>
-      <c r="B792">
-        <v>16.237489991813</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A793" s="1">
-        <v>44841</v>
-      </c>
-      <c r="B793">
-        <v>16.191225078182299</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A794" s="1">
-        <v>44842</v>
-      </c>
-      <c r="B794">
-        <v>16.144557774972998</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A795" s="1">
-        <v>44843</v>
-      </c>
-      <c r="B795">
-        <v>16.0974813062514</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A796" s="1">
-        <v>44844</v>
-      </c>
-      <c r="B796">
-        <v>16.049989140838999</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A797" s="1">
-        <v>44845</v>
-      </c>
-      <c r="B797">
-        <v>16.002074865231599</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A798" s="1">
-        <v>44846</v>
-      </c>
-      <c r="B798">
-        <v>15.953732334167</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A799" s="1">
-        <v>44847</v>
-      </c>
-      <c r="B799">
-        <v>15.9049558970883</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A800" s="1">
-        <v>44848</v>
-      </c>
-      <c r="B800">
-        <v>15.8557404424064</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A801" s="1">
-        <v>44849</v>
-      </c>
-      <c r="B801">
-        <v>15.806081259930799</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A802" s="1">
-        <v>44850</v>
-      </c>
-      <c r="B802">
-        <v>15.7559738977953</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A803" s="1">
-        <v>44851</v>
-      </c>
-      <c r="B803">
-        <v>15.705414077222301</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A804" s="1">
-        <v>44852</v>
-      </c>
-      <c r="B804">
-        <v>15.654397840209899</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A805" s="1">
-        <v>44853</v>
-      </c>
-      <c r="B805">
-        <v>15.6029217853983</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A806" s="1">
-        <v>44854</v>
-      </c>
-      <c r="B806">
-        <v>15.5509830986836</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A807" s="1">
-        <v>44855</v>
-      </c>
-      <c r="B807">
-        <v>15.498579374795</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A808" s="1">
-        <v>44856</v>
-      </c>
-      <c r="B808">
-        <v>15.4457084575671</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A809" s="1">
-        <v>44857</v>
-      </c>
-      <c r="B809">
-        <v>15.392368408721399</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A810" s="1">
-        <v>44858</v>
-      </c>
-      <c r="B810">
-        <v>15.338557654174</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A811" s="1">
-        <v>44859</v>
-      </c>
-      <c r="B811">
-        <v>15.284275211173201</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A812" s="1">
-        <v>44860</v>
-      </c>
-      <c r="B812">
-        <v>15.229520706248101</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A813" s="1">
-        <v>44861</v>
-      </c>
-      <c r="B813">
-        <v>15.174294164080999</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A814" s="1">
-        <v>44862</v>
-      </c>
-      <c r="B814">
-        <v>15.118595825496399</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A815" s="1">
-        <v>44863</v>
-      </c>
-      <c r="B815">
-        <v>15.0624261760462</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A816" s="1">
-        <v>44864</v>
-      </c>
-      <c r="B816">
-        <v>15.005786095980699</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A817" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B817">
-        <v>14.9486770637966</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A818" s="1">
-        <v>44866</v>
-      </c>
-      <c r="B818">
-        <v>14.891101159893999</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A819" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B819">
-        <v>14.833060835476999</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A820" s="1">
-        <v>44868</v>
-      </c>
-      <c r="B820">
-        <v>14.7745587032262</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A821" s="1">
-        <v>44869</v>
-      </c>
-      <c r="B821">
-        <v>14.7155976272796</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A822" s="1">
-        <v>44870</v>
-      </c>
-      <c r="B822">
-        <v>14.6561808810544</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A823" s="1">
-        <v>44871</v>
-      </c>
-      <c r="B823">
-        <v>14.5963123138631</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A824" s="1">
-        <v>44872</v>
-      </c>
-      <c r="B824">
-        <v>14.5359963105668</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A825" s="1">
-        <v>44873</v>
-      </c>
-      <c r="B825">
-        <v>14.475237578929701</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A826" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B826">
-        <v>14.414040945873399</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A827" s="1">
-        <v>44875</v>
-      </c>
-      <c r="B827">
-        <v>14.3524114758556</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A828" s="1">
-        <v>44876</v>
-      </c>
-      <c r="B828">
-        <v>14.2903546381983</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A829" s="1">
-        <v>44877</v>
-      </c>
-      <c r="B829">
-        <v>14.2278764266668</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A830" s="1">
-        <v>44878</v>
-      </c>
-      <c r="B830">
-        <v>14.164983272963401</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A831" s="1">
-        <v>44879</v>
-      </c>
-      <c r="B831">
-        <v>14.1016818636586</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A832" s="1">
-        <v>44880</v>
-      </c>
-      <c r="B832">
-        <v>14.0379789635659</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A833" s="1">
-        <v>44881</v>
-      </c>
-      <c r="B833">
-        <v>13.973881541950099</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A834" s="1">
-        <v>44882</v>
-      </c>
-      <c r="B834">
-        <v>13.909396946985099</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A835" s="1">
-        <v>44883</v>
-      </c>
-      <c r="B835">
-        <v>13.8445329732339</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A836" s="1">
-        <v>44884</v>
-      </c>
-      <c r="B836">
-        <v>13.779297743829799</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A837" s="1">
-        <v>44885</v>
-      </c>
-      <c r="B837">
-        <v>13.713699556156101</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A838" s="1">
-        <v>44886</v>
-      </c>
-      <c r="B838">
-        <v>13.647746740373501</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A839" s="1">
-        <v>44887</v>
-      </c>
-      <c r="B839">
-        <v>13.5814477823385</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A840" s="1">
-        <v>44888</v>
-      </c>
-      <c r="B840">
-        <v>13.5148114977147</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A841" s="1">
-        <v>44889</v>
-      </c>
-      <c r="B841">
-        <v>13.447847048794699</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A842" s="1">
-        <v>44890</v>
-      </c>
-      <c r="B842">
-        <v>13.3805638140099</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A843" s="1">
-        <v>44891</v>
-      </c>
-      <c r="B843">
-        <v>13.3129712610823</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A844" s="1">
-        <v>44892</v>
-      </c>
-      <c r="B844">
-        <v>13.2450788597257</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A845" s="1">
-        <v>44893</v>
-      </c>
-      <c r="B845">
-        <v>13.176896178627</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A846" s="1">
-        <v>44894</v>
-      </c>
-      <c r="B846">
-        <v>13.1084330294644</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A847" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B847">
-        <v>13.0396994557547</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A848" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B848">
-        <v>12.970705609827499</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A849" s="1">
-        <v>44897</v>
-      </c>
-      <c r="B849">
-        <v>12.901461653098901</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A850" s="1">
-        <v>44898</v>
-      </c>
-      <c r="B850">
-        <v>12.8319777224636</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A851" s="1">
-        <v>44899</v>
-      </c>
-      <c r="B851">
-        <v>12.7622639948317</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A852" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B852">
-        <v>12.6923307779517</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A853" s="1">
-        <v>44901</v>
-      </c>
-      <c r="B853">
-        <v>12.6221884889365</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A854" s="1">
-        <v>44902</v>
-      </c>
-      <c r="B854">
-        <v>12.5518475577225</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A855" s="1">
-        <v>44903</v>
-      </c>
-      <c r="B855">
-        <v>12.4813183565995</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A856" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B856">
-        <v>12.4106111992919</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A857" s="1">
-        <v>44905</v>
-      </c>
-      <c r="B857">
-        <v>12.3397363767186</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A858" s="1">
-        <v>44906</v>
-      </c>
-      <c r="B858">
-        <v>12.2687041937592</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A859" s="1">
-        <v>44907</v>
-      </c>
-      <c r="B859">
-        <v>12.197524942049601</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A860" s="1">
-        <v>44908</v>
-      </c>
-      <c r="B860">
-        <v>12.126208845100701</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A861" s="1">
-        <v>44909</v>
-      </c>
-      <c r="B861">
-        <v>12.0547660229616</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A862" s="1">
-        <v>44910</v>
-      </c>
-      <c r="B862">
-        <v>11.983206499339</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A863" s="1">
-        <v>44911</v>
-      </c>
-      <c r="B863">
-        <v>11.9115402077468</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A864" s="1">
-        <v>44912</v>
-      </c>
-      <c r="B864">
-        <v>11.839776980906899</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A865" s="1">
-        <v>44913</v>
-      </c>
-      <c r="B865">
-        <v>11.767926523413699</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A866" s="1">
-        <v>44914</v>
-      </c>
-      <c r="B866">
-        <v>11.695998406984501</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A867" s="1">
-        <v>44915</v>
-      </c>
-      <c r="B867">
-        <v>11.624002079799199</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A868" s="1">
-        <v>44916</v>
-      </c>
-      <c r="B868">
-        <v>11.5519468557517</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A869" s="1">
-        <v>44917</v>
-      </c>
-      <c r="B869">
-        <v>11.479841885925699</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A870" s="1">
-        <v>44918</v>
-      </c>
-      <c r="B870">
-        <v>11.407696113931101</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A871" s="1">
-        <v>44919</v>
-      </c>
-      <c r="B871">
-        <v>11.335518265704399</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A872" s="1">
-        <v>44920</v>
-      </c>
-      <c r="B872">
-        <v>11.2633168880906</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A873" s="1">
-        <v>44921</v>
-      </c>
-      <c r="B873">
-        <v>11.191100400350701</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A874" s="1">
-        <v>44922</v>
-      </c>
-      <c r="B874">
-        <v>11.118877052734801</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A875" s="1">
-        <v>44923</v>
-      </c>
-      <c r="B875">
-        <v>11.0466548552583</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A876" s="1">
-        <v>44924</v>
-      </c>
-      <c r="B876">
-        <v>10.9744415171743</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A877" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B877">
-        <v>10.902244471464799</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A878" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B878">
-        <v>10.8300709474144</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A879" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B879">
-        <v>10.757928053778601</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A880" s="1">
-        <v>44928</v>
-      </c>
-      <c r="B880">
-        <v>10.685822702208601</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A881" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B881">
-        <v>10.6137614839715</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A882" s="1">
-        <v>44930</v>
-      </c>
-      <c r="B882">
-        <v>10.541750614201399</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A883" s="1">
-        <v>44931</v>
-      </c>
-      <c r="B883">
-        <v>10.469796002250201</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A884" s="1">
-        <v>44932</v>
-      </c>
-      <c r="B884">
-        <v>10.397903352048299</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A885" s="1">
-        <v>44933</v>
-      </c>
-      <c r="B885">
-        <v>10.326078258414199</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A886" s="1">
-        <v>44934</v>
-      </c>
-      <c r="B886">
-        <v>10.2543260990074</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A887" s="1">
-        <v>44935</v>
-      </c>
-      <c r="B887">
-        <v>10.1826518559945</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A888" s="1">
-        <v>44936</v>
-      </c>
-      <c r="B888">
-        <v>10.1110600806444</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A889" s="1">
-        <v>44937</v>
-      </c>
-      <c r="B889">
-        <v>10.0395550133803</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A890" s="1">
-        <v>44938</v>
-      </c>
-      <c r="B890">
-        <v>9.9681407093211494</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A891" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B891">
-        <v>9.8968211053552597</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A892" s="1">
-        <v>44940</v>
-      </c>
-      <c r="B892">
-        <v>9.82559990182218</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A893" s="1">
-        <v>44941</v>
-      </c>
-      <c r="B893">
-        <v>9.7544803621924103</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A894" s="1">
-        <v>44942</v>
-      </c>
-      <c r="B894">
-        <v>9.6834652858373698</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A895" s="1">
-        <v>44943</v>
-      </c>
-      <c r="B895">
-        <v>9.6125571746092096</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A896" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B896">
-        <v>9.5417583845574203</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A897" s="1">
-        <v>44945</v>
-      </c>
-      <c r="B897">
-        <v>9.4710711460206198</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A898" s="1">
-        <v>44946</v>
-      </c>
-      <c r="B898">
-        <v>9.4004974345835901</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A899" s="1">
-        <v>44947</v>
-      </c>
-      <c r="B899">
-        <v>9.3300387673909793</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A900" s="1">
-        <v>44948</v>
-      </c>
-      <c r="B900">
-        <v>9.2596961867859502</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A901" s="1">
-        <v>44949</v>
-      </c>
-      <c r="B901">
-        <v>9.1894704644288208</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A902" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B902">
-        <v>9.1193622831399299</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A903" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B903">
-        <v>9.0493721988415192</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A904" s="1">
-        <v>44952</v>
-      </c>
-      <c r="B904">
-        <v>8.9795004981921895</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A905" s="1">
-        <v>44953</v>
-      </c>
-      <c r="B905">
-        <v>8.9097470097771794</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A906" s="1">
-        <v>44954</v>
-      </c>
-      <c r="B906">
-        <v>8.8401111008233197</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A907" s="1">
-        <v>44955</v>
-      </c>
-      <c r="B907">
-        <v>8.7705919061846291</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A908" s="1">
-        <v>44956</v>
-      </c>
-      <c r="B908">
-        <v>8.7011885463420509</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A909" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B909">
-        <v>8.6319000264461092</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A910" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B910">
-        <v>8.5627250776698496</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A911" s="1">
-        <v>44959</v>
-      </c>
-      <c r="B911">
-        <v>8.4936619989618602</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A912" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B912">
-        <v>8.4247087084743306</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A913" s="1">
-        <v>44961</v>
-      </c>
-      <c r="B913">
-        <v>8.3558629543824807</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A914" s="1">
-        <v>44962</v>
-      </c>
-      <c r="B914">
-        <v>8.2871225236198605</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A915" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B915">
-        <v>8.2184851195478004</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A916" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B916">
-        <v>8.1499481843821808</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A917" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B917">
-        <v>8.0815087830356998</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A918" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B918">
-        <v>8.0131637035557706</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A919" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B919">
-        <v>7.9449096493391203</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A920" s="1">
-        <v>44968</v>
-      </c>
-      <c r="B920">
-        <v>7.8767434292366403</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A921" s="1">
-        <v>44969</v>
-      </c>
-      <c r="B921">
-        <v>7.8086618209905101</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A922" s="1">
-        <v>44970</v>
-      </c>
-      <c r="B922">
-        <v>7.7406613735138299</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A923" s="1">
-        <v>44971</v>
-      </c>
-      <c r="B923">
-        <v>7.6727383396631499</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A924" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B924">
-        <v>7.6048888147721003</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A925" s="1">
-        <v>44973</v>
-      </c>
-      <c r="B925">
-        <v>7.5371089110714102</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A926" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B926">
-        <v>7.4693949202602399</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A927" s="1">
-        <v>44975</v>
-      </c>
-      <c r="B927">
-        <v>7.4017431704687899</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A928" s="1">
-        <v>44976</v>
-      </c>
-      <c r="B928">
-        <v>7.33414981053288</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A929" s="1">
-        <v>44977</v>
-      </c>
-      <c r="B929">
-        <v>7.26661079327382</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A930" s="1">
-        <v>44978</v>
-      </c>
-      <c r="B930">
-        <v>7.1991220370786504</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A931" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B931">
-        <v>7.1316795837108096</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A932" s="1">
-        <v>44980</v>
-      </c>
-      <c r="B932">
-        <v>7.0642796983304601</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A933" s="1">
-        <v>44981</v>
-      </c>
-      <c r="B933">
-        <v>6.9969187487310096</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A934" s="1">
-        <v>44982</v>
-      </c>
-      <c r="B934">
-        <v>6.9295930125603196</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A935" s="1">
-        <v>44983</v>
-      </c>
-      <c r="B935">
-        <v>6.8622986788350104</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A936" s="1">
-        <v>44984</v>
-      </c>
-      <c r="B936">
-        <v>6.7950320151695101</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A937" s="1">
-        <v>44985</v>
-      </c>
-      <c r="B937">
-        <v>6.7277895098442304</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A938" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B938">
-        <v>6.6605679099467601</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A939" s="1">
-        <v>44987</v>
-      </c>
-      <c r="B939">
-        <v>6.5933641206048499</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A940" s="1">
-        <v>44988</v>
-      </c>
-      <c r="B940">
-        <v>6.5261750514200996</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A941" s="1">
-        <v>44989</v>
-      </c>
-      <c r="B941">
-        <v>6.4589976260054103</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A942" s="1">
-        <v>44990</v>
-      </c>
-      <c r="B942">
-        <v>6.3918289376203798</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A943" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B943">
-        <v>6.3246663754671903</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A944" s="1">
-        <v>44992</v>
-      </c>
-      <c r="B944">
-        <v>6.2575076136633898</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A945" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B945">
-        <v>6.1903505248042601</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A946" s="1">
-        <v>44994</v>
-      </c>
-      <c r="B946">
-        <v>6.12319306899166</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A947" s="1">
-        <v>44995</v>
-      </c>
-      <c r="B947">
-        <v>6.0560333075514201</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A948" s="1">
-        <v>44996</v>
-      </c>
-      <c r="B948">
-        <v>5.9888695326901402</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A949" s="1">
-        <v>44997</v>
-      </c>
-      <c r="B949">
-        <v>5.9217003763385696</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A950" s="1">
-        <v>44998</v>
-      </c>
-      <c r="B950">
-        <v>5.8545247660709796</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A951" s="1">
-        <v>44999</v>
-      </c>
-      <c r="B951">
-        <v>5.7873418505606002</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A952" s="1">
-        <v>45000</v>
-      </c>
-      <c r="B952">
-        <v>5.72015092863374</v>
+        <v>6.3092580851982598</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019_cc.xlsx
+++ b/Covid_29019_cc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186499A4-9203-CC43-B30F-46BF8F4589CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F961EFD-5E21-074A-B649-A01A2F612241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="4800" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="2760" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,16 +881,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B783"/>
+  <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="67.5" customWidth="1"/>
     <col min="4" max="6" width="54.5" customWidth="1"/>
   </cols>
@@ -905,6258 +905,7610 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44058</v>
+        <v>44050</v>
       </c>
       <c r="B2">
-        <v>4.61262093238494E-2</v>
+        <v>4.1572811611979796</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44059</v>
+        <v>44051</v>
       </c>
       <c r="B3">
-        <v>0.69417555136194398</v>
+        <v>4.6317524360473801</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44060</v>
+        <v>44052</v>
       </c>
       <c r="B4">
-        <v>1.37061098264799</v>
+        <v>5.1114271483389198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44061</v>
+        <v>44053</v>
       </c>
       <c r="B5">
-        <v>2.0731036132009701</v>
+        <v>5.5950009311796398</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44062</v>
+        <v>44054</v>
       </c>
       <c r="B6">
-        <v>2.7993251537758401</v>
+        <v>6.08140263148863</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44063</v>
+        <v>44055</v>
       </c>
       <c r="B7">
-        <v>3.5470107019114598</v>
+        <v>6.56979736388534</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44064</v>
+        <v>44056</v>
       </c>
       <c r="B8">
-        <v>4.3140008106307004</v>
+        <v>7.08334080507914</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44065</v>
+        <v>44057</v>
       </c>
       <c r="B9">
-        <v>5.09826804877145</v>
+        <v>7.6854629878026097</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44066</v>
+        <v>44058</v>
       </c>
       <c r="B10">
-        <v>5.8979322879912202</v>
+        <v>8.3561457092581293</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44067</v>
+        <v>44059</v>
       </c>
       <c r="B11">
-        <v>6.7112680455211899</v>
+        <v>9.0323851461769795</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44068</v>
+        <v>44060</v>
       </c>
       <c r="B12">
-        <v>7.5367064301600397</v>
+        <v>9.6604309260271304</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44069</v>
+        <v>44061</v>
       </c>
       <c r="B13">
-        <v>8.3728335965587295</v>
+        <v>10.2141668626269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44070</v>
+        <v>44062</v>
       </c>
       <c r="B14">
-        <v>9.2183871023695207</v>
+        <v>10.6910681533664</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44071</v>
+        <v>44063</v>
       </c>
       <c r="B15">
-        <v>10.072251167284</v>
+        <v>11.100523067187099</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44072</v>
+        <v>44064</v>
       </c>
       <c r="B16">
-        <v>10.933451532396999</v>
+        <v>11.455152246152499</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44073</v>
+        <v>44065</v>
       </c>
       <c r="B17">
-        <v>11.801150393407699</v>
+        <v>11.7668535839085</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44074</v>
+        <v>44066</v>
       </c>
       <c r="B18">
-        <v>12.674641714894101</v>
+        <v>12.0611685000398</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44075</v>
+        <v>44067</v>
       </c>
       <c r="B19">
-        <v>13.5533471110514</v>
+        <v>12.3403524616308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44076</v>
+        <v>44068</v>
       </c>
       <c r="B20">
-        <v>14.4368123893573</v>
+        <v>12.5668413528906</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44077</v>
+        <v>44069</v>
       </c>
       <c r="B21">
-        <v>15.3247047884757</v>
+        <v>12.6971396878749</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44078</v>
+        <v>44070</v>
       </c>
       <c r="B22">
-        <v>16.217934027320801</v>
+        <v>12.7005748779816</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44079</v>
+        <v>44071</v>
       </c>
       <c r="B23">
-        <v>17.1293595962339</v>
+        <v>12.567704189427401</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44080</v>
+        <v>44072</v>
       </c>
       <c r="B24">
-        <v>18.075490722628199</v>
+        <v>12.305505182628901</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44081</v>
+        <v>44073</v>
       </c>
       <c r="B25">
-        <v>19.067557566691502</v>
+        <v>11.9304047160265</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44082</v>
+        <v>44074</v>
       </c>
       <c r="B26">
-        <v>20.111881051732901</v>
+        <v>11.4663510368282</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44083</v>
+        <v>44075</v>
       </c>
       <c r="B27">
-        <v>21.210432864507101</v>
+        <v>10.927672212591</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44084</v>
+        <v>44076</v>
       </c>
       <c r="B28">
-        <v>22.361518125029701</v>
+        <v>10.3004971075183</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44085</v>
+        <v>44077</v>
       </c>
       <c r="B29">
-        <v>23.560561081845901</v>
+        <v>9.6289725447420196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44086</v>
+        <v>44078</v>
       </c>
       <c r="B30">
-        <v>24.800986343326102</v>
+        <v>8.9625138106567395</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44087</v>
+        <v>44079</v>
       </c>
       <c r="B31">
-        <v>26.075171256234601</v>
+        <v>8.2923659460471892</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44088</v>
+        <v>44080</v>
       </c>
       <c r="B32">
-        <v>27.375234804798499</v>
+        <v>7.6537747608499203</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44089</v>
+        <v>44081</v>
       </c>
       <c r="B33">
-        <v>28.693640256565999</v>
+        <v>7.0986650044577599</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44090</v>
+        <v>44082</v>
       </c>
       <c r="B34">
-        <v>30.023607760240999</v>
+        <v>6.6623263370860499</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44091</v>
+        <v>44083</v>
       </c>
       <c r="B35">
-        <v>31.359353060332701</v>
+        <v>6.3475644159655404</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="B36">
-        <v>32.696184541411299</v>
+        <v>6.1066763318595596</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44093</v>
+        <v>44085</v>
       </c>
       <c r="B37">
-        <v>34.030496372802801</v>
+        <v>5.8604780394592</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44094</v>
+        <v>44086</v>
       </c>
       <c r="B38">
-        <v>35.359693614459097</v>
+        <v>5.5120709650165196</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44095</v>
+        <v>44087</v>
       </c>
       <c r="B39">
-        <v>36.682079115240498</v>
+        <v>5.1063999659036998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44096</v>
+        <v>44088</v>
       </c>
       <c r="B40">
-        <v>37.9967245825042</v>
+        <v>4.76255529670778</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44097</v>
+        <v>44089</v>
       </c>
       <c r="B41">
-        <v>39.303341062780703</v>
+        <v>4.5878188480828497</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44098</v>
+        <v>44090</v>
       </c>
       <c r="B42">
-        <v>40.602158118711998</v>
+        <v>4.6237649344257701</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44099</v>
+        <v>44091</v>
       </c>
       <c r="B43">
-        <v>41.8938164769012</v>
+        <v>4.8392895964219198</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44100</v>
+        <v>44092</v>
       </c>
       <c r="B44">
-        <v>43.179275759623103</v>
+        <v>5.1630375060953</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44101</v>
+        <v>44093</v>
       </c>
       <c r="B45">
-        <v>44.4597368452187</v>
+        <v>5.5375927290793499</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44102</v>
+        <v>44094</v>
       </c>
       <c r="B46">
-        <v>45.736577134271798</v>
+        <v>5.8968362115921398</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44103</v>
+        <v>44095</v>
       </c>
       <c r="B47">
-        <v>47.011296263601402</v>
+        <v>5.9192627465798502</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44104</v>
+        <v>44096</v>
       </c>
       <c r="B48">
-        <v>48.285469390381103</v>
+        <v>5.6402578186306496</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44105</v>
+        <v>44097</v>
       </c>
       <c r="B49">
-        <v>49.5607049011969</v>
+        <v>5.3862792124089198</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44106</v>
+        <v>44098</v>
       </c>
       <c r="B50">
-        <v>50.838603171793501</v>
+        <v>5.5151725632350104</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44107</v>
+        <v>44099</v>
       </c>
       <c r="B51">
-        <v>52.120712742479299</v>
+        <v>6.2660668042388004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44108</v>
+        <v>44100</v>
       </c>
       <c r="B52">
-        <v>53.408479953670998</v>
+        <v>7.6833000047804898</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44109</v>
+        <v>44101</v>
       </c>
       <c r="B53">
-        <v>54.703187726424702</v>
+        <v>9.6495738342953299</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44110</v>
+        <v>44102</v>
       </c>
       <c r="B54">
-        <v>56.005878860236898</v>
+        <v>11.968934456722</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44111</v>
+        <v>44103</v>
       </c>
       <c r="B55">
-        <v>57.324994550758099</v>
+        <v>14.5042104894936</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44112</v>
+        <v>44104</v>
       </c>
       <c r="B56">
-        <v>58.693291722285302</v>
+        <v>17.273849066875499</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44113</v>
+        <v>44105</v>
       </c>
       <c r="B57">
-        <v>60.134718860168597</v>
+        <v>20.349409006850401</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44114</v>
+        <v>44106</v>
       </c>
       <c r="B58">
-        <v>61.656690650194399</v>
+        <v>23.905080034956899</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44115</v>
+        <v>44107</v>
       </c>
       <c r="B59">
-        <v>63.2514834310672</v>
+        <v>28.0878760054485</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44116</v>
+        <v>44108</v>
       </c>
       <c r="B60">
-        <v>64.898044572491401</v>
+        <v>32.902526006063397</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44117</v>
+        <v>44109</v>
       </c>
       <c r="B61">
-        <v>66.564669214585393</v>
+        <v>38.147524907697601</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44118</v>
+        <v>44110</v>
       </c>
       <c r="B62">
-        <v>68.212581463389398</v>
+        <v>43.455983598416097</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44119</v>
+        <v>44111</v>
       </c>
       <c r="B63">
-        <v>69.800977364820696</v>
+        <v>48.459717036250701</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44120</v>
+        <v>44112</v>
       </c>
       <c r="B64">
-        <v>71.292261062825105</v>
+        <v>53.0526069604025</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44121</v>
+        <v>44113</v>
       </c>
       <c r="B65">
-        <v>72.6557784912861</v>
+        <v>57.5788765637664</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44122</v>
+        <v>44114</v>
       </c>
       <c r="B66">
-        <v>73.870206020188405</v>
+        <v>62.503965279267398</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44123</v>
+        <v>44115</v>
       </c>
       <c r="B67">
-        <v>74.924467208107203</v>
+        <v>68.060834829579903</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44124</v>
+        <v>44116</v>
       </c>
       <c r="B68">
-        <v>75.8173001324067</v>
+        <v>74.004143645809904</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44125</v>
+        <v>44117</v>
       </c>
       <c r="B69">
-        <v>76.555805207822203</v>
+        <v>79.914923620261405</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44126</v>
+        <v>44118</v>
       </c>
       <c r="B70">
-        <v>77.153385855273697</v>
+        <v>85.409201102509698</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="B71">
-        <v>77.627465854892307</v>
+        <v>90.255439555203097</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44128</v>
+        <v>44120</v>
       </c>
       <c r="B72">
-        <v>77.997268845764495</v>
+        <v>94.389820705505997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44129</v>
+        <v>44121</v>
       </c>
       <c r="B73">
-        <v>78.281820255210704</v>
+        <v>97.883299326795907</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44130</v>
+        <v>44122</v>
       </c>
       <c r="B74">
-        <v>78.496235653125396</v>
+        <v>100.898194051185</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44131</v>
+        <v>44123</v>
       </c>
       <c r="B75">
-        <v>78.645344506855906</v>
+        <v>103.697219631897</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44132</v>
+        <v>44124</v>
       </c>
       <c r="B76">
-        <v>78.730667640880199</v>
+        <v>106.517475100371</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44133</v>
+        <v>44125</v>
       </c>
       <c r="B77">
-        <v>78.752537628305006</v>
+        <v>109.09078421075699</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44134</v>
+        <v>44126</v>
       </c>
       <c r="B78">
-        <v>78.710077440040493</v>
+        <v>110.957358579941</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44135</v>
+        <v>44127</v>
       </c>
       <c r="B79">
-        <v>78.601209101513703</v>
+        <v>111.779752924947</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44136</v>
+        <v>44128</v>
       </c>
       <c r="B80">
-        <v>78.422693087623799</v>
+        <v>111.53028632319</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44137</v>
+        <v>44129</v>
       </c>
       <c r="B81">
-        <v>78.1702061883244</v>
+        <v>110.531869780072</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44138</v>
+        <v>44130</v>
       </c>
       <c r="B82">
-        <v>77.838472983265007</v>
+        <v>109.293294519451</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44139</v>
+        <v>44131</v>
       </c>
       <c r="B83">
-        <v>77.421474115259699</v>
+        <v>108.20643719552901</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44140</v>
+        <v>44132</v>
       </c>
       <c r="B84">
-        <v>76.912763096376395</v>
+        <v>107.124513868587</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44141</v>
+        <v>44133</v>
       </c>
       <c r="B85">
-        <v>76.305931502155303</v>
+        <v>105.67025226064899</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44142</v>
+        <v>44134</v>
       </c>
       <c r="B86">
-        <v>75.595267874232107</v>
+        <v>103.508882492607</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44143</v>
+        <v>44135</v>
       </c>
       <c r="B87">
-        <v>74.776654164464404</v>
+        <v>100.48518443190601</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44144</v>
+        <v>44136</v>
       </c>
       <c r="B88">
-        <v>73.849487982240007</v>
+        <v>96.672266435863406</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="B89">
-        <v>72.820393541511194</v>
+        <v>92.343641452415895</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44146</v>
+        <v>44138</v>
       </c>
       <c r="B90">
-        <v>71.703200669178102</v>
+        <v>87.9329907946709</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44147</v>
+        <v>44139</v>
       </c>
       <c r="B91">
-        <v>70.520447845698698</v>
+        <v>83.922893425904306</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="B92">
-        <v>69.303938125722198</v>
+        <v>80.675968211391094</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44149</v>
+        <v>44141</v>
       </c>
       <c r="B93">
-        <v>68.092873511223502</v>
+        <v>78.181020578142594</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44150</v>
+        <v>44142</v>
       </c>
       <c r="B94">
-        <v>66.929456048803999</v>
+        <v>75.892492837939201</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44151</v>
+        <v>44143</v>
       </c>
       <c r="B95">
-        <v>65.852925504767398</v>
+        <v>73.483427315179696</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44152</v>
+        <v>44144</v>
       </c>
       <c r="B96">
-        <v>64.892242157020704</v>
+        <v>71.022194150870106</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44153</v>
+        <v>44145</v>
       </c>
       <c r="B97">
-        <v>64.060037697744093</v>
+        <v>68.724189697664499</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44154</v>
+        <v>44146</v>
       </c>
       <c r="B98">
-        <v>63.349504596253603</v>
+        <v>66.794638009106393</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44155</v>
+        <v>44147</v>
       </c>
       <c r="B99">
-        <v>62.733239757505203</v>
+        <v>65.339379784378494</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44156</v>
+        <v>44148</v>
       </c>
       <c r="B100">
-        <v>62.162926166821499</v>
+        <v>64.325593485256704</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44157</v>
+        <v>44149</v>
       </c>
       <c r="B101">
-        <v>61.583002184671898</v>
+        <v>63.614400708245398</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44158</v>
+        <v>44150</v>
       </c>
       <c r="B102">
-        <v>60.981236781795097</v>
+        <v>63.036117692923597</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44159</v>
+        <v>44151</v>
       </c>
       <c r="B103">
-        <v>60.358519268994499</v>
+        <v>62.519693329768501</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44160</v>
+        <v>44152</v>
       </c>
       <c r="B104">
-        <v>59.716023782708803</v>
+        <v>62.200805641011897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44161</v>
+        <v>44153</v>
       </c>
       <c r="B105">
-        <v>59.055034678506097</v>
+        <v>62.308394983930597</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44162</v>
+        <v>44154</v>
       </c>
       <c r="B106">
-        <v>58.376819080370197</v>
+        <v>62.925572043537002</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44163</v>
+        <v>44155</v>
       </c>
       <c r="B107">
-        <v>57.682537558020201</v>
+        <v>63.980366672909298</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44164</v>
+        <v>44156</v>
       </c>
       <c r="B108">
-        <v>56.9731838127814</v>
+        <v>65.286562281766706</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44165</v>
+        <v>44157</v>
       </c>
       <c r="B109">
-        <v>56.249545471074498</v>
+        <v>66.578008870068601</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44166</v>
+        <v>44158</v>
       </c>
       <c r="B110">
-        <v>55.512179784524903</v>
+        <v>67.573152189650699</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="B111">
-        <v>54.7613997944391</v>
+        <v>68.073671096306995</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="B112">
-        <v>53.997268170860899</v>
+        <v>68.103485974527402</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44169</v>
+        <v>44161</v>
       </c>
       <c r="B113">
-        <v>53.219597464482597</v>
+        <v>67.956624332976105</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44170</v>
+        <v>44162</v>
       </c>
       <c r="B114">
-        <v>52.427956969349196</v>
+        <v>67.714482948708394</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44171</v>
+        <v>44163</v>
       </c>
       <c r="B115">
-        <v>51.621687868286401</v>
+        <v>67.337282784356901</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44172</v>
+        <v>44164</v>
       </c>
       <c r="B116">
-        <v>50.799929893946</v>
+        <v>66.786513424207499</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44173</v>
+        <v>44165</v>
       </c>
       <c r="B117">
-        <v>49.961664407728797</v>
+        <v>66.049653291023901</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="B118">
-        <v>49.1057804867878</v>
+        <v>65.155031706303504</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44175</v>
+        <v>44167</v>
       </c>
       <c r="B119">
-        <v>48.231172022494</v>
+        <v>64.179227157272194</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44176</v>
+        <v>44168</v>
       </c>
       <c r="B120">
-        <v>47.336874346242297</v>
+        <v>63.228998168143697</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44177</v>
+        <v>44169</v>
       </c>
       <c r="B121">
-        <v>46.417919772670203</v>
+        <v>62.402492130116599</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44178</v>
+        <v>44170</v>
       </c>
       <c r="B122">
-        <v>45.455211142871399</v>
+        <v>61.720974942170002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44179</v>
+        <v>44171</v>
       </c>
       <c r="B123">
-        <v>44.433358428891601</v>
+        <v>61.057238572512198</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44180</v>
+        <v>44172</v>
       </c>
       <c r="B124">
-        <v>43.346128407913</v>
+        <v>60.299844837887598</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44181</v>
+        <v>44173</v>
       </c>
       <c r="B125">
-        <v>42.196779732039303</v>
+        <v>59.456961525064202</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44182</v>
+        <v>44174</v>
       </c>
       <c r="B126">
-        <v>40.997550618772998</v>
+        <v>58.592359433378697</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44183</v>
+        <v>44175</v>
       </c>
       <c r="B127">
-        <v>39.767808669755198</v>
+        <v>57.778375649841102</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44184</v>
+        <v>44176</v>
       </c>
       <c r="B128">
-        <v>38.530616797385797</v>
+        <v>57.0656672641529</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44185</v>
+        <v>44177</v>
       </c>
       <c r="B129">
-        <v>37.3085045058383</v>
+        <v>56.467850164444997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44186</v>
+        <v>44178</v>
       </c>
       <c r="B130">
-        <v>36.119835912666097</v>
+        <v>55.968871425486199</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44187</v>
+        <v>44179</v>
       </c>
       <c r="B131">
-        <v>34.976260223778503</v>
+        <v>55.538149424665598</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44188</v>
+        <v>44180</v>
       </c>
       <c r="B132">
-        <v>33.881471793958198</v>
+        <v>55.153847951680497</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="B133">
-        <v>32.831038964615097</v>
+        <v>54.810733580506501</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44190</v>
+        <v>44182</v>
       </c>
       <c r="B134">
-        <v>31.8157215670307</v>
+        <v>54.5242755262584</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44191</v>
+        <v>44183</v>
       </c>
       <c r="B135">
-        <v>30.8328044440558</v>
+        <v>54.329672958639499</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44192</v>
+        <v>44184</v>
       </c>
       <c r="B136">
-        <v>29.8811340248152</v>
+        <v>54.254166172030999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44193</v>
+        <v>44185</v>
       </c>
       <c r="B137">
-        <v>28.959016068717698</v>
+        <v>54.298902253149201</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44194</v>
+        <v>44186</v>
       </c>
       <c r="B138">
-        <v>28.064497244364301</v>
+        <v>54.431879375733402</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="B139">
-        <v>27.1955732333094</v>
+        <v>54.595880397143802</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="B140">
-        <v>26.350336563329599</v>
+        <v>54.730967023757103</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44197</v>
+        <v>44189</v>
       </c>
       <c r="B141">
-        <v>25.5270780600862</v>
+        <v>54.813677360287002</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44198</v>
+        <v>44190</v>
       </c>
       <c r="B142">
-        <v>24.7243542650926</v>
+        <v>54.929560923763901</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44199</v>
+        <v>44191</v>
       </c>
       <c r="B143">
-        <v>23.941030757866201</v>
+        <v>55.244172041778398</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44200</v>
+        <v>44192</v>
       </c>
       <c r="B144">
-        <v>23.176308753932201</v>
+        <v>55.740147469069903</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44201</v>
+        <v>44193</v>
       </c>
       <c r="B145">
-        <v>22.429739927005699</v>
+        <v>56.282121258575103</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="B146">
-        <v>21.701232181649001</v>
+        <v>56.716311610978003</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>44203</v>
+        <v>44195</v>
       </c>
       <c r="B147">
-        <v>20.991047014625401</v>
+        <v>56.924999833062401</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44204</v>
+        <v>44196</v>
       </c>
       <c r="B148">
-        <v>20.2997870292103</v>
+        <v>56.853107455145199</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44205</v>
+        <v>44197</v>
       </c>
       <c r="B149">
-        <v>19.628369988450501</v>
+        <v>56.504735392863303</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44206</v>
+        <v>44198</v>
       </c>
       <c r="B150">
-        <v>18.977983449978598</v>
+        <v>55.928818642110201</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44207</v>
+        <v>44199</v>
       </c>
       <c r="B151">
-        <v>18.350011593832299</v>
+        <v>55.194028548620302</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="B152">
-        <v>17.745923676005798</v>
+        <v>54.305129985132403</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44209</v>
+        <v>44201</v>
       </c>
       <c r="B153">
-        <v>17.1671123955932</v>
+        <v>53.140940943568701</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="B154">
-        <v>16.612418391345699</v>
+        <v>51.641455977642998</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>44211</v>
+        <v>44203</v>
       </c>
       <c r="B155">
-        <v>16.073114937816499</v>
+        <v>49.836336480930797</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>44212</v>
+        <v>44204</v>
       </c>
       <c r="B156">
-        <v>15.5423774579429</v>
+        <v>47.832805525041103</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44213</v>
+        <v>44205</v>
       </c>
       <c r="B157">
-        <v>15.0168274471005</v>
+        <v>45.803550131381598</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>44214</v>
+        <v>44206</v>
       </c>
       <c r="B158">
-        <v>14.4954960172378</v>
+        <v>43.946632858430199</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>44215</v>
+        <v>44207</v>
       </c>
       <c r="B159">
-        <v>13.978917063370901</v>
+        <v>42.4123204972541</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>44216</v>
+        <v>44208</v>
       </c>
       <c r="B160">
-        <v>13.468331521596999</v>
+        <v>41.196463310310399</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>44217</v>
+        <v>44209</v>
       </c>
       <c r="B161">
-        <v>12.964990903548999</v>
+        <v>40.096768342614901</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="B162">
-        <v>12.470067673311499</v>
+        <v>39.064330110297</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>44219</v>
+        <v>44211</v>
       </c>
       <c r="B163">
-        <v>11.9849542422546</v>
+        <v>38.133750554776697</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44220</v>
+        <v>44212</v>
       </c>
       <c r="B164">
-        <v>11.511839581419499</v>
+        <v>37.331231279654801</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>44221</v>
+        <v>44213</v>
       </c>
       <c r="B165">
-        <v>11.0545599831638</v>
+        <v>36.660249806842202</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44222</v>
+        <v>44214</v>
       </c>
       <c r="B166">
-        <v>10.6196227973963</v>
+        <v>36.093371412356298</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="B167">
-        <v>10.2123752741649</v>
+        <v>35.569603461266603</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="B168">
-        <v>9.8321707745995308</v>
+        <v>35.010601529791899</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44225</v>
+        <v>44217</v>
       </c>
       <c r="B169">
-        <v>9.47751507788373</v>
+        <v>34.349242333116003</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>44226</v>
+        <v>44218</v>
       </c>
       <c r="B170">
-        <v>9.1468486430147298</v>
+        <v>33.578149843710399</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44227</v>
+        <v>44219</v>
       </c>
       <c r="B171">
-        <v>8.8387119869316404</v>
+        <v>32.7980984403695</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>44228</v>
+        <v>44220</v>
       </c>
       <c r="B172">
-        <v>8.5518591854168093</v>
+        <v>32.093085211184103</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>44229</v>
+        <v>44221</v>
       </c>
       <c r="B173">
-        <v>8.2853320665650205</v>
+        <v>31.458232706717201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44230</v>
+        <v>44222</v>
       </c>
       <c r="B174">
-        <v>8.0385060476152592</v>
+        <v>30.846876165085099</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44231</v>
+        <v>44223</v>
       </c>
       <c r="B175">
-        <v>7.8111160828131396</v>
+        <v>30.204076124524502</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>44232</v>
+        <v>44224</v>
       </c>
       <c r="B176">
-        <v>7.6032685500943202</v>
+        <v>29.487796354436899</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44233</v>
+        <v>44225</v>
       </c>
       <c r="B177">
-        <v>7.4154423894745296</v>
+        <v>28.680355572220002</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>44234</v>
+        <v>44226</v>
       </c>
       <c r="B178">
-        <v>7.2484804530869704</v>
+        <v>27.7865180625265</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>44235</v>
+        <v>44227</v>
       </c>
       <c r="B179">
-        <v>7.1035697507877504</v>
+        <v>26.827061042821502</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44236</v>
+        <v>44228</v>
       </c>
       <c r="B180">
-        <v>6.98220694978352</v>
+        <v>25.8261045260112</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44237</v>
+        <v>44229</v>
       </c>
       <c r="B181">
-        <v>6.8861430063930102</v>
+        <v>24.7393100607013</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44238</v>
+        <v>44230</v>
       </c>
       <c r="B182">
-        <v>6.8172981569207396</v>
+        <v>23.466457189086</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>44239</v>
+        <v>44231</v>
       </c>
       <c r="B183">
-        <v>6.7776358455016901</v>
+        <v>22.025078212560501</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>44240</v>
+        <v>44232</v>
       </c>
       <c r="B184">
-        <v>6.7689820329925503</v>
+        <v>20.503990463608499</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44241</v>
+        <v>44233</v>
       </c>
       <c r="B185">
-        <v>6.7927757803061999</v>
+        <v>19.009017031784101</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>44242</v>
+        <v>44234</v>
       </c>
       <c r="B186">
-        <v>6.84964556556515</v>
+        <v>17.628073135797599</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44243</v>
+        <v>44235</v>
       </c>
       <c r="B187">
-        <v>6.9338289797620298</v>
+        <v>16.415484882323401</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>44244</v>
+        <v>44236</v>
       </c>
       <c r="B188">
-        <v>7.0316807559944197</v>
+        <v>15.3871432099474</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="B189">
-        <v>7.1301056741894699</v>
+        <v>14.5121050312382</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="B190">
-        <v>7.2169782246231504</v>
+        <v>13.721976730013401</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>44247</v>
+        <v>44239</v>
       </c>
       <c r="B191">
-        <v>7.2814217282811002</v>
+        <v>13.0092337268797</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44248</v>
+        <v>44240</v>
       </c>
       <c r="B192">
-        <v>7.3145904049975297</v>
+        <v>12.4147214755405</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>44249</v>
+        <v>44241</v>
       </c>
       <c r="B193">
-        <v>7.3106056435983904</v>
+        <v>11.9787190763263</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44250</v>
+        <v>44242</v>
       </c>
       <c r="B194">
-        <v>7.2672401155962696</v>
+        <v>11.7157532373064</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="B195">
-        <v>7.1867330798620301</v>
+        <v>11.5984436048752</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="B196">
-        <v>7.0759131428431203</v>
+        <v>11.553420256255301</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>44253</v>
+        <v>44245</v>
       </c>
       <c r="B197">
-        <v>6.94596888789202</v>
+        <v>11.4835496414792</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>44254</v>
+        <v>44246</v>
       </c>
       <c r="B198">
-        <v>6.812283404175</v>
+        <v>11.3119307695481</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>44255</v>
+        <v>44247</v>
       </c>
       <c r="B199">
-        <v>6.6934832277631902</v>
+        <v>11.0556652715351</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>44256</v>
+        <v>44248</v>
       </c>
       <c r="B200">
-        <v>6.5979842482719597</v>
+        <v>10.7921295701591</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>44257</v>
+        <v>44249</v>
       </c>
       <c r="B201">
-        <v>6.5254866491390597</v>
+        <v>10.5119823430751</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44258</v>
+        <v>44250</v>
       </c>
       <c r="B202">
-        <v>6.4750041330888202</v>
+        <v>10.2229067373113</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>44259</v>
+        <v>44251</v>
       </c>
       <c r="B203">
-        <v>6.4452456123216804</v>
+        <v>9.9473641420961592</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="B204">
-        <v>6.4347976049373896</v>
+        <v>9.7051547860445204</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>44261</v>
+        <v>44253</v>
       </c>
       <c r="B205">
-        <v>6.4422570514914002</v>
+        <v>9.5019501022091895</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>44262</v>
+        <v>44254</v>
       </c>
       <c r="B206">
-        <v>6.4663244994026998</v>
+        <v>9.3277218709640195</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>44263</v>
+        <v>44255</v>
       </c>
       <c r="B207">
-        <v>6.5058673604941699</v>
+        <v>9.1654143742141496</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44264</v>
+        <v>44256</v>
       </c>
       <c r="B208">
-        <v>6.5599615132306397</v>
+        <v>9.0048252306699492</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>44265</v>
+        <v>44257</v>
       </c>
       <c r="B209">
-        <v>6.6279176851530597</v>
+        <v>8.8536438956550594</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>44266</v>
+        <v>44258</v>
       </c>
       <c r="B210">
-        <v>6.7092971992092698</v>
+        <v>8.7115810072831597</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>44267</v>
+        <v>44259</v>
       </c>
       <c r="B211">
-        <v>6.8039199376592503</v>
+        <v>8.5823191577170199</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>44268</v>
+        <v>44260</v>
       </c>
       <c r="B212">
-        <v>6.9118657667585204</v>
+        <v>8.4761399253715997</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>44269</v>
+        <v>44261</v>
       </c>
       <c r="B213">
-        <v>7.0334691037887298</v>
+        <v>8.4016470287678207</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44270</v>
+        <v>44262</v>
       </c>
       <c r="B214">
-        <v>7.1693047040466196</v>
+        <v>8.3608909348096603</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44271</v>
+        <v>44263</v>
       </c>
       <c r="B215">
-        <v>7.3201610291576404</v>
+        <v>8.3469913694068207</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>44272</v>
+        <v>44264</v>
       </c>
       <c r="B216">
-        <v>7.4869957330767098</v>
+        <v>8.3457647969647493</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44273</v>
+        <v>44265</v>
       </c>
       <c r="B217">
-        <v>7.6708660250236198</v>
+        <v>8.3411504864301804</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44274</v>
+        <v>44266</v>
       </c>
       <c r="B218">
-        <v>7.8728253686043796</v>
+        <v>8.3255054783648603</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44275</v>
+        <v>44267</v>
       </c>
       <c r="B219">
-        <v>8.0935087423860104</v>
+        <v>8.3060966697746608</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44276</v>
+        <v>44268</v>
       </c>
       <c r="B220">
-        <v>8.3307927415869294</v>
+        <v>8.2806325858615892</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44277</v>
+        <v>44269</v>
       </c>
       <c r="B221">
-        <v>8.5826557430110508</v>
+        <v>8.2513505062633801</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44278</v>
+        <v>44270</v>
       </c>
       <c r="B222">
-        <v>8.8488603541561002</v>
+        <v>8.2255110040943702</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>44279</v>
+        <v>44271</v>
       </c>
       <c r="B223">
-        <v>9.1299987943607999</v>
+        <v>8.2099567264363191</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="B224">
-        <v>9.4266266524526792</v>
+        <v>8.20754850801187</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44281</v>
+        <v>44273</v>
       </c>
       <c r="B225">
-        <v>9.7386170602310003</v>
+        <v>8.2159660402957506</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44282</v>
+        <v>44274</v>
       </c>
       <c r="B226">
-        <v>10.064844690437001</v>
+        <v>8.2299614424436793</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44283</v>
+        <v>44275</v>
       </c>
       <c r="B227">
-        <v>10.4033567435583</v>
+        <v>8.2451949337410895</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44284</v>
+        <v>44276</v>
       </c>
       <c r="B228">
-        <v>10.7520782083344</v>
+        <v>8.2629529801793407</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="B229">
-        <v>11.109693151237501</v>
+        <v>8.2900328718105207</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>44286</v>
+        <v>44278</v>
       </c>
       <c r="B230">
-        <v>11.4766116241407</v>
+        <v>8.3368573163234192</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44287</v>
+        <v>44279</v>
       </c>
       <c r="B231">
-        <v>11.855965055526999</v>
+        <v>8.4052529162045495</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44288</v>
+        <v>44280</v>
       </c>
       <c r="B232">
-        <v>12.252748241073499</v>
+        <v>8.4902306703954498</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44289</v>
+        <v>44281</v>
       </c>
       <c r="B233">
-        <v>12.6672661564669</v>
+        <v>8.5831658715912305</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44290</v>
+        <v>44282</v>
       </c>
       <c r="B234">
-        <v>13.098289827267299</v>
+        <v>8.6746199399191806</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44291</v>
+        <v>44283</v>
       </c>
       <c r="B235">
-        <v>13.544688456294301</v>
+        <v>8.7563639986962905</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44292</v>
+        <v>44284</v>
       </c>
       <c r="B236">
-        <v>14.005515565304799</v>
+        <v>8.8231365867407199</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44293</v>
+        <v>44285</v>
       </c>
       <c r="B237">
-        <v>14.480063247613201</v>
+        <v>8.8757916038744291</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="B238">
-        <v>14.967893643791299</v>
+        <v>8.9282880809812095</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44295</v>
+        <v>44287</v>
       </c>
       <c r="B239">
-        <v>15.468855003003601</v>
+        <v>8.9998774124213696</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44296</v>
+        <v>44288</v>
       </c>
       <c r="B240">
-        <v>15.983087643737999</v>
+        <v>9.0878352001046299</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44297</v>
+        <v>44289</v>
       </c>
       <c r="B241">
-        <v>16.511023159155702</v>
+        <v>9.1770312652506192</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44298</v>
+        <v>44290</v>
       </c>
       <c r="B242">
-        <v>17.0533784350282</v>
+        <v>9.2505763929406601</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44299</v>
+        <v>44291</v>
       </c>
       <c r="B243">
-        <v>17.611144428707501</v>
+        <v>9.2959228306612207</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="B244">
-        <v>18.185568096707598</v>
+        <v>9.3083764622240892</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="B245">
-        <v>18.778124240295501</v>
+        <v>9.2908390086638395</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="B246">
-        <v>19.390472266241002</v>
+        <v>9.2514177892966192</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44303</v>
+        <v>44295</v>
       </c>
       <c r="B247">
-        <v>20.024390896734801</v>
+        <v>9.1987430946901707</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44304</v>
+        <v>44296</v>
       </c>
       <c r="B248">
-        <v>20.681681794280902</v>
+        <v>9.1380300213206596</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44305</v>
+        <v>44297</v>
       </c>
       <c r="B249">
-        <v>21.3640312040041</v>
+        <v>9.0725146346424896</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="B250">
-        <v>22.0728177436471</v>
+        <v>8.9947161124307407</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44307</v>
+        <v>44299</v>
       </c>
       <c r="B251">
-        <v>22.808855650057399</v>
+        <v>8.8940513066493896</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="B252">
-        <v>23.577371415187098</v>
+        <v>8.7648711373135093</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="B253">
-        <v>24.3993357071246</v>
+        <v>8.6112112363620792</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44310</v>
+        <v>44302</v>
       </c>
       <c r="B254">
-        <v>25.2881531423435</v>
+        <v>8.4460032962793399</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44311</v>
+        <v>44303</v>
       </c>
       <c r="B255">
-        <v>26.243514097658601</v>
+        <v>8.2844542120453202</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44312</v>
+        <v>44304</v>
       </c>
       <c r="B256">
-        <v>27.2521008075128</v>
+        <v>8.1330813126086206</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44313</v>
+        <v>44305</v>
       </c>
       <c r="B257">
-        <v>28.289636080498099</v>
+        <v>7.9795208879271202</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>44314</v>
+        <v>44306</v>
       </c>
       <c r="B258">
-        <v>29.324684738043199</v>
+        <v>7.7995072619567898</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="B259">
-        <v>30.324025200833201</v>
+        <v>7.5833597813048197</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44316</v>
+        <v>44308</v>
       </c>
       <c r="B260">
-        <v>31.2587480860245</v>
+        <v>7.34240172477221</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>44317</v>
+        <v>44309</v>
       </c>
       <c r="B261">
-        <v>32.108941395775197</v>
+        <v>7.0957376692597798</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44318</v>
+        <v>44310</v>
       </c>
       <c r="B262">
-        <v>32.866178549992199</v>
+        <v>6.8619186168880901</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44319</v>
+        <v>44311</v>
       </c>
       <c r="B263">
-        <v>33.533976998978098</v>
+        <v>6.6540098374250798</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44320</v>
+        <v>44312</v>
       </c>
       <c r="B264">
-        <v>34.126844812799</v>
+        <v>6.4786965801366998</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44321</v>
+        <v>44313</v>
       </c>
       <c r="B265">
-        <v>34.664002094467797</v>
+        <v>6.3364229048671996</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>44322</v>
+        <v>44314</v>
       </c>
       <c r="B266">
-        <v>35.151377838546402</v>
+        <v>6.2206169213074398</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44323</v>
+        <v>44315</v>
       </c>
       <c r="B267">
-        <v>35.5914330041686</v>
+        <v>6.1172275574083104</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44324</v>
+        <v>44316</v>
       </c>
       <c r="B268">
-        <v>35.986971569444101</v>
+        <v>6.0183960768952396</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44325</v>
+        <v>44317</v>
       </c>
       <c r="B269">
-        <v>36.340797708514302</v>
+        <v>5.9333024049010001</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44326</v>
+        <v>44318</v>
       </c>
       <c r="B270">
-        <v>36.655472563358202</v>
+        <v>5.8761860157222596</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44327</v>
+        <v>44319</v>
       </c>
       <c r="B271">
-        <v>36.933149014426398</v>
+        <v>5.8563730803504903</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44328</v>
+        <v>44320</v>
       </c>
       <c r="B272">
-        <v>37.175464231844501</v>
+        <v>5.8721767046830999</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44329</v>
+        <v>44321</v>
       </c>
       <c r="B273">
-        <v>37.383473406443002</v>
+        <v>5.9100258183624499</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="B274">
-        <v>37.5576123500988</v>
+        <v>5.9508650481757597</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>44331</v>
+        <v>44323</v>
       </c>
       <c r="B275">
-        <v>37.697680887666998</v>
+        <v>5.9822096693392099</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44332</v>
+        <v>44324</v>
       </c>
       <c r="B276">
-        <v>37.802842918790397</v>
+        <v>6.0117727804704302</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44333</v>
+        <v>44325</v>
       </c>
       <c r="B277">
-        <v>37.871642766336201</v>
+        <v>5.9996278810724304</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44334</v>
+        <v>44326</v>
       </c>
       <c r="B278">
-        <v>37.902041135665499</v>
+        <v>5.8863505593507197</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44335</v>
+        <v>44327</v>
       </c>
       <c r="B279">
-        <v>37.891477895546402</v>
+        <v>5.71332847036145</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44336</v>
+        <v>44328</v>
       </c>
       <c r="B280">
-        <v>37.836973097557703</v>
+        <v>5.5646063808928599</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44337</v>
+        <v>44329</v>
       </c>
       <c r="B281">
-        <v>37.735282125596399</v>
+        <v>5.5163024497126099</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>44338</v>
+        <v>44330</v>
       </c>
       <c r="B282">
-        <v>37.583125182520298</v>
+        <v>5.6067666584309999</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44339</v>
+        <v>44331</v>
       </c>
       <c r="B283">
-        <v>37.377514388937101</v>
+        <v>5.8329758344206697</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44340</v>
+        <v>44332</v>
       </c>
       <c r="B284">
-        <v>37.116201461708599</v>
+        <v>6.1643201293768497</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44341</v>
+        <v>44333</v>
       </c>
       <c r="B285">
-        <v>36.798830276101697</v>
+        <v>6.5647060891218203</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B286">
-        <v>36.429237569207302</v>
+        <v>7.0288908128676901</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44343</v>
+        <v>44335</v>
       </c>
       <c r="B287">
-        <v>36.014699896763403</v>
+        <v>7.5936270354916999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44344</v>
+        <v>44336</v>
       </c>
       <c r="B288">
-        <v>35.566545682833798</v>
+        <v>8.2870040175555406</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44345</v>
+        <v>44337</v>
       </c>
       <c r="B289">
-        <v>35.1005169871002</v>
+        <v>9.1152544279485799</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44346</v>
+        <v>44338</v>
       </c>
       <c r="B290">
-        <v>34.635929973543902</v>
+        <v>10.060357827160001</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>44347</v>
+        <v>44339</v>
       </c>
       <c r="B291">
-        <v>34.1935760976164</v>
+        <v>11.076899612019901</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44348</v>
+        <v>44340</v>
       </c>
       <c r="B292">
-        <v>33.7928443089205</v>
+        <v>12.0946175380712</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44349</v>
+        <v>44341</v>
       </c>
       <c r="B293">
-        <v>33.448151432398099</v>
+        <v>13.0368462223342</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="B294">
-        <v>33.165937915681901</v>
+        <v>13.855069916274999</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44351</v>
+        <v>44343</v>
       </c>
       <c r="B295">
-        <v>32.943080375830803</v>
+        <v>14.583839182400499</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44352</v>
+        <v>44344</v>
       </c>
       <c r="B296">
-        <v>32.766251575267198</v>
+        <v>15.2809682154094</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44353</v>
+        <v>44345</v>
       </c>
       <c r="B297">
-        <v>32.611687742542202</v>
+        <v>15.9088405134274</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44354</v>
+        <v>44346</v>
       </c>
       <c r="B298">
-        <v>32.451892017856402</v>
+        <v>16.4533547131334</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44355</v>
+        <v>44347</v>
       </c>
       <c r="B299">
-        <v>32.2807460480212</v>
+        <v>16.9310151278336</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44356</v>
+        <v>44348</v>
       </c>
       <c r="B300">
-        <v>32.098664869428198</v>
+        <v>17.376126966722101</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44357</v>
+        <v>44349</v>
       </c>
       <c r="B301">
-        <v>31.9062430726662</v>
+        <v>17.829230397313101</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="B302">
-        <v>31.704158381591199</v>
+        <v>18.3260324532426</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>44359</v>
+        <v>44351</v>
       </c>
       <c r="B303">
-        <v>31.493100498064699</v>
+        <v>18.888077930548299</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>44360</v>
+        <v>44352</v>
       </c>
       <c r="B304">
-        <v>31.273720654478701</v>
+        <v>19.509686953067099</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44361</v>
+        <v>44353</v>
       </c>
       <c r="B305">
-        <v>31.046597092903198</v>
+        <v>20.147460552944899</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>44362</v>
+        <v>44354</v>
       </c>
       <c r="B306">
-        <v>30.812212228172001</v>
+        <v>20.727248836286599</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44363</v>
+        <v>44355</v>
       </c>
       <c r="B307">
-        <v>30.570938088035799</v>
+        <v>21.234652224589201</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44364</v>
+        <v>44356</v>
       </c>
       <c r="B308">
-        <v>30.3230275122515</v>
+        <v>21.721186309816499</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="B309">
-        <v>30.068609431518301</v>
+        <v>22.254460548482001</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44366</v>
+        <v>44358</v>
       </c>
       <c r="B310">
-        <v>29.807687316402198</v>
+        <v>22.8884971979078</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44367</v>
+        <v>44359</v>
       </c>
       <c r="B311">
-        <v>29.540140608805402</v>
+        <v>23.647690683243901</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44368</v>
+        <v>44360</v>
       </c>
       <c r="B312">
-        <v>29.265729665180402</v>
+        <v>24.526429195270001</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44369</v>
+        <v>44361</v>
       </c>
       <c r="B313">
-        <v>28.984105492390299</v>
+        <v>25.4977937772193</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>44370</v>
+        <v>44362</v>
       </c>
       <c r="B314">
-        <v>28.694826365876899</v>
+        <v>26.528618426965899</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="B315">
-        <v>28.397384262293698</v>
+        <v>27.658159368658499</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44372</v>
+        <v>44364</v>
       </c>
       <c r="B316">
-        <v>28.091244805320901</v>
+        <v>29.054836496966502</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44373</v>
+        <v>44365</v>
       </c>
       <c r="B317">
-        <v>27.775904858474298</v>
+        <v>30.718150880440302</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44374</v>
+        <v>44366</v>
       </c>
       <c r="B318">
-        <v>27.448717523463099</v>
+        <v>32.520182402944201</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44375</v>
+        <v>44367</v>
       </c>
       <c r="B319">
-        <v>27.099634034877202</v>
+        <v>34.294466522732101</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44376</v>
+        <v>44368</v>
       </c>
       <c r="B320">
-        <v>26.720519938158802</v>
+        <v>35.892404266879701</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44377</v>
+        <v>44369</v>
       </c>
       <c r="B321">
-        <v>26.3079594853027</v>
+        <v>37.218279903779802</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44378</v>
+        <v>44370</v>
       </c>
       <c r="B322">
-        <v>25.863405268649</v>
+        <v>38.241608442246203</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44379</v>
+        <v>44371</v>
       </c>
       <c r="B323">
-        <v>25.392913155807801</v>
+        <v>39.007925343073303</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44380</v>
+        <v>44372</v>
       </c>
       <c r="B324">
-        <v>24.9062100911752</v>
+        <v>39.627158632874703</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44381</v>
+        <v>44373</v>
       </c>
       <c r="B325">
-        <v>24.414963271725501</v>
+        <v>40.130585378487403</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44382</v>
+        <v>44374</v>
       </c>
       <c r="B326">
-        <v>23.930672411656001</v>
+        <v>40.4625146266361</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>44383</v>
+        <v>44375</v>
       </c>
       <c r="B327">
-        <v>23.462853778564298</v>
+        <v>40.552147084297097</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="B328">
-        <v>23.0177599367344</v>
+        <v>40.363735643587397</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="B329">
-        <v>22.597766629719899</v>
+        <v>39.926050395585101</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44386</v>
+        <v>44378</v>
       </c>
       <c r="B330">
-        <v>22.201313448429001</v>
+        <v>39.344063229402401</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44387</v>
+        <v>44379</v>
       </c>
       <c r="B331">
-        <v>21.824425578155001</v>
+        <v>38.771556506983401</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44388</v>
+        <v>44380</v>
       </c>
       <c r="B332">
-        <v>21.465780922426699</v>
+        <v>38.3515944654972</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>44389</v>
+        <v>44381</v>
       </c>
       <c r="B333">
-        <v>21.124667025739601</v>
+        <v>38.1174218988644</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44390</v>
+        <v>44382</v>
       </c>
       <c r="B334">
-        <v>20.8001112251142</v>
+        <v>37.925896536122899</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44391</v>
+        <v>44383</v>
       </c>
       <c r="B335">
-        <v>20.491031159599</v>
+        <v>37.720667873966804</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44392</v>
+        <v>44384</v>
       </c>
       <c r="B336">
-        <v>20.196345016138299</v>
+        <v>37.501081076019098</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44393</v>
+        <v>44385</v>
       </c>
       <c r="B337">
-        <v>19.915049114189799</v>
+        <v>37.270429419223902</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>44394</v>
+        <v>44386</v>
       </c>
       <c r="B338">
-        <v>19.646270573499201</v>
+        <v>37.0347215530293</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44395</v>
+        <v>44387</v>
       </c>
       <c r="B339">
-        <v>19.389301811129901</v>
+        <v>36.803087038859097</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44396</v>
+        <v>44388</v>
       </c>
       <c r="B340">
-        <v>19.143622190836499</v>
+        <v>36.587749119142003</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="B341">
-        <v>18.908910666569898</v>
+        <v>36.399592733350403</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44398</v>
+        <v>44390</v>
       </c>
       <c r="B342">
-        <v>18.6850518671238</v>
+        <v>36.242304775971903</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="B343">
-        <v>18.4721367788216</v>
+        <v>36.104875357120903</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="B344">
-        <v>18.270457951736699</v>
+        <v>35.993902215034304</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44401</v>
+        <v>44393</v>
       </c>
       <c r="B345">
-        <v>18.080497913167601</v>
+        <v>35.965611561259898</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44402</v>
+        <v>44394</v>
       </c>
       <c r="B346">
-        <v>17.902908159847101</v>
+        <v>36.018699181763701</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44403</v>
+        <v>44395</v>
       </c>
       <c r="B347">
-        <v>17.738474702766801</v>
+        <v>36.1080868780369</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>44404</v>
+        <v>44396</v>
       </c>
       <c r="B348">
-        <v>17.588064738848601</v>
+        <v>36.176149462023702</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44405</v>
+        <v>44397</v>
       </c>
       <c r="B349">
-        <v>17.452547884199902</v>
+        <v>36.174037164075997</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44406</v>
+        <v>44398</v>
       </c>
       <c r="B350">
-        <v>17.332685076363202</v>
+        <v>36.074315401003901</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44407</v>
+        <v>44399</v>
       </c>
       <c r="B351">
-        <v>17.225457809865901</v>
+        <v>35.8744741928056</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44408</v>
+        <v>44400</v>
       </c>
       <c r="B352">
-        <v>17.115716570832401</v>
+        <v>35.597891189107699</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44409</v>
+        <v>44401</v>
       </c>
       <c r="B353">
-        <v>16.990405826092601</v>
+        <v>35.2809737380515</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>44410</v>
+        <v>44402</v>
       </c>
       <c r="B354">
-        <v>16.842066807677799</v>
+        <v>34.918543574303499</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44411</v>
+        <v>44403</v>
       </c>
       <c r="B355">
-        <v>16.6684242799437</v>
+        <v>34.493290616562597</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44412</v>
+        <v>44404</v>
       </c>
       <c r="B356">
-        <v>16.4718450843665</v>
+        <v>33.998127273222103</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="B357">
-        <v>16.258395248025099</v>
+        <v>33.438050506155001</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44414</v>
+        <v>44406</v>
       </c>
       <c r="B358">
-        <v>16.036269819408801</v>
+        <v>32.8313052271101</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44415</v>
+        <v>44407</v>
       </c>
       <c r="B359">
-        <v>15.8143670897863</v>
+        <v>32.209150449146101</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44416</v>
+        <v>44408</v>
       </c>
       <c r="B360">
-        <v>15.601180548383899</v>
+        <v>31.609361507706399</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44417</v>
+        <v>44409</v>
       </c>
       <c r="B361">
-        <v>15.404149603390501</v>
+        <v>31.063256325413398</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="B362">
-        <v>15.229641979765599</v>
+        <v>30.5718575228119</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44419</v>
+        <v>44411</v>
       </c>
       <c r="B363">
-        <v>15.083485729891599</v>
+        <v>30.063810309422902</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44420</v>
+        <v>44412</v>
       </c>
       <c r="B364">
-        <v>14.969343816736201</v>
+        <v>29.439537302555198</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="B365">
-        <v>14.886828621966799</v>
+        <v>28.727678374866102</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44422</v>
+        <v>44414</v>
       </c>
       <c r="B366">
-        <v>14.8345762563075</v>
+        <v>28.0284693487047</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44423</v>
+        <v>44415</v>
       </c>
       <c r="B367">
-        <v>14.810862568698299</v>
+        <v>27.444537213603699</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44424</v>
+        <v>44416</v>
       </c>
       <c r="B368">
-        <v>14.8138485753186</v>
+        <v>27.0385137176409</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="B369">
-        <v>14.8417578506262</v>
+        <v>26.817061026609</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>44426</v>
+        <v>44418</v>
       </c>
       <c r="B370">
-        <v>14.8929996368581</v>
+        <v>26.744111596282099</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44427</v>
+        <v>44419</v>
       </c>
       <c r="B371">
-        <v>14.9662510774157</v>
+        <v>26.769076795006399</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44428</v>
+        <v>44420</v>
       </c>
       <c r="B372">
-        <v>15.0605099009531</v>
+        <v>26.868282818524801</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>44429</v>
+        <v>44421</v>
       </c>
       <c r="B373">
-        <v>15.175126216292901</v>
+        <v>27.082278806408201</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44430</v>
+        <v>44422</v>
       </c>
       <c r="B374">
-        <v>15.3098193789299</v>
+        <v>27.480909756516301</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44431</v>
+        <v>44423</v>
       </c>
       <c r="B375">
-        <v>15.464683351836999</v>
+        <v>28.082414925473401</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44432</v>
+        <v>44424</v>
       </c>
       <c r="B376">
-        <v>15.6401816001098</v>
+        <v>28.8572665902946</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="B377">
-        <v>15.8371302299955</v>
+        <v>29.736645051902698</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="B378">
-        <v>16.0566656861029</v>
+        <v>30.619479824460502</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>44435</v>
+        <v>44427</v>
       </c>
       <c r="B379">
-        <v>16.300190777627499</v>
+        <v>31.3948990620834</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44436</v>
+        <v>44428</v>
       </c>
       <c r="B380">
-        <v>16.5692901616077</v>
+        <v>31.978638092364399</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44437</v>
+        <v>44429</v>
       </c>
       <c r="B381">
-        <v>16.865603961473099</v>
+        <v>32.373171431595097</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>44438</v>
+        <v>44430</v>
       </c>
       <c r="B382">
-        <v>17.190646660378899</v>
+        <v>32.716662647540801</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44439</v>
+        <v>44431</v>
       </c>
       <c r="B383">
-        <v>17.544699409097301</v>
+        <v>33.092519969012102</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>44440</v>
+        <v>44432</v>
       </c>
       <c r="B384">
-        <v>17.880401979112399</v>
+        <v>33.4641843573975</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44441</v>
+        <v>44433</v>
       </c>
       <c r="B385">
-        <v>18.099438799364599</v>
+        <v>33.756991980843402</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44442</v>
+        <v>44434</v>
       </c>
       <c r="B386">
-        <v>18.137713002215602</v>
+        <v>33.908766311342099</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44443</v>
+        <v>44435</v>
       </c>
       <c r="B387">
-        <v>17.970882019251299</v>
+        <v>33.899450459146898</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44444</v>
+        <v>44436</v>
       </c>
       <c r="B388">
-        <v>17.612106428668</v>
+        <v>33.760609831024297</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44445</v>
+        <v>44437</v>
       </c>
       <c r="B389">
-        <v>17.106907697917599</v>
+        <v>33.555511799456802</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44446</v>
+        <v>44438</v>
       </c>
       <c r="B390">
-        <v>16.523623020404202</v>
+        <v>33.342500127702401</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44447</v>
+        <v>44439</v>
       </c>
       <c r="B391">
-        <v>15.939246965495</v>
+        <v>33.1186626456673</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>44448</v>
+        <v>44440</v>
       </c>
       <c r="B392">
-        <v>15.4268248949443</v>
+        <v>32.850136398199602</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44449</v>
+        <v>44441</v>
       </c>
       <c r="B393">
-        <v>15.0460645579911</v>
+        <v>32.524525202632198</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44450</v>
+        <v>44442</v>
       </c>
       <c r="B394">
-        <v>14.838598631296099</v>
+        <v>32.0816502014954</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>44451</v>
+        <v>44443</v>
       </c>
       <c r="B395">
-        <v>14.8282175513366</v>
+        <v>31.461779431598199</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44452</v>
+        <v>44444</v>
       </c>
       <c r="B396">
-        <v>15.024800881129201</v>
+        <v>30.649018502850101</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44453</v>
+        <v>44445</v>
       </c>
       <c r="B397">
-        <v>15.4282526224113</v>
+        <v>29.6911000273493</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>44454</v>
+        <v>44446</v>
       </c>
       <c r="B398">
-        <v>16.032026589122299</v>
+        <v>28.683217630702298</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44455</v>
+        <v>44447</v>
       </c>
       <c r="B399">
-        <v>16.826231769905799</v>
+        <v>27.7230857446933</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44456</v>
+        <v>44448</v>
       </c>
       <c r="B400">
-        <v>17.799497068260798</v>
+        <v>26.841588712635801</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44457</v>
+        <v>44449</v>
       </c>
       <c r="B401">
-        <v>18.940344748162499</v>
+        <v>25.931652645829001</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44458</v>
+        <v>44450</v>
       </c>
       <c r="B402">
-        <v>20.238165236642399</v>
+        <v>24.803469976457599</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>44459</v>
+        <v>44451</v>
       </c>
       <c r="B403">
-        <v>21.683881925742401</v>
+        <v>23.408945707677098</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44460</v>
+        <v>44452</v>
       </c>
       <c r="B404">
-        <v>23.270386813766699</v>
+        <v>21.842053738582599</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>44461</v>
+        <v>44453</v>
       </c>
       <c r="B405">
-        <v>24.992812304730698</v>
+        <v>20.246913400746301</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44462</v>
+        <v>44454</v>
       </c>
       <c r="B406">
-        <v>26.848686884806099</v>
+        <v>18.7649240114267</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44463</v>
+        <v>44455</v>
       </c>
       <c r="B407">
-        <v>28.838005207670701</v>
+        <v>17.5044651700887</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44464</v>
+        <v>44456</v>
       </c>
       <c r="B408">
-        <v>30.963226967292901</v>
+        <v>16.527962120923402</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44465</v>
+        <v>44457</v>
       </c>
       <c r="B409">
-        <v>33.229203448883702</v>
+        <v>15.842441814155899</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44466</v>
+        <v>44458</v>
       </c>
       <c r="B410">
-        <v>35.643015055930597</v>
+        <v>15.381309221632501</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44467</v>
+        <v>44459</v>
       </c>
       <c r="B411">
-        <v>38.213686680104601</v>
+        <v>15.0531969941065</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="B412">
-        <v>40.9517302747686</v>
+        <v>14.910511709466199</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44469</v>
+        <v>44461</v>
       </c>
       <c r="B413">
-        <v>43.868446315480398</v>
+        <v>15.014688259311299</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44470</v>
+        <v>44462</v>
       </c>
       <c r="B414">
-        <v>46.974901003095297</v>
+        <v>15.3799658260708</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44471</v>
+        <v>44463</v>
       </c>
       <c r="B415">
-        <v>50.280490603409902</v>
+        <v>15.9604200368451</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>44472</v>
+        <v>44464</v>
       </c>
       <c r="B416">
-        <v>53.806484604025499</v>
+        <v>16.6448838031605</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44473</v>
+        <v>44465</v>
       </c>
       <c r="B417">
-        <v>57.7278510017427</v>
+        <v>17.279511137150401</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>44474</v>
+        <v>44466</v>
       </c>
       <c r="B418">
-        <v>62.244024971807399</v>
+        <v>17.726076135487698</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44475</v>
+        <v>44467</v>
       </c>
       <c r="B419">
-        <v>67.443692429067994</v>
+        <v>17.954065039663501</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>44476</v>
+        <v>44468</v>
       </c>
       <c r="B420">
-        <v>73.301400745580594</v>
+        <v>18.105869153104301</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>44477</v>
+        <v>44469</v>
       </c>
       <c r="B421">
-        <v>79.684357541271098</v>
+        <v>18.238511110420198</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44478</v>
+        <v>44470</v>
       </c>
       <c r="B422">
-        <v>86.3737574293866</v>
+        <v>18.344008179091499</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44479</v>
+        <v>44471</v>
       </c>
       <c r="B423">
-        <v>93.102745076275497</v>
+        <v>18.416784044252601</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44480</v>
+        <v>44472</v>
       </c>
       <c r="B424">
-        <v>99.607277363677895</v>
+        <v>18.4564290456617</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>44481</v>
+        <v>44473</v>
       </c>
       <c r="B425">
-        <v>105.671210086328</v>
+        <v>18.468839598313998</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>44482</v>
+        <v>44474</v>
       </c>
       <c r="B426">
-        <v>111.15713338126901</v>
+        <v>18.466595998050501</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>44483</v>
+        <v>44475</v>
       </c>
       <c r="B427">
-        <v>116.020589771774</v>
+        <v>18.4669635421509</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44484</v>
+        <v>44476</v>
       </c>
       <c r="B428">
-        <v>120.310165929717</v>
+        <v>18.486359073127701</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44485</v>
+        <v>44477</v>
       </c>
       <c r="B429">
-        <v>124.128137403165</v>
+        <v>18.5297514367203</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44486</v>
+        <v>44478</v>
       </c>
       <c r="B430">
-        <v>127.506279475591</v>
+        <v>18.595657347149999</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44487</v>
+        <v>44479</v>
       </c>
       <c r="B431">
-        <v>130.46052165051501</v>
+        <v>18.7137202844443</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44488</v>
+        <v>44480</v>
       </c>
       <c r="B432">
-        <v>133.01313450960001</v>
+        <v>18.875913492833401</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44489</v>
+        <v>44481</v>
       </c>
       <c r="B433">
-        <v>135.18901811085101</v>
+        <v>19.047280269086599</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44490</v>
+        <v>44482</v>
       </c>
       <c r="B434">
-        <v>137.01296919083501</v>
+        <v>19.189797831336399</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="B435">
-        <v>138.507752873822</v>
+        <v>19.275739956027898</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44492</v>
+        <v>44484</v>
       </c>
       <c r="B436">
-        <v>139.69279330533899</v>
+        <v>19.293633821718402</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>44493</v>
+        <v>44485</v>
       </c>
       <c r="B437">
-        <v>140.583318385794</v>
+        <v>19.2464032024297</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44494</v>
+        <v>44486</v>
       </c>
       <c r="B438">
-        <v>141.18982741800301</v>
+        <v>19.147143300252601</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44495</v>
+        <v>44487</v>
       </c>
       <c r="B439">
-        <v>141.51778687022301</v>
+        <v>19.011471984652999</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="B440">
-        <v>141.567494352398</v>
+        <v>18.835048686086399</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44497</v>
+        <v>44489</v>
       </c>
       <c r="B441">
-        <v>141.33408350482301</v>
+        <v>18.5790823690579</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44498</v>
+        <v>44490</v>
       </c>
       <c r="B442">
-        <v>140.80767378272</v>
+        <v>18.220605424884599</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>44499</v>
+        <v>44491</v>
       </c>
       <c r="B443">
-        <v>139.973700753348</v>
+        <v>17.764078761078601</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>44500</v>
+        <v>44492</v>
       </c>
       <c r="B444">
-        <v>138.813496021649</v>
+        <v>17.239596744256801</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>44501</v>
+        <v>44493</v>
       </c>
       <c r="B445">
-        <v>137.30522172671701</v>
+        <v>16.698148740178802</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44502</v>
+        <v>44494</v>
       </c>
       <c r="B446">
-        <v>135.42530080129899</v>
+        <v>16.1977992454194</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44503</v>
+        <v>44495</v>
       </c>
       <c r="B447">
-        <v>133.150514595603</v>
+        <v>15.782801016857899</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44504</v>
+        <v>44496</v>
       </c>
       <c r="B448">
-        <v>130.460950593679</v>
+        <v>15.4530148806332</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44505</v>
+        <v>44497</v>
       </c>
       <c r="B449">
-        <v>127.320744707175</v>
+        <v>15.140696469018099</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>44506</v>
+        <v>44498</v>
       </c>
       <c r="B450">
-        <v>123.62776933749301</v>
+        <v>14.776374842747799</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44507</v>
+        <v>44499</v>
       </c>
       <c r="B451">
-        <v>119.31627382952399</v>
+        <v>14.3588998042654</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44508</v>
+        <v>44500</v>
       </c>
       <c r="B452">
-        <v>114.39395892647801</v>
+        <v>13.933332272286499</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44509</v>
+        <v>44501</v>
       </c>
       <c r="B453">
-        <v>108.947915305197</v>
+        <v>13.552837593729301</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44510</v>
+        <v>44502</v>
       </c>
       <c r="B454">
-        <v>103.13992882633799</v>
+        <v>13.256811888688601</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="B455">
-        <v>97.187359745574994</v>
+        <v>13.0595902515979</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>44512</v>
+        <v>44504</v>
       </c>
       <c r="B456">
-        <v>91.330034419938499</v>
+        <v>12.9524355460035</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44513</v>
+        <v>44505</v>
       </c>
       <c r="B457">
-        <v>85.786916265385898</v>
+        <v>12.912017546390899</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B458">
-        <v>80.716676790339903</v>
+        <v>12.9147427406531</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44515</v>
+        <v>44507</v>
       </c>
       <c r="B459">
-        <v>76.191363248196694</v>
+        <v>12.9528561171155</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44516</v>
+        <v>44508</v>
       </c>
       <c r="B460">
-        <v>72.182894688153397</v>
+        <v>13.0363709622815</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44517</v>
+        <v>44509</v>
       </c>
       <c r="B461">
-        <v>68.558781805134501</v>
+        <v>13.1964048780073</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44518</v>
+        <v>44510</v>
       </c>
       <c r="B462">
-        <v>65.133605375270307</v>
+        <v>13.460495541736501</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="B463">
-        <v>61.861469164876297</v>
+        <v>13.8322540763803</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>44520</v>
+        <v>44512</v>
       </c>
       <c r="B464">
-        <v>58.7370407315859</v>
+        <v>14.2805241653527</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>44521</v>
+        <v>44513</v>
       </c>
       <c r="B465">
-        <v>55.752446659261999</v>
+        <v>14.746202949412901</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44522</v>
+        <v>44514</v>
       </c>
       <c r="B466">
-        <v>52.898593054756802</v>
+        <v>15.168994314922699</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="B467">
-        <v>50.1661447421844</v>
+        <v>15.530026671049599</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>44524</v>
+        <v>44516</v>
       </c>
       <c r="B468">
-        <v>47.546222958076001</v>
+        <v>15.8819681126791</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44525</v>
+        <v>44517</v>
       </c>
       <c r="B469">
-        <v>45.030885458120601</v>
+        <v>16.2472381569272</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44526</v>
+        <v>44518</v>
       </c>
       <c r="B470">
-        <v>42.613446354423203</v>
+        <v>16.631017538694099</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44527</v>
+        <v>44519</v>
       </c>
       <c r="B471">
-        <v>40.288682105358397</v>
+        <v>17.0399077553175</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44528</v>
+        <v>44520</v>
       </c>
       <c r="B472">
-        <v>38.052958290811397</v>
+        <v>17.476731788693002</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44529</v>
+        <v>44521</v>
       </c>
       <c r="B473">
-        <v>35.904300594551898</v>
+        <v>17.936886904338301</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44530</v>
+        <v>44522</v>
       </c>
       <c r="B474">
-        <v>33.842423110941098</v>
+        <v>18.406029315642499</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44531</v>
+        <v>44523</v>
       </c>
       <c r="B475">
-        <v>31.8687174159659</v>
+        <v>18.8643959139348</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>44532</v>
+        <v>44524</v>
       </c>
       <c r="B476">
-        <v>29.986196247868499</v>
+        <v>19.295049555816199</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="B477">
-        <v>28.199375564303001</v>
+        <v>19.6967336070079</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44534</v>
+        <v>44526</v>
       </c>
       <c r="B478">
-        <v>26.514067839680099</v>
+        <v>20.088402127103802</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44535</v>
+        <v>44527</v>
       </c>
       <c r="B479">
-        <v>24.937047967938799</v>
+        <v>20.470815602213602</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44536</v>
+        <v>44528</v>
       </c>
       <c r="B480">
-        <v>23.475542385173501</v>
+        <v>20.8477237502474</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>44537</v>
+        <v>44529</v>
       </c>
       <c r="B481">
-        <v>22.136485276773499</v>
+        <v>21.228557459054301</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44538</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>20.918665643029101</v>
+        <v>21.622739961535999</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>44539</v>
+        <v>44531</v>
       </c>
       <c r="B483">
-        <v>19.796678453148498</v>
+        <v>22.036939625529602</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>44540</v>
+        <v>44532</v>
       </c>
       <c r="B484">
-        <v>18.7480428439187</v>
+        <v>22.473982280898799</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44541</v>
+        <v>44533</v>
       </c>
       <c r="B485">
-        <v>17.756722072668101</v>
+        <v>22.932388212864499</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>44542</v>
+        <v>44534</v>
       </c>
       <c r="B486">
-        <v>16.809457620774499</v>
+        <v>23.407142337165599</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44543</v>
+        <v>44535</v>
       </c>
       <c r="B487">
-        <v>15.8933971032752</v>
+        <v>23.892106977980699</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>44544</v>
+        <v>44536</v>
       </c>
       <c r="B488">
-        <v>14.9951703232828</v>
+        <v>24.405046103929202</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="B489">
-        <v>14.101051811584099</v>
+        <v>24.9975104124577</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44546</v>
+        <v>44538</v>
       </c>
       <c r="B490">
-        <v>13.199153234563401</v>
+        <v>25.657858902551499</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44547</v>
+        <v>44539</v>
       </c>
       <c r="B491">
-        <v>12.283038881901099</v>
+        <v>26.333657165393699</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44548</v>
+        <v>44540</v>
       </c>
       <c r="B492">
-        <v>11.355082042681101</v>
+        <v>26.966585304214899</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>44549</v>
+        <v>44541</v>
       </c>
       <c r="B493">
-        <v>10.429785082705401</v>
+        <v>27.513748509351</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44550</v>
+        <v>44542</v>
       </c>
       <c r="B494">
-        <v>9.5372687022093992</v>
+        <v>27.956548010172199</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44551</v>
+        <v>44543</v>
       </c>
       <c r="B495">
-        <v>8.7158946439797997</v>
+        <v>28.299909895585198</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>44552</v>
+        <v>44544</v>
       </c>
       <c r="B496">
-        <v>7.9724282238621402</v>
+        <v>28.568313189171501</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>44553</v>
+        <v>44545</v>
       </c>
       <c r="B497">
-        <v>7.3029659115446801</v>
+        <v>28.756212548613998</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B498">
-        <v>6.7030778925016099</v>
+        <v>28.6884297392001</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>44555</v>
+        <v>44547</v>
       </c>
       <c r="B499">
-        <v>6.1683426380392703</v>
+        <v>28.327375499044798</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>44556</v>
+        <v>44548</v>
       </c>
       <c r="B500">
-        <v>5.6947250779296104</v>
+        <v>27.785165879617502</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>44557</v>
+        <v>44549</v>
       </c>
       <c r="B501">
-        <v>5.2788326506568097</v>
+        <v>27.2230073457823</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="B502">
-        <v>4.9180811068401598</v>
+        <v>26.7933189020073</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>44559</v>
+        <v>44551</v>
       </c>
       <c r="B503">
-        <v>4.6107961237164501</v>
+        <v>26.604987984272402</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="B504">
-        <v>4.3562699861755503</v>
+        <v>26.714216898147999</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="B505">
-        <v>4.1547859248395396</v>
+        <v>27.118454508715399</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44562</v>
+        <v>44554</v>
       </c>
       <c r="B506">
-        <v>4.0076165017654501</v>
+        <v>27.742919391140799</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44563</v>
+        <v>44555</v>
       </c>
       <c r="B507">
-        <v>3.9169965979211399</v>
+        <v>28.2768636695724</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>44564</v>
+        <v>44556</v>
       </c>
       <c r="B508">
-        <v>3.8860657892336001</v>
+        <v>28.1412659951914</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>44565</v>
+        <v>44557</v>
       </c>
       <c r="B509">
-        <v>3.9187688742198401</v>
+        <v>27.526054021199499</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="B510">
-        <v>4.01969682495917</v>
+        <v>27.073612397152701</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>44567</v>
+        <v>44559</v>
       </c>
       <c r="B511">
-        <v>4.1938435663048201</v>
+        <v>27.425131776364999</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>44568</v>
+        <v>44560</v>
       </c>
       <c r="B512">
-        <v>4.4462474291970304</v>
+        <v>28.933107241812301</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>44569</v>
+        <v>44561</v>
       </c>
       <c r="B513">
-        <v>4.7814815827292296</v>
+        <v>31.565217847031199</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B514">
-        <v>5.2029585417842199</v>
+        <v>35.022242019195403</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B515">
-        <v>5.7142895996995202</v>
+        <v>38.973520162769098</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B516">
-        <v>6.3231835326165502</v>
+        <v>43.3277096257452</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B517">
-        <v>7.0298703292367204</v>
+        <v>47.919390382406299</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B518">
-        <v>7.8226226688284699</v>
+        <v>52.847099888937599</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B519">
-        <v>8.6772601802162992</v>
+        <v>58.599923508551697</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B520">
-        <v>9.5588629417892896</v>
+        <v>65.626471905638596</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B521">
-        <v>10.426034312596199</v>
+        <v>74.061317951522597</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B522">
-        <v>11.2371934218509</v>
+        <v>83.595341162241496</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B523">
-        <v>11.958372083208101</v>
+        <v>93.592814330242504</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B524">
-        <v>12.569422317163101</v>
+        <v>103.373139655887</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B525">
-        <v>13.067624945431</v>
+        <v>112.68188040862699</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B526">
-        <v>13.469161317167501</v>
+        <v>122.189150016941</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B527">
-        <v>13.8093588017923</v>
+        <v>132.56652812496401</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B528">
-        <v>14.131408296824</v>
+        <v>143.92564436646799</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B529">
-        <v>14.445403222139401</v>
+        <v>156.05390957444499</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B530">
-        <v>14.7516577213954</v>
+        <v>168.563249041978</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B531">
-        <v>15.0506011127055</v>
+        <v>180.973026762449</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B532">
-        <v>15.342711384400101</v>
+        <v>192.795387718477</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B533">
-        <v>15.628466474864901</v>
+        <v>203.657102446598</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B534">
-        <v>15.908309981025401</v>
+        <v>213.48222697464601</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B535">
-        <v>16.1826278757427</v>
+        <v>222.70574350986101</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B536">
-        <v>16.451733254291501</v>
+        <v>232.317489961322</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B537">
-        <v>16.715856757935899</v>
+        <v>243.807302147201</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B538">
-        <v>16.975140976384001</v>
+        <v>256.75348747886699</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="B539">
-        <v>17.2296377465177</v>
+        <v>269.63016497739699</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="B540">
-        <v>17.479307834132999</v>
+        <v>280.88599199244902</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>44597</v>
+        <v>44589</v>
       </c>
       <c r="B541">
-        <v>17.724023028737999</v>
+        <v>289.650135303247</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>44598</v>
+        <v>44590</v>
       </c>
       <c r="B542">
-        <v>17.9635712292304</v>
+        <v>295.91089484855098</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>44599</v>
+        <v>44591</v>
       </c>
       <c r="B543">
-        <v>18.197665677075602</v>
+        <v>300.25093013447201</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>44600</v>
+        <v>44592</v>
       </c>
       <c r="B544">
-        <v>18.425960110153699</v>
+        <v>303.38372398902999</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>44601</v>
+        <v>44593</v>
       </c>
       <c r="B545">
-        <v>18.648072228198</v>
+        <v>305.83325189225201</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>44602</v>
+        <v>44594</v>
       </c>
       <c r="B546">
-        <v>18.863618364421299</v>
+        <v>308.51877555705198</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>44603</v>
+        <v>44595</v>
       </c>
       <c r="B547">
-        <v>19.072262404523499</v>
+        <v>311.01776236291198</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>44604</v>
+        <v>44596</v>
       </c>
       <c r="B548">
-        <v>19.2749723961165</v>
+        <v>312.056623366758</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>44605</v>
+        <v>44597</v>
       </c>
       <c r="B549">
-        <v>19.476953139011201</v>
+        <v>310.46378473138998</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>44606</v>
+        <v>44598</v>
       </c>
       <c r="B550">
-        <v>19.682997883183699</v>
+        <v>305.73471043526303</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>44607</v>
+        <v>44599</v>
       </c>
       <c r="B551">
-        <v>19.896300493713699</v>
+        <v>298.31098650684203</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="B552">
-        <v>20.1185288317835</v>
+        <v>289.34935904936202</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>44609</v>
+        <v>44601</v>
       </c>
       <c r="B553">
-        <v>20.349893354591298</v>
+        <v>280.14837509967703</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>44610</v>
+        <v>44602</v>
       </c>
       <c r="B554">
-        <v>20.5893158348924</v>
+        <v>271.14404919269299</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>44611</v>
+        <v>44603</v>
       </c>
       <c r="B555">
-        <v>20.834813608190402</v>
+        <v>261.36846539525499</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="B556">
-        <v>21.0838599571948</v>
+        <v>249.811809761278</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>44613</v>
+        <v>44605</v>
       </c>
       <c r="B557">
-        <v>21.3337032840187</v>
+        <v>236.087305892909</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>44614</v>
+        <v>44606</v>
       </c>
       <c r="B558">
-        <v>21.581599880692998</v>
+        <v>220.42419585685801</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>44615</v>
+        <v>44607</v>
       </c>
       <c r="B559">
-        <v>21.824877879929701</v>
+        <v>203.53235750948301</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>44616</v>
+        <v>44608</v>
       </c>
       <c r="B560">
-        <v>22.0608351015644</v>
+        <v>186.477575949602</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="B561">
-        <v>22.287628484709501</v>
+        <v>170.43247682524699</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>44618</v>
+        <v>44610</v>
       </c>
       <c r="B562">
-        <v>22.505177162260399</v>
+        <v>156.275583764185</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>44619</v>
+        <v>44611</v>
       </c>
       <c r="B563">
-        <v>22.7138019216071</v>
+        <v>143.99400321229001</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>44620</v>
+        <v>44612</v>
       </c>
       <c r="B564">
-        <v>22.913986495060499</v>
+        <v>132.39785899691799</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>44621</v>
+        <v>44613</v>
       </c>
       <c r="B565">
-        <v>23.1062952569774</v>
+        <v>120.537550091399</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="B566">
-        <v>23.291312304825301</v>
+        <v>108.208570479024</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44623</v>
+        <v>44615</v>
       </c>
       <c r="B567">
-        <v>23.469598094735101</v>
+        <v>96.041480336524799</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>44624</v>
+        <v>44616</v>
       </c>
       <c r="B568">
-        <v>23.641659591521702</v>
+        <v>84.842634118420193</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>44625</v>
+        <v>44617</v>
       </c>
       <c r="B569">
-        <v>23.8079303331501</v>
+        <v>75.161350034306693</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>44626</v>
+        <v>44618</v>
       </c>
       <c r="B570">
-        <v>23.9687575037104</v>
+        <v>67.053730389244805</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>44627</v>
+        <v>44619</v>
       </c>
       <c r="B571">
-        <v>24.124393848912501</v>
+        <v>60.135077461815897</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>44628</v>
+        <v>44620</v>
       </c>
       <c r="B572">
-        <v>24.274992966602099</v>
+        <v>53.8144013727957</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="B573">
-        <v>24.4206071448499</v>
+        <v>47.687031831786499</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>44630</v>
+        <v>44622</v>
       </c>
       <c r="B574">
-        <v>24.561187521630199</v>
+        <v>41.862639063516198</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>44631</v>
+        <v>44623</v>
       </c>
       <c r="B575">
-        <v>24.696586938354901</v>
+        <v>36.400942486055499</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>44632</v>
+        <v>44624</v>
       </c>
       <c r="B576">
-        <v>24.826566489653398</v>
+        <v>31.618945545320202</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>44633</v>
+        <v>44625</v>
       </c>
       <c r="B577">
-        <v>24.950807451852398</v>
+        <v>27.914376283863501</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>44634</v>
+        <v>44626</v>
       </c>
       <c r="B578">
-        <v>25.0689309794124</v>
+        <v>25.488413342340898</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>44635</v>
+        <v>44627</v>
       </c>
       <c r="B579">
-        <v>25.180528590042002</v>
+        <v>24.172213166233501</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>44636</v>
+        <v>44628</v>
       </c>
       <c r="B580">
-        <v>25.285259825397599</v>
+        <v>23.4094034799047</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>44637</v>
+        <v>44629</v>
       </c>
       <c r="B581">
-        <v>25.3856876639781</v>
+        <v>22.484980152428999</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>44638</v>
+        <v>44630</v>
       </c>
       <c r="B582">
-        <v>25.487195465589199</v>
+        <v>20.939333433871901</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>44639</v>
+        <v>44631</v>
       </c>
       <c r="B583">
-        <v>25.592777753542801</v>
+        <v>19.116640153169001</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>44640</v>
+        <v>44632</v>
       </c>
       <c r="B584">
-        <v>25.703023686573101</v>
+        <v>17.426810009466799</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>44641</v>
+        <v>44633</v>
       </c>
       <c r="B585">
-        <v>25.816573376171998</v>
+        <v>15.9155443987129</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>44642</v>
+        <v>44634</v>
       </c>
       <c r="B586">
-        <v>25.9306781653424</v>
+        <v>14.690194304313399</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B587">
-        <v>26.041887515196802</v>
+        <v>13.837866838610999</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>44644</v>
+        <v>44636</v>
       </c>
       <c r="B588">
-        <v>26.146809088824298</v>
+        <v>13.3576594891074</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>44645</v>
+        <v>44637</v>
       </c>
       <c r="B589">
-        <v>26.2425853582724</v>
+        <v>13.127002494910201</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>44646</v>
+        <v>44638</v>
       </c>
       <c r="B590">
-        <v>26.327087482606299</v>
+        <v>12.934788485387299</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>44647</v>
+        <v>44639</v>
       </c>
       <c r="B591">
-        <v>26.398814316361101</v>
+        <v>12.5722678570847</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>44648</v>
+        <v>44640</v>
       </c>
       <c r="B592">
-        <v>26.456527282603801</v>
+        <v>11.9792952050416</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>44649</v>
+        <v>44641</v>
       </c>
       <c r="B593">
-        <v>26.498833183126099</v>
+        <v>11.330884229183599</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>44650</v>
+        <v>44642</v>
       </c>
       <c r="B594">
-        <v>26.5253799814639</v>
+        <v>10.6570102250927</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="B595">
-        <v>26.536877238915999</v>
+        <v>9.97334125559507</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>44652</v>
+        <v>44644</v>
       </c>
       <c r="B596">
-        <v>26.534179365168001</v>
+        <v>9.3298191270306408</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B597">
-        <v>26.518151484558</v>
+        <v>8.7735997293981196</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>44654</v>
+        <v>44646</v>
       </c>
       <c r="B598">
-        <v>26.4895846549914</v>
+        <v>8.3269711026357296</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>44655</v>
+        <v>44647</v>
       </c>
       <c r="B599">
-        <v>26.449138198858599</v>
+        <v>7.9766454523854797</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>44656</v>
+        <v>44648</v>
       </c>
       <c r="B600">
-        <v>26.397302314884602</v>
+        <v>7.6837358043001096</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>44657</v>
+        <v>44649</v>
       </c>
       <c r="B601">
-        <v>26.3343752129392</v>
+        <v>7.4048643475749598</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>44658</v>
+        <v>44650</v>
       </c>
       <c r="B602">
-        <v>26.260450439518099</v>
+        <v>7.1274180828903804</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>44659</v>
+        <v>44651</v>
       </c>
       <c r="B603">
-        <v>26.175411521553599</v>
+        <v>6.8745831479311796</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>44660</v>
+        <v>44652</v>
       </c>
       <c r="B604">
-        <v>26.078932438040798</v>
+        <v>6.6537391924535001</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>44661</v>
+        <v>44653</v>
       </c>
       <c r="B605">
-        <v>25.970483735467901</v>
+        <v>6.4865517053789699</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>44662</v>
+        <v>44654</v>
       </c>
       <c r="B606">
-        <v>25.8493453916658</v>
+        <v>6.3946005316051302</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>44663</v>
+        <v>44655</v>
       </c>
       <c r="B607">
-        <v>25.714628874591799</v>
+        <v>6.3829893450654298</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>44664</v>
+        <v>44656</v>
       </c>
       <c r="B608">
-        <v>25.5653122876315</v>
+        <v>6.4311338523967301</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>44665</v>
+        <v>44657</v>
       </c>
       <c r="B609">
-        <v>25.400294027120101</v>
+        <v>6.4967196915606404</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>44666</v>
+        <v>44658</v>
       </c>
       <c r="B610">
-        <v>25.2184718583913</v>
+        <v>6.5348552287335098</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>44667</v>
+        <v>44659</v>
       </c>
       <c r="B611">
-        <v>25.018855375064199</v>
+        <v>6.5297859947325296</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>44668</v>
+        <v>44660</v>
       </c>
       <c r="B612">
-        <v>24.800719715199701</v>
+        <v>6.5159908950547596</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>44669</v>
+        <v>44661</v>
       </c>
       <c r="B613">
-        <v>24.5637969651833</v>
+        <v>6.4924338244002602</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>44670</v>
+        <v>44662</v>
       </c>
       <c r="B614">
-        <v>24.308559798661499</v>
+        <v>6.4556379072595904</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B615">
-        <v>24.0370095328019</v>
+        <v>6.4231704217071997</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>44672</v>
+        <v>44664</v>
       </c>
       <c r="B616">
-        <v>23.753198434215101</v>
+        <v>6.41622453929355</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>44673</v>
+        <v>44665</v>
       </c>
       <c r="B617">
-        <v>23.4632700551314</v>
+        <v>6.4486198808098401</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>44674</v>
+        <v>44666</v>
       </c>
       <c r="B618">
-        <v>23.1750355079702</v>
+        <v>6.5212573899701001</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>44675</v>
+        <v>44667</v>
       </c>
       <c r="B619">
-        <v>22.897041515366698</v>
+        <v>6.6242199098546504</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>44676</v>
+        <v>44668</v>
       </c>
       <c r="B620">
-        <v>22.637290154785401</v>
+        <v>6.7429462692292699</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>44677</v>
+        <v>44669</v>
       </c>
       <c r="B621">
-        <v>22.401818850277799</v>
+        <v>6.8681141706390099</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>44678</v>
+        <v>44670</v>
       </c>
       <c r="B622">
-        <v>22.193435610619598</v>
+        <v>7.0137616833760497</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="B623">
-        <v>22.0111128004623</v>
+        <v>7.2116505524921797</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>44680</v>
+        <v>44672</v>
       </c>
       <c r="B624">
-        <v>21.849857947115598</v>
+        <v>7.4675672685775396</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B625">
-        <v>21.700812839863701</v>
+        <v>7.7667879561831796</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>44682</v>
+        <v>44674</v>
       </c>
       <c r="B626">
-        <v>21.553839398751801</v>
+        <v>8.0844100677359396</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>44683</v>
+        <v>44675</v>
       </c>
       <c r="B627">
-        <v>21.406482023501098</v>
+        <v>8.39159042009533</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>44684</v>
+        <v>44676</v>
       </c>
       <c r="B628">
-        <v>21.258618574387398</v>
+        <v>8.6612827414028892</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>44685</v>
+        <v>44677</v>
       </c>
       <c r="B629">
-        <v>21.110214505292198</v>
+        <v>8.8746066185419803</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>44686</v>
+        <v>44678</v>
       </c>
       <c r="B630">
-        <v>20.961304894575299</v>
+        <v>9.0302855739117796</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>44687</v>
+        <v>44679</v>
       </c>
       <c r="B631">
-        <v>20.8119790876829</v>
+        <v>9.1538257011014608</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>44688</v>
+        <v>44680</v>
       </c>
       <c r="B632">
-        <v>20.662368282649499</v>
+        <v>9.2237525738216402</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>44689</v>
+        <v>44681</v>
       </c>
       <c r="B633">
-        <v>20.512635868559101</v>
+        <v>9.1669420050275008</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>44690</v>
+        <v>44682</v>
       </c>
       <c r="B634">
-        <v>20.362970064143301</v>
+        <v>9.0016969733414491</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>44691</v>
+        <v>44683</v>
       </c>
       <c r="B635">
-        <v>20.213578291097502</v>
+        <v>8.7993540914399393</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>44692</v>
+        <v>44684</v>
       </c>
       <c r="B636">
-        <v>20.064682676563699</v>
+        <v>8.6396647462914</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>44693</v>
+        <v>44685</v>
       </c>
       <c r="B637">
-        <v>19.916516060423699</v>
+        <v>8.5827022465850007</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>44694</v>
+        <v>44686</v>
       </c>
       <c r="B638">
-        <v>19.769317854387001</v>
+        <v>8.6580749574487008</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B639">
-        <v>19.623329044441299</v>
+        <v>8.8656000280945992</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>44696</v>
+        <v>44688</v>
       </c>
       <c r="B640">
-        <v>19.478785540650499</v>
+        <v>9.1770109938460198</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>44697</v>
+        <v>44689</v>
       </c>
       <c r="B641">
-        <v>19.335908965524801</v>
+        <v>9.5616191568383897</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>44698</v>
+        <v>44690</v>
       </c>
       <c r="B642">
-        <v>19.1948938588414</v>
+        <v>10.058750774941601</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>44699</v>
+        <v>44691</v>
       </c>
       <c r="B643">
-        <v>19.055890215289399</v>
+        <v>10.698486838640401</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>44700</v>
+        <v>44692</v>
       </c>
       <c r="B644">
-        <v>18.918980356750001</v>
+        <v>11.4793561489028</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>44701</v>
+        <v>44693</v>
       </c>
       <c r="B645">
-        <v>18.7841495280753</v>
+        <v>12.373662736817501</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>44702</v>
+        <v>44694</v>
       </c>
       <c r="B646">
-        <v>18.650690009056099</v>
+        <v>13.3294548493081</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>44703</v>
+        <v>44695</v>
       </c>
       <c r="B647">
-        <v>18.515593522999001</v>
+        <v>14.275656459547299</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B648">
-        <v>18.375431919390099</v>
+        <v>15.1381592808386</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>44705</v>
+        <v>44697</v>
       </c>
       <c r="B649">
-        <v>18.227072693843301</v>
+        <v>15.8694674526346</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="B650">
-        <v>18.0679253028921</v>
+        <v>16.498716808464</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>44707</v>
+        <v>44699</v>
       </c>
       <c r="B651">
-        <v>17.896240088423301</v>
+        <v>17.1195000643363</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>44708</v>
+        <v>44700</v>
       </c>
       <c r="B652">
-        <v>17.711366205047799</v>
+        <v>17.7836488963164</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B653">
-        <v>17.513827210146999</v>
+        <v>18.4682227412627</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>44710</v>
+        <v>44702</v>
       </c>
       <c r="B654">
-        <v>17.305186367378901</v>
+        <v>19.114438409276101</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>44711</v>
+        <v>44703</v>
       </c>
       <c r="B655">
-        <v>17.087810765027299</v>
+        <v>19.6687085904891</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>44712</v>
+        <v>44704</v>
       </c>
       <c r="B656">
-        <v>16.8645050644115</v>
+        <v>20.107700085437099</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>44713</v>
+        <v>44705</v>
       </c>
       <c r="B657">
-        <v>16.638158074493901</v>
+        <v>20.444643107334901</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>44714</v>
+        <v>44706</v>
       </c>
       <c r="B658">
-        <v>16.4114833396576</v>
+        <v>20.7159690780185</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>44715</v>
+        <v>44707</v>
       </c>
       <c r="B659">
-        <v>16.186588883214</v>
+        <v>20.955025080576402</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>44716</v>
+        <v>44708</v>
       </c>
       <c r="B660">
-        <v>15.9640865217042</v>
+        <v>21.164178526564701</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>44717</v>
+        <v>44709</v>
       </c>
       <c r="B661">
-        <v>15.744073612524399</v>
+        <v>21.349167343365899</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>44718</v>
+        <v>44710</v>
       </c>
       <c r="B662">
-        <v>15.5264875117232</v>
+        <v>21.494746558043101</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>44719</v>
+        <v>44711</v>
       </c>
       <c r="B663">
-        <v>15.3111477856809</v>
+        <v>21.564983618261302</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>44720</v>
+        <v>44712</v>
       </c>
       <c r="B664">
-        <v>15.0977902457506</v>
+        <v>21.532084762787999</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>44721</v>
+        <v>44713</v>
       </c>
       <c r="B665">
-        <v>14.886093207542601</v>
+        <v>21.3938705591355</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>44722</v>
+        <v>44714</v>
       </c>
       <c r="B666">
-        <v>14.675697115826701</v>
+        <v>21.181779999469601</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>44723</v>
+        <v>44715</v>
       </c>
       <c r="B667">
-        <v>14.4662189395052</v>
+        <v>20.949841888465102</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>44724</v>
+        <v>44716</v>
       </c>
       <c r="B668">
-        <v>14.2572627562843</v>
+        <v>20.752136295460598</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>44725</v>
+        <v>44717</v>
       </c>
       <c r="B669">
-        <v>14.048427861391399</v>
+        <v>20.604799788971501</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>44726</v>
+        <v>44718</v>
       </c>
       <c r="B670">
-        <v>13.8393156363803</v>
+        <v>20.436710383065499</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>44727</v>
+        <v>44719</v>
       </c>
       <c r="B671">
-        <v>13.6295363491627</v>
+        <v>20.163320443391701</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>44728</v>
+        <v>44720</v>
       </c>
       <c r="B672">
-        <v>13.4187170443608</v>
+        <v>19.784344633173198</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>44729</v>
+        <v>44721</v>
       </c>
       <c r="B673">
-        <v>13.206511723563899</v>
+        <v>19.348604151745899</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>44730</v>
+        <v>44722</v>
       </c>
       <c r="B674">
-        <v>12.992615088325801</v>
+        <v>18.9200866038173</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>44731</v>
+        <v>44723</v>
       </c>
       <c r="B675">
-        <v>12.7767811792015</v>
+        <v>18.5572298484173</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>44732</v>
+        <v>44724</v>
       </c>
       <c r="B676">
-        <v>12.558848207482001</v>
+        <v>18.299790183874698</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>44733</v>
+        <v>44725</v>
       </c>
       <c r="B677">
-        <v>12.338770601496901</v>
+        <v>18.163372486011799</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>44734</v>
+        <v>44726</v>
       </c>
       <c r="B678">
-        <v>12.1166585611778</v>
+        <v>18.133812166262999</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>44735</v>
+        <v>44727</v>
       </c>
       <c r="B679">
-        <v>11.8916192310369</v>
+        <v>18.167165583268702</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>44736</v>
+        <v>44728</v>
       </c>
       <c r="B680">
-        <v>11.659249629393001</v>
+        <v>18.2527891006226</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>44737</v>
+        <v>44729</v>
       </c>
       <c r="B681">
-        <v>11.4169966906873</v>
+        <v>18.422314382424901</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>44738</v>
+        <v>44730</v>
       </c>
       <c r="B682">
-        <v>11.165373522736401</v>
+        <v>18.697959362426001</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>44739</v>
+        <v>44731</v>
       </c>
       <c r="B683">
-        <v>10.9075927816729</v>
+        <v>19.080709546562801</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>44740</v>
+        <v>44732</v>
       </c>
       <c r="B684">
-        <v>10.648937456996901</v>
+        <v>19.546435916662201</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>44741</v>
+        <v>44733</v>
       </c>
       <c r="B685">
-        <v>10.395821896797999</v>
+        <v>20.045832954615999</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>44742</v>
+        <v>44734</v>
       </c>
       <c r="B686">
-        <v>10.154614594698799</v>
+        <v>20.516364709093899</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>44743</v>
+        <v>44735</v>
       </c>
       <c r="B687">
-        <v>9.9304547800902707</v>
+        <v>20.904968573302099</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>44744</v>
+        <v>44736</v>
       </c>
       <c r="B688">
-        <v>9.7264850020473492</v>
+        <v>21.204832456546502</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>44745</v>
+        <v>44737</v>
       </c>
       <c r="B689">
-        <v>9.5435735259793706</v>
+        <v>21.4690704654749</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>44746</v>
+        <v>44738</v>
       </c>
       <c r="B690">
-        <v>9.3804543255921597</v>
+        <v>21.6963837303791</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>44747</v>
+        <v>44739</v>
       </c>
       <c r="B691">
-        <v>9.2341333218917097</v>
+        <v>21.8881952125938</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>44748</v>
+        <v>44740</v>
       </c>
       <c r="B692">
-        <v>9.1011181553926104</v>
+        <v>22.062287590218499</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>44749</v>
+        <v>44741</v>
       </c>
       <c r="B693">
-        <v>8.98020680909951</v>
+        <v>22.240159643840901</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="B694">
-        <v>8.8707435682415401</v>
+        <v>22.440253546531</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>44751</v>
+        <v>44743</v>
       </c>
       <c r="B695">
-        <v>8.77202393308478</v>
+        <v>22.674556532118601</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>44752</v>
+        <v>44744</v>
       </c>
       <c r="B696">
-        <v>8.6833717271392796</v>
+        <v>22.948409157200299</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>44753</v>
+        <v>44745</v>
       </c>
       <c r="B697">
-        <v>8.6041927023843598</v>
+        <v>23.2600255092377</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>44754</v>
+        <v>44746</v>
       </c>
       <c r="B698">
-        <v>8.5340101061531008</v>
+        <v>23.599516718666099</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>44755</v>
+        <v>44747</v>
       </c>
       <c r="B699">
-        <v>8.4724871178994707</v>
+        <v>23.9873040363317</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>44756</v>
+        <v>44748</v>
       </c>
       <c r="B700">
-        <v>8.4194400611495404</v>
+        <v>24.514304063911201</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>44757</v>
+        <v>44749</v>
       </c>
       <c r="B701">
-        <v>8.3748451893561899</v>
+        <v>25.183114793963</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>44758</v>
+        <v>44750</v>
       </c>
       <c r="B702">
-        <v>8.3388407825189006</v>
+        <v>25.926922308212401</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>44759</v>
+        <v>44751</v>
       </c>
       <c r="B703">
-        <v>8.3117253076226394</v>
+        <v>26.656720227748099</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>44760</v>
+        <v>44752</v>
       </c>
       <c r="B704">
-        <v>8.2939514632060405</v>
+        <v>27.294018336224202</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>44761</v>
+        <v>44753</v>
       </c>
       <c r="B705">
-        <v>8.2861149945799397</v>
+        <v>27.7904493209649</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>44762</v>
+        <v>44754</v>
       </c>
       <c r="B706">
-        <v>8.2895759516409999</v>
+        <v>28.134232796964099</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>44763</v>
+        <v>44755</v>
       </c>
       <c r="B707">
-        <v>8.3080108935804002</v>
+        <v>28.355195876872902</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="B708">
-        <v>8.3448679000370607</v>
+        <v>28.511652107301401</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>44765</v>
+        <v>44757</v>
       </c>
       <c r="B709">
-        <v>8.4025557880608996</v>
+        <v>28.6175700874421</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>44766</v>
+        <v>44758</v>
       </c>
       <c r="B710">
-        <v>8.4822865903576794</v>
+        <v>28.6563161526736</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>44767</v>
+        <v>44759</v>
       </c>
       <c r="B711">
-        <v>8.5838908426762508</v>
+        <v>28.607652667005699</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>44768</v>
+        <v>44760</v>
       </c>
       <c r="B712">
-        <v>8.7056596068752707</v>
+        <v>28.462066618318001</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>44769</v>
+        <v>44761</v>
       </c>
       <c r="B713">
-        <v>8.8442727396553504</v>
+        <v>28.229932471667901</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>44770</v>
+        <v>44762</v>
       </c>
       <c r="B714">
-        <v>8.9948718121054796</v>
+        <v>27.9471804017757</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>44771</v>
+        <v>44763</v>
       </c>
       <c r="B715">
-        <v>9.1513217422507402</v>
+        <v>27.6677861474124</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>44772</v>
+        <v>44764</v>
       </c>
       <c r="B716">
-        <v>9.30667454500737</v>
+        <v>27.444528015320799</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>44773</v>
+        <v>44765</v>
       </c>
       <c r="B717">
-        <v>9.4538051106253498</v>
+        <v>27.293282101885001</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>44774</v>
+        <v>44766</v>
       </c>
       <c r="B718">
-        <v>9.5861446713068794</v>
+        <v>27.166267247871399</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>44775</v>
+        <v>44767</v>
       </c>
       <c r="B719">
-        <v>9.6984374219916898</v>
+        <v>27.0483835832942</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>44776</v>
+        <v>44768</v>
       </c>
       <c r="B720">
-        <v>9.7873827045082002</v>
+        <v>26.9497143039126</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>44777</v>
+        <v>44769</v>
       </c>
       <c r="B721">
-        <v>9.8519621794951107</v>
+        <v>26.879650724041301</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>44778</v>
+        <v>44770</v>
       </c>
       <c r="B722">
-        <v>9.8935398577435496</v>
+        <v>26.8403807948558</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>44779</v>
+        <v>44771</v>
       </c>
       <c r="B723">
-        <v>9.9158313072679398</v>
+        <v>26.8234700843669</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>44780</v>
+        <v>44772</v>
       </c>
       <c r="B724">
-        <v>9.9248444926987602</v>
+        <v>26.811961485674399</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>44781</v>
+        <v>44773</v>
       </c>
       <c r="B725">
-        <v>9.9272797956940799</v>
+        <v>26.788355911325699</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>44782</v>
+        <v>44774</v>
       </c>
       <c r="B726">
-        <v>9.9249159958710305</v>
+        <v>26.746099254446701</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>44783</v>
+        <v>44775</v>
       </c>
       <c r="B727">
-        <v>9.9180640999247895</v>
+        <v>26.7013101341668</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>44784</v>
+        <v>44776</v>
       </c>
       <c r="B728">
-        <v>9.9069804835136903</v>
+        <v>26.676832627087499</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>44785</v>
+        <v>44777</v>
       </c>
       <c r="B729">
-        <v>9.89186270536565</v>
+        <v>26.689267346183701</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>44786</v>
+        <v>44778</v>
       </c>
       <c r="B730">
-        <v>9.8728482377701301</v>
+        <v>26.728662196534501</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>44787</v>
+        <v>44779</v>
       </c>
       <c r="B731">
-        <v>9.85001524235037</v>
+        <v>26.772385365444698</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>44788</v>
+        <v>44780</v>
       </c>
       <c r="B732">
-        <v>9.8233848467662703</v>
+        <v>26.7970642922512</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>44789</v>
+        <v>44781</v>
       </c>
       <c r="B733">
-        <v>9.7929246505018792</v>
+        <v>26.784493479053701</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>44790</v>
+        <v>44782</v>
       </c>
       <c r="B734">
-        <v>9.7585534155965501</v>
+        <v>26.724377188115799</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>44791</v>
+        <v>44783</v>
       </c>
       <c r="B735">
-        <v>9.7201470922419606</v>
+        <v>26.615544289779798</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>44792</v>
+        <v>44784</v>
       </c>
       <c r="B736">
-        <v>9.6775464982765094</v>
+        <v>26.4674309559908</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>44793</v>
+        <v>44785</v>
       </c>
       <c r="B737">
-        <v>9.6305671190584299</v>
+        <v>26.2868517256145</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>44794</v>
+        <v>44786</v>
       </c>
       <c r="B738">
-        <v>9.5790116151580307</v>
+        <v>26.044669661608999</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>44795</v>
+        <v>44787</v>
       </c>
       <c r="B739">
-        <v>9.5226857037255908</v>
+        <v>25.729620837379599</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>44796</v>
+        <v>44788</v>
       </c>
       <c r="B740">
-        <v>9.4614180844178808</v>
+        <v>25.352553769073801</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>44797</v>
+        <v>44789</v>
       </c>
       <c r="B741">
-        <v>9.3950849633115894</v>
+        <v>24.937769942672102</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>44798</v>
+        <v>44790</v>
       </c>
       <c r="B742">
-        <v>9.3236394192685594</v>
+        <v>24.518784226384</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>44799</v>
+        <v>44791</v>
       </c>
       <c r="B743">
-        <v>9.2471452709978195</v>
+        <v>24.133374291338502</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>44800</v>
+        <v>44792</v>
       </c>
       <c r="B744">
-        <v>9.1658141502130608</v>
+        <v>23.8142381603889</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>44801</v>
+        <v>44793</v>
       </c>
       <c r="B745">
-        <v>9.0800431030277995</v>
+        <v>23.575068934650002</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>44802</v>
+        <v>44794</v>
       </c>
       <c r="B746">
-        <v>8.9904482403151302</v>
+        <v>23.3897841872577</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>44803</v>
+        <v>44795</v>
       </c>
       <c r="B747">
-        <v>8.8978878966706798</v>
+        <v>23.2311332189078</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>44804</v>
+        <v>44796</v>
       </c>
       <c r="B748">
-        <v>8.8034668145611406</v>
+        <v>23.1315438702884</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>44805</v>
+        <v>44797</v>
       </c>
       <c r="B749">
-        <v>8.70851167639659</v>
+        <v>23.097239700826002</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>44806</v>
+        <v>44798</v>
       </c>
       <c r="B750">
-        <v>8.6145086765360901</v>
+        <v>23.108234855086199</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>44807</v>
+        <v>44799</v>
       </c>
       <c r="B751">
-        <v>8.5229975326176497</v>
+        <v>23.132592320000398</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>44808</v>
+        <v>44800</v>
       </c>
       <c r="B752">
-        <v>8.4354184557520302</v>
+        <v>23.1370738113812</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>44809</v>
+        <v>44801</v>
       </c>
       <c r="B753">
-        <v>8.35290499977134</v>
+        <v>23.0952552330278</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>44810</v>
+        <v>44802</v>
       </c>
       <c r="B754">
-        <v>8.2760687634764594</v>
+        <v>22.993415301339802</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>44811</v>
+        <v>44803</v>
       </c>
       <c r="B755">
-        <v>8.2047790518785799</v>
+        <v>22.838620955724501</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>44812</v>
+        <v>44804</v>
       </c>
       <c r="B756">
-        <v>8.1379364517639807</v>
+        <v>22.659948100074701</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>44813</v>
+        <v>44805</v>
       </c>
       <c r="B757">
-        <v>8.0732560666047206</v>
+        <v>22.477364365326899</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>44814</v>
+        <v>44806</v>
       </c>
       <c r="B758">
-        <v>8.0086855176378098</v>
+        <v>22.292607407730099</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>44815</v>
+        <v>44807</v>
       </c>
       <c r="B759">
-        <v>7.94403129814543</v>
+        <v>22.094865418706799</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>44816</v>
+        <v>44808</v>
       </c>
       <c r="B760">
-        <v>7.8792837629556596</v>
+        <v>21.871597273420399</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>44817</v>
+        <v>44809</v>
       </c>
       <c r="B761">
-        <v>7.8144311455441402</v>
+        <v>21.615778589042101</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>44818</v>
+        <v>44810</v>
       </c>
       <c r="B762">
-        <v>7.7494594960776304</v>
+        <v>21.331096121530599</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>44819</v>
+        <v>44811</v>
       </c>
       <c r="B763">
-        <v>7.6843526072184396</v>
+        <v>21.0308511915845</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>44820</v>
+        <v>44812</v>
       </c>
       <c r="B764">
-        <v>7.6190919290154397</v>
+        <v>20.7319764005975</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>44821</v>
+        <v>44813</v>
       </c>
       <c r="B765">
-        <v>7.553656475555</v>
+        <v>20.4439279773474</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>44822</v>
+        <v>44814</v>
       </c>
       <c r="B766">
-        <v>7.4880227278922797</v>
+        <v>20.144903337401399</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <v>44823</v>
+        <v>44815</v>
       </c>
       <c r="B767">
-        <v>7.42216454030918</v>
+        <v>19.791497023070999</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>44824</v>
+        <v>44816</v>
       </c>
       <c r="B768">
-        <v>7.3560530603727399</v>
+        <v>19.391315337707699</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>44825</v>
+        <v>44817</v>
       </c>
       <c r="B769">
-        <v>7.2896566778722898</v>
+        <v>18.982486671010701</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>44826</v>
+        <v>44818</v>
       </c>
       <c r="B770">
-        <v>7.2229410238174596</v>
+        <v>18.606104387734199</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>44827</v>
+        <v>44819</v>
       </c>
       <c r="B771">
-        <v>7.1558690486405396</v>
+        <v>18.2887912089964</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>44828</v>
+        <v>44820</v>
       </c>
       <c r="B772">
-        <v>7.0884012189217698</v>
+        <v>18.03587930854</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>44829</v>
+        <v>44821</v>
       </c>
       <c r="B773">
-        <v>7.02049588461876</v>
+        <v>17.8371694101046</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>44830</v>
+        <v>44822</v>
       </c>
       <c r="B774">
-        <v>6.9521098839782001</v>
+        <v>17.676731262981601</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>44831</v>
+        <v>44823</v>
       </c>
       <c r="B775">
-        <v>6.8831994706059101</v>
+        <v>17.546426620633799</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>44832</v>
+        <v>44824</v>
       </c>
       <c r="B776">
-        <v>6.8137216652583703</v>
+        <v>17.453660094585</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>44833</v>
+        <v>44825</v>
       </c>
       <c r="B777">
-        <v>6.7436361510046696</v>
+        <v>17.426851318781502</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>44834</v>
+        <v>44826</v>
       </c>
       <c r="B778">
-        <v>6.6729078394089401</v>
+        <v>17.494224598727101</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>44835</v>
+        <v>44827</v>
       </c>
       <c r="B779">
-        <v>6.6015102289399001</v>
+        <v>17.666987448636402</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>44836</v>
+        <v>44828</v>
       </c>
       <c r="B780">
-        <v>6.5294296423652298</v>
+        <v>17.931577263173299</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>44837</v>
+        <v>44829</v>
       </c>
       <c r="B781">
-        <v>6.4566703503420797</v>
+        <v>18.249605152981498</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>44838</v>
+        <v>44830</v>
       </c>
       <c r="B782">
-        <v>6.3832604434283997</v>
+        <v>18.568601801162</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B783">
+        <v>18.841203758231199</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B784">
+        <v>19.057090796690701</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B785">
+        <v>19.293424373571</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B786">
+        <v>19.657235089182901</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B787">
+        <v>20.148974997901298</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B788">
+        <v>20.7043140780318</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B789">
+        <v>21.240324261684901</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B790">
+        <v>21.681781863171601</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
         <v>44839</v>
       </c>
-      <c r="B783">
-        <v>6.3092580851982598</v>
+      <c r="B791">
+        <v>21.978425323949899</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B792">
+        <v>22.111587063650099</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B793">
+        <v>22.097917641670399</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B794">
+        <v>21.990932437624899</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B795">
+        <v>21.841796316503501</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B796">
+        <v>21.667453821004599</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B797">
+        <v>21.438739881608601</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B798">
+        <v>21.113353248719701</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B799">
+        <v>20.669223386281299</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B800">
+        <v>20.125150439134998</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B801">
+        <v>19.537811317657699</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B802">
+        <v>18.973315247286202</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B803">
+        <v>18.4596895263204</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B804">
+        <v>17.945108109626499</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B805">
+        <v>17.361038406622399</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B806">
+        <v>16.691904516209998</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B807">
+        <v>15.972592254125599</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B808">
+        <v>15.2529872118253</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B809">
+        <v>14.5764936661659</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B810">
+        <v>13.968381131500401</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B811">
+        <v>13.4371898004336</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B812">
+        <v>12.978434714000199</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B813">
+        <v>12.577322258033</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B814">
+        <v>12.222236448437</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B815">
+        <v>11.934875566722299</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B816">
+        <v>11.739248068452</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B817">
+        <v>11.643947756097001</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B818">
+        <v>11.635858651817401</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B819">
+        <v>11.6771596223966</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B820">
+        <v>11.7120268112145</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B821">
+        <v>11.686737461116101</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B822">
+        <v>11.583313253032999</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B823">
+        <v>11.4494668147849</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B824">
+        <v>11.3031167820326</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B825">
+        <v>11.130907113628</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B826">
+        <v>10.929153171886201</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B827">
+        <v>10.702414489227699</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B828">
+        <v>10.4604121000452</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B829">
+        <v>10.214448056421</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B830">
+        <v>9.9750198252291007</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B831">
+        <v>9.7496387476535809</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B832">
+        <v>9.5384743000214396</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B833">
+        <v>9.3237215590089999</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B834">
+        <v>9.0787515072993905</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B835">
+        <v>8.8081221825736105</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B836">
+        <v>8.5343348110322506</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B837">
+        <v>8.28276421827813</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B838">
+        <v>8.0734328555064199</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B839">
+        <v>7.9164661729702397</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B840">
+        <v>7.8109435361778496</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B841">
+        <v>7.7463344278563699</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B842">
+        <v>7.7068854640454401</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B843">
+        <v>7.6832517290740299</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B844">
+        <v>7.67473504207479</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B845">
+        <v>7.6920494087616698</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B846">
+        <v>7.7468169099384303</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B847">
+        <v>7.8414580304534098</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B848">
+        <v>7.9631648957049999</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B849">
+        <v>8.08724445240337</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B850">
+        <v>8.1892001690186795</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B851">
+        <v>8.2630604869999296</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B852">
+        <v>8.3339342381821204</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B853">
+        <v>8.4194802648165794</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B854">
+        <v>8.5246549579391804</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B855">
+        <v>8.6465556225873303</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B856">
+        <v>8.7785833868460497</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B857">
+        <v>8.9133260353750199</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B858">
+        <v>9.0447695223871705</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B859">
+        <v>9.1683792830468107</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B860">
+        <v>9.2815235456295699</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B861">
+        <v>9.3852114236571307</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B862">
+        <v>9.4835896585557595</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B863">
+        <v>9.5742945319431492</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B864">
+        <v>9.6530044557405592</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B865">
+        <v>9.7170524987938602</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B866">
+        <v>9.7664801506385306</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B867">
+        <v>9.8040918817253697</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B868">
+        <v>9.8348427954988402</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B869">
+        <v>9.86470429171235</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B870">
+        <v>9.8975755268566399</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B871">
+        <v>9.9316921817239301</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B872">
+        <v>9.9698783363969401</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B873">
+        <v>10.016980834757099</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B874">
+        <v>10.0697073012348</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B875">
+        <v>10.1216906277084</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B876">
+        <v>10.1677645317135</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B877">
+        <v>10.206891647725399</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B878">
+        <v>10.241415326374799</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B879">
+        <v>10.2746436704704</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B880">
+        <v>10.3077799565206</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B881">
+        <v>10.3423806226376</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B882">
+        <v>10.3892629280018</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B883">
+        <v>10.4438478285731</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B884">
+        <v>10.4920567122986</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B885">
+        <v>10.5198154777172</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B886">
+        <v>10.518509115343599</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B887">
+        <v>10.487542239179501</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B888">
+        <v>10.433131728072601</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B889">
+        <v>10.364499159323101</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B890">
+        <v>10.2871250347164</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B891">
+        <v>10.200522659411</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B892">
+        <v>10.103800166647099</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>9.9941247668640898</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>9.8694583707332502</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B895">
+        <v>9.7313024517966706</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B896">
+        <v>9.5867919449942995</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B897">
+        <v>9.4472876347116408</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B898">
+        <v>9.3232282587452104</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B899">
+        <v>9.2162588503377396</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B900">
+        <v>9.1175606734260501</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B901">
+        <v>9.0405744793342606</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B902">
+        <v>8.9912504353301905</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B903">
+        <v>8.9607212582645008</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B904">
+        <v>8.9342588358265598</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B905">
+        <v>8.8965173054687696</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B906">
+        <v>8.8350354564569695</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B907">
+        <v>8.7424850609806395</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B908">
+        <v>8.6182678191986195</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B909">
+        <v>8.4709341480156599</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B910">
+        <v>8.2996727987525603</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B911">
+        <v>8.0671886992898099</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B912">
+        <v>7.7813632078203803</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B913">
+        <v>7.4814475845080697</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B914">
+        <v>7.2114642178901098</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B915">
+        <v>7.0039355616237797</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B916">
+        <v>6.8726943224844703</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B917">
+        <v>6.8141376195693901</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B918">
+        <v>6.8114799916513702</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B919">
+        <v>6.8468473510219798</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B920">
+        <v>6.9573175036656698</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B921">
+        <v>7.1918957616849699</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B922">
+        <v>7.5429513659045204</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B923">
+        <v>7.9687974277403297</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B924">
+        <v>8.4122433242071395</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B925">
+        <v>8.81378561543535</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B926">
+        <v>9.1170729515453797</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B927">
+        <v>9.2781480242108891</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B928">
+        <v>9.3065186608051391</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B929">
+        <v>9.2649909113582396</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B930">
+        <v>9.1719784495739098</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B931">
+        <v>9.0268679055539405</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B932">
+        <v>8.8303171728489005</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B933">
+        <v>8.5883826019852201</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B934">
+        <v>8.3173374439375394</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B935">
+        <v>8.0447211986987508</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B936">
+        <v>7.8020133675940198</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B937">
+        <v>7.6075754749226503</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B938">
+        <v>7.4417991641614201</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B939">
+        <v>7.2791600387248998</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B940">
+        <v>7.1190199256487299</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B941">
+        <v>6.96203113692202</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B942">
+        <v>6.8089331027868099</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B943">
+        <v>6.6601880132579803</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B944">
+        <v>6.5153955380488897</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B945">
+        <v>6.3727982428028298</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B946">
+        <v>6.2296365658655901</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B947">
+        <v>6.0841555634677196</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B948">
+        <v>5.9378862725153798</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B949">
+        <v>5.7915766910266004</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B950">
+        <v>5.64520765456421</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B951">
+        <v>5.4987527100172198</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B952">
+        <v>5.3521778462599601</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019_cc.xlsx
+++ b/Covid_29019_cc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F961EFD-5E21-074A-B649-A01A2F612241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276004B-4F24-B646-9537-C61798671669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="2760" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15560" yWindow="500" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
